--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1534,6 +1534,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,25 +1544,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1858,9 +1858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1870,7 +1870,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1927,16 +1927,16 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="4" t="s">
@@ -1987,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2007,10 +2007,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -2101,10 +2101,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="4" t="s">
@@ -2115,10 +2115,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
@@ -2217,16 +2217,16 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2333,7 +2333,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="315">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
@@ -2387,7 +2387,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2395,13 +2395,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="18"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2409,7 +2409,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
@@ -2535,7 +2535,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2543,49 +2543,49 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="18"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -2593,13 +2593,13 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="210">
-      <c r="A80" s="18"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -2607,19 +2607,19 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
         <v>157</v>
       </c>
@@ -2735,7 +2735,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="18" t="s">
         <v>183</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -2743,7 +2743,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="15"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="10" t="s">
         <v>185</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2839,19 +2839,19 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="17"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="17"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="21" t="s">
         <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -2859,13 +2859,13 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="120">
-      <c r="A116" s="17"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="105">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="18" t="s">
         <v>212</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -2873,7 +2873,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="210">
-      <c r="A118" s="15"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="4" t="s">
         <v>214</v>
       </c>
@@ -2904,6 +2904,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
@@ -2916,11 +2921,6 @@
     <mergeCell ref="A71:A78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -2965,10 +2965,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="224">
   <si>
     <t>Topics</t>
   </si>
@@ -1340,6 +1340,41 @@
 &lt;source&gt;1.8&lt;/source&gt; &lt;target&gt;1.8&lt;/target&gt;
 &lt;/configuration&gt;
 &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>create encrypted password that can go to settings.xml</t>
+  </si>
+  <si>
+    <t>mvn --encrypt-passord
+from maven 3.2.1 and above - running above command will prompt for password. After entering password encrypted password will be created.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that encrypted password has to go to settings.xml:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;servers&gt;
+ &lt;id&gt;my.server&lt;/id&gt;
+&lt;username&gt;myusername&lt;/username&gt;
+&lt;password&gt;{encrypted_password}&lt;/password&gt;
+&lt;/servers&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1500,7 +1535,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1537,6 +1572,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1544,13 +1582,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1558,9 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1927,16 +1966,16 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="4" t="s">
@@ -1985,11 +2024,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2007,10 +2046,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -2101,10 +2140,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="4" t="s">
@@ -2115,10 +2154,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
@@ -2217,16 +2256,16 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
@@ -2325,7 +2364,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2333,7 +2372,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="315">
-      <c r="A45" s="19"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
@@ -2387,7 +2426,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2395,13 +2434,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="17"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2409,7 +2448,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
@@ -2535,7 +2574,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2543,49 +2582,49 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="17"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="17"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="17"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="17"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="17"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="17"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="17"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -2593,13 +2632,13 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="210">
-      <c r="A80" s="17"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -2607,19 +2646,19 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="17"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="17"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="17"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="4" t="s">
         <v>157</v>
       </c>
@@ -2713,7 +2752,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -2721,7 +2760,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="240">
-      <c r="A97" s="16"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="4" t="s">
         <v>180</v>
       </c>
@@ -2735,7 +2774,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -2743,13 +2782,13 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="18"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -2757,13 +2796,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="300">
-      <c r="A102" s="16"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="16"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="4" t="s">
         <v>189</v>
       </c>
@@ -2831,7 +2870,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2839,19 +2878,19 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="21"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="21"/>
+      <c r="A114" s="19"/>
       <c r="B114" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="19" t="s">
         <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -2859,13 +2898,13 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="120">
-      <c r="A116" s="21"/>
+      <c r="A116" s="19"/>
       <c r="B116" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="105">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -2873,7 +2912,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="210">
-      <c r="A118" s="18"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="4" t="s">
         <v>214</v>
       </c>
@@ -2902,13 +2941,23 @@
         <v>220</v>
       </c>
     </row>
+    <row r="122" spans="1:2" ht="45">
+      <c r="A122" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="90">
+      <c r="A123" s="23"/>
+      <c r="B123" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
+  <mergeCells count="18">
+    <mergeCell ref="A122:A123"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
@@ -2921,6 +2970,11 @@
     <mergeCell ref="A71:A78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -2938,6 +2992,7 @@
     <hyperlink ref="B13" r:id="rId11" location="How_do_I_use_plugins"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -2965,10 +3020,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="226">
   <si>
     <t>Topics</t>
   </si>
@@ -1374,6 +1374,46 @@
 &lt;username&gt;myusername&lt;/username&gt;
 &lt;password&gt;{encrypted_password}&lt;/password&gt;
 &lt;/servers&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>in Spring boot applications we will not have web.xml then in pom.xml if we are adding maven-web-plugin then this will complain like web.xml is missing. To resolve this error we need to add &lt;failOnMissingWebXml&gt; tag value to false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;build&gt;
+        &lt;finalName&gt;merchantinteractivepayments&lt;/finalName&gt;
+        &lt;plugins&gt;
+            &lt;plugin&gt;
+                &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
+                &lt;artifactId&gt;maven-war-plugin&lt;/artifactId&gt;
+                &lt;configuration&gt;
+                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;failOnMissingWebXml&gt;false&lt;/failOnMissingWebXml&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                &lt;/configuration&gt;
+            &lt;/plugin&gt;
+        &lt;/plugins&gt;
+    &lt;/build&gt;</t>
     </r>
   </si>
 </sst>
@@ -1535,7 +1575,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1555,9 +1595,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1575,6 +1612,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,16 +1628,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1599,7 +1642,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1904,12 +1949,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.125" customWidth="1"/>
+    <col min="2" max="2" width="94.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1953,8 +1998,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="124.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.75" customWidth="1"/>
+    <col min="2" max="2" width="124.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1966,16 +2011,16 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="16"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="18"/>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="4" t="s">
@@ -2024,17 +2069,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:A123"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.140625" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+    <col min="1" max="1" width="61.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="102.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2046,13 +2091,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2060,7 +2105,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2068,7 +2113,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2076,7 +2121,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2084,7 +2129,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2092,7 +2137,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2100,7 +2145,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2108,7 +2153,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2116,7 +2161,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2124,7 +2169,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2132,7 +2177,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2140,13 +2185,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2160,7 +2205,7 @@
       <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2168,7 +2213,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2176,7 +2221,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2184,7 +2229,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2192,7 +2237,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2200,7 +2245,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2208,7 +2253,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2216,7 +2261,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="195">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2224,7 +2269,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="90">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2232,7 +2277,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2240,7 +2285,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2248,7 +2293,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2268,23 +2313,23 @@
       <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2292,15 +2337,15 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2308,7 +2353,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2316,15 +2361,15 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -2332,7 +2377,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -2340,15 +2385,15 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2356,7 +2401,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2364,7 +2409,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2372,13 +2417,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="315">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2386,15 +2431,15 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="150">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2402,7 +2447,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2410,7 +2455,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2418,7 +2463,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="255">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2440,7 +2485,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2448,13 +2493,13 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2462,7 +2507,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2470,7 +2515,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2478,7 +2523,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2486,7 +2531,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2494,7 +2539,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2502,7 +2547,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2510,15 +2555,15 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="60">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2526,7 +2571,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="180">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2534,7 +2579,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2542,23 +2587,23 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -2566,14 +2611,14 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
+    <row r="71" spans="1:2">
       <c r="A71" s="20" t="s">
         <v>141</v>
       </c>
@@ -2587,7 +2632,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30">
+    <row r="73" spans="1:2">
       <c r="A73" s="20"/>
       <c r="B73" s="4" t="s">
         <v>144</v>
@@ -2637,7 +2682,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30">
+    <row r="81" spans="1:2">
       <c r="A81" s="20" t="s">
         <v>153</v>
       </c>
@@ -2664,15 +2709,15 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -2680,7 +2725,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="90">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="15" t="s">
         <v>161</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -2688,31 +2733,31 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="60">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:2" ht="45">
+      <c r="A89" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -2720,15 +2765,15 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -2736,7 +2781,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -2744,7 +2789,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -2752,7 +2797,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -2760,13 +2805,13 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="240">
-      <c r="A97" s="18"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -2774,7 +2819,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="21" t="s">
         <v>183</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -2782,13 +2827,13 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="21"/>
+      <c r="B100" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -2796,19 +2841,19 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="300">
-      <c r="A102" s="18"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="18"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -2816,7 +2861,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -2824,13 +2869,13 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -2838,7 +2883,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -2846,7 +2891,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="15" t="s">
         <v>199</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -2854,7 +2899,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="315">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -2862,7 +2907,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -2870,7 +2915,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="24" t="s">
         <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2878,19 +2923,19 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="19"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="19"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="24" t="s">
         <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -2898,13 +2943,13 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="120">
-      <c r="A116" s="19"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="105">
-      <c r="A117" s="17" t="s">
+    <row r="117" spans="1:2" ht="90">
+      <c r="A117" s="21" t="s">
         <v>212</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -2912,13 +2957,13 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="210">
-      <c r="A118" s="17"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="180">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -2926,7 +2971,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -2934,29 +2979,39 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="105">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="45">
-      <c r="A122" s="23" t="s">
+    <row r="122" spans="1:2" ht="30">
+      <c r="A122" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="90">
-      <c r="A123" s="23"/>
-      <c r="B123" s="14" t="s">
+      <c r="A123" s="24"/>
+      <c r="B123" s="13" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="180">
+      <c r="A124" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A2:B2"/>
@@ -2973,8 +3028,6 @@
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3007,8 +3060,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="122.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.75" customWidth="1"/>
+    <col min="2" max="2" width="122.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3020,10 +3073,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="228">
   <si>
     <t>Topics</t>
   </si>
@@ -1415,6 +1415,20 @@
         &lt;/plugins&gt;
     &lt;/build&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>How to Run “Execute” Java Main Class Using Maven Command</t>
+  </si>
+  <si>
+    <t>1. project_folder&gt;mvn exec:java
+2. pom.xml “needs to know about the main class“
+&lt;plugin&gt;
+        &lt;groupId&gt;org.codehaus.mojo&lt;/groupId&gt;
+        &lt;artifactId&gt;exec-maven-plugin&lt;/artifactId&gt;
+        &lt;configuration&gt;
+             &lt;mainClass&gt;com.hmkcode.MainClassName&lt;/mainClass&gt;
+        &lt;/configuration&gt;
+        &lt;/plugin&gt;</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1589,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1621,6 +1635,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1628,22 +1645,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2011,16 +2028,16 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="19"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="19"/>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="4" t="s">
@@ -2069,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2091,10 +2108,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2185,10 +2202,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="15" t="s">
@@ -2199,10 +2216,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
@@ -2301,16 +2318,16 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="16" t="s">
@@ -2328,7 +2345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60">
+    <row r="34" spans="1:2" ht="75">
       <c r="A34" s="15" t="s">
         <v>70</v>
       </c>
@@ -2344,7 +2361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="45">
+    <row r="36" spans="1:2" ht="60">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -2392,7 +2409,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="60">
+    <row r="42" spans="1:2" ht="75">
       <c r="A42" s="15" t="s">
         <v>86</v>
       </c>
@@ -2417,7 +2434,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="315">
-      <c r="A45" s="22"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
@@ -2438,7 +2455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="30">
       <c r="A48" s="15" t="s">
         <v>97</v>
       </c>
@@ -2471,7 +2488,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2479,13 +2496,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="20"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2493,7 +2510,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
@@ -2562,7 +2579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45">
+    <row r="64" spans="1:2" ht="60">
       <c r="A64" s="15" t="s">
         <v>127</v>
       </c>
@@ -2594,7 +2611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="30">
       <c r="A68" s="15" t="s">
         <v>135</v>
       </c>
@@ -2602,7 +2619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30">
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" s="15" t="s">
         <v>137</v>
       </c>
@@ -2618,8 +2635,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="20" t="s">
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2627,49 +2644,49 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="20"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="20"/>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="23"/>
       <c r="B73" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="20"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="20"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="20"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="20"/>
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="20"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="23" t="s">
         <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -2677,13 +2694,13 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="210">
-      <c r="A80" s="20"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="20" t="s">
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="23" t="s">
         <v>153</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -2691,19 +2708,19 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="20"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="20"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="20"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="4" t="s">
         <v>157</v>
       </c>
@@ -2740,7 +2757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45">
+    <row r="89" spans="1:2" ht="60">
       <c r="A89" s="15" t="s">
         <v>165</v>
       </c>
@@ -2748,7 +2765,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="30">
       <c r="A90" s="15" t="s">
         <v>167</v>
       </c>
@@ -2756,7 +2773,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="30">
       <c r="A91" s="15" t="s">
         <v>169</v>
       </c>
@@ -2772,7 +2789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
+    <row r="93" spans="1:2" ht="45">
       <c r="A93" s="15" t="s">
         <v>173</v>
       </c>
@@ -2797,7 +2814,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="22" t="s">
         <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -2805,7 +2822,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="240">
-      <c r="A97" s="19"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="4" t="s">
         <v>180</v>
       </c>
@@ -2833,7 +2850,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="22" t="s">
         <v>186</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -2841,13 +2858,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="300">
-      <c r="A102" s="19"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="19"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="4" t="s">
         <v>189</v>
       </c>
@@ -2915,7 +2932,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="24" t="s">
+      <c r="A112" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2923,19 +2940,19 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="24"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="24"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -2943,12 +2960,12 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="120">
-      <c r="A116" s="24"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="90">
+    <row r="117" spans="1:2" ht="105">
       <c r="A117" s="21" t="s">
         <v>212</v>
       </c>
@@ -2986,8 +3003,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30">
-      <c r="A122" s="24" t="s">
+    <row r="122" spans="1:2" ht="45">
+      <c r="A122" s="20" t="s">
         <v>221</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -2995,7 +3012,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="90">
-      <c r="A123" s="24"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="13" t="s">
         <v>223</v>
       </c>
@@ -3008,8 +3025,18 @@
         <v>225</v>
       </c>
     </row>
+    <row r="125" spans="1:2" ht="135">
+      <c r="A125" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A112:A114"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A122:A123"/>
@@ -3026,8 +3053,6 @@
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A84"/>
     <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A112:A114"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3073,10 +3098,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="229">
   <si>
     <t>Topics</t>
   </si>
@@ -1429,6 +1429,9 @@
              &lt;mainClass&gt;com.hmkcode.MainClassName&lt;/mainClass&gt;
         &lt;/configuration&gt;
         &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
@@ -1645,13 +1648,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1961,13 +1964,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.125" customWidth="1"/>
-    <col min="2" max="2" width="94.75" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2006,17 +2009,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.75" customWidth="1"/>
-    <col min="2" max="2" width="124.125" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="124.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2027,54 +2030,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="19"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="18" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="19"/>
-    </row>
-    <row r="54" spans="1:2" ht="75">
-      <c r="A54" s="4" t="s">
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105">
-      <c r="A55" s="4" t="s">
+    <row r="6" spans="1:2" ht="105">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="90">
-      <c r="A56" s="4" t="s">
+    <row r="7" spans="1:2" ht="90">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="4" t="s">
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -2088,15 +2091,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="102.375" customWidth="1"/>
+    <col min="1" max="1" width="61.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="102.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2353,7 +2356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" ht="45">
       <c r="A35" s="15" t="s">
         <v>72</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="30">
       <c r="A39" s="15" t="s">
         <v>80</v>
       </c>
@@ -2425,8 +2428,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:2" ht="45">
+      <c r="A44" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2463,7 +2466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="30">
       <c r="A49" s="15" t="s">
         <v>99</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45">
+    <row r="50" spans="1:2" ht="60">
       <c r="A50" s="15" t="s">
         <v>101</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
+    <row r="52" spans="1:2" ht="45">
       <c r="A52" s="23" t="s">
         <v>105</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="30">
       <c r="A63" s="15" t="s">
         <v>125</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="180">
+    <row r="65" spans="1:2" ht="195">
       <c r="A65" s="15" t="s">
         <v>129</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="30">
       <c r="A75" s="23"/>
       <c r="B75" s="4" t="s">
         <v>146</v>
@@ -2685,7 +2688,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30">
+    <row r="79" spans="1:2" ht="45">
       <c r="A79" s="23" t="s">
         <v>150</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="30">
       <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
         <v>155</v>
@@ -2733,7 +2736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="30">
       <c r="A86" s="15" t="s">
         <v>159</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="30">
       <c r="A94" s="15" t="s">
         <v>97</v>
       </c>
@@ -2814,7 +2817,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -2822,7 +2825,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="240">
-      <c r="A97" s="22"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="4" t="s">
         <v>180</v>
       </c>
@@ -2836,7 +2839,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="22" t="s">
         <v>183</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -2844,13 +2847,13 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="21"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -2858,13 +2861,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="300">
-      <c r="A102" s="22"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="22"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="4" t="s">
         <v>189</v>
       </c>
@@ -2932,7 +2935,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2940,33 +2943,33 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="20" t="s">
+    <row r="115" spans="1:2" ht="45">
+      <c r="A115" s="21" t="s">
         <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="120">
-      <c r="A116" s="20"/>
+    <row r="116" spans="1:2" ht="135">
+      <c r="A116" s="21"/>
       <c r="B116" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="105">
-      <c r="A117" s="21" t="s">
+    <row r="117" spans="1:2" ht="120">
+      <c r="A117" s="22" t="s">
         <v>212</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -2974,7 +2977,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="210">
-      <c r="A118" s="21"/>
+      <c r="A118" s="22"/>
       <c r="B118" s="4" t="s">
         <v>214</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105">
+    <row r="121" spans="1:2" ht="120">
       <c r="A121" s="10" t="s">
         <v>219</v>
       </c>
@@ -3004,7 +3007,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="45">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="21" t="s">
         <v>221</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -3012,7 +3015,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="90">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="13" t="s">
         <v>223</v>
       </c>
@@ -3035,11 +3038,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A99:A100"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
@@ -3052,7 +3051,11 @@
     <mergeCell ref="A71:A78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A122:A123"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3085,8 +3088,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.75" customWidth="1"/>
-    <col min="2" max="2" width="122.625" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="122.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Ant" sheetId="2" r:id="rId2"/>
-    <sheet name="Maven" sheetId="3" r:id="rId3"/>
-    <sheet name="Graddle" sheetId="4" r:id="rId4"/>
+    <sheet name="Materials" sheetId="5" r:id="rId2"/>
+    <sheet name="Ant" sheetId="2" r:id="rId3"/>
+    <sheet name="Maven" sheetId="3" r:id="rId4"/>
+    <sheet name="Graddle" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="230">
   <si>
     <t>Topics</t>
   </si>
@@ -1433,12 +1434,15 @@
   <si>
     <t>Projects</t>
   </si>
+  <si>
+    <t>Materials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1499,8 +1503,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1610,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1648,13 +1666,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1664,6 +1679,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1962,9 +1983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1977,6 +1998,9 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2002,24 +2026,26 @@
     <hyperlink ref="A3" location="Maven!A1" display="Maven"/>
     <hyperlink ref="A4" location="Graddle!A1" display="Graddle"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="124.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" customWidth="1"/>
+    <col min="2" max="2" width="123.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2032,87 +2058,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="105">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="90">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B125"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="61.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -2204,862 +2150,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="195">
-      <c r="A25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="90">
-      <c r="A26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="23"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="315">
-      <c r="A45" s="24"/>
-      <c r="B45" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="150">
-      <c r="A47" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="255">
-      <c r="A51" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="23"/>
-      <c r="B53" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="60">
-      <c r="A64" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="195">
-      <c r="A65" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="23"/>
-      <c r="B72" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="23"/>
-      <c r="B73" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="23"/>
-      <c r="B75" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="23"/>
-      <c r="B77" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="210">
-      <c r="A80" s="23"/>
-      <c r="B80" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="23"/>
-      <c r="B82" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="23"/>
-      <c r="B84" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="90">
-      <c r="A87" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="60">
-      <c r="A89" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30">
-      <c r="A94" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="240">
-      <c r="A97" s="20"/>
-      <c r="B97" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30">
-      <c r="A98" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="22"/>
-      <c r="B100" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="300">
-      <c r="A102" s="20"/>
-      <c r="B102" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="20"/>
-      <c r="B103" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="315">
-      <c r="A110" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="21"/>
-      <c r="B113" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="21"/>
-      <c r="B114" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="45">
-      <c r="A115" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="135">
-      <c r="A116" s="21"/>
-      <c r="B116" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="120">
-      <c r="A117" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="210">
-      <c r="A118" s="22"/>
-      <c r="B118" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="180">
-      <c r="A119" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="120">
-      <c r="A121" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="45">
-      <c r="A122" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="90">
-      <c r="A123" s="21"/>
-      <c r="B123" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="180">
-      <c r="A124" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="135">
-      <c r="A125" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A96:A97"/>
+  <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A122:A123"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B1" location="Maven!A2" display="Up"/>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
@@ -3073,17 +2170,987 @@
     <hyperlink ref="B13" r:id="rId11" location="How_do_I_use_plugins"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="124.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="B1" location="Ant!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="61.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="102.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="195">
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90">
+      <c r="A15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75">
+      <c r="A23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75">
+      <c r="A31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="315">
+      <c r="A34" s="23"/>
+      <c r="B34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="150">
+      <c r="A36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="255">
+      <c r="A40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="22"/>
+      <c r="B42" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="60">
+      <c r="A53" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="195">
+      <c r="A54" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="22"/>
+      <c r="B62" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="22"/>
+      <c r="B64" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="22"/>
+      <c r="B66" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="210">
+      <c r="A69" s="22"/>
+      <c r="B69" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="22"/>
+      <c r="B71" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="A76" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="60">
+      <c r="A78" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="240">
+      <c r="A86" s="21"/>
+      <c r="B86" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="300">
+      <c r="A91" s="21"/>
+      <c r="B91" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="45">
+      <c r="A92" s="21"/>
+      <c r="B92" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="315">
+      <c r="A99" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="25"/>
+      <c r="B102" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="25"/>
+      <c r="B103" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="135">
+      <c r="A105" s="25"/>
+      <c r="B105" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="120">
+      <c r="A106" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="210">
+      <c r="A107" s="20"/>
+      <c r="B107" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="180">
+      <c r="A108" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="120">
+      <c r="A110" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="90">
+      <c r="A112" s="25"/>
+      <c r="B112" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="180">
+      <c r="A113" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="135">
+      <c r="A114" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A73"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B1" location="Maven!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -788,13 +788,6 @@
     <t>we can specify another location for your local repository by following entry in settings.xml</t>
   </si>
   <si>
-    <t>&lt;settings&gt;
-    &lt;localRepository&gt;
-        d:\data\java\products\maven\repository
-    &lt;/localRepository&gt;
-&lt;/settings&gt;</t>
-  </si>
-  <si>
     <t>remote repository configuration in pom.xml. Put the following XML elements right after the &lt;dependencies&gt; element</t>
   </si>
   <si>
@@ -1436,6 +1429,11 @@
   </si>
   <si>
     <t>Materials</t>
+  </si>
+  <si>
+    <t>&lt;settings&gt;
+    &lt;localRepository&gt;        d:\data\java\products\maven\repository    &lt;/localRepository&gt;
+&lt;/settings&gt;</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1608,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1659,6 +1657,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1666,10 +1670,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1679,12 +1686,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1983,9 +1984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1998,8 +1999,8 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>229</v>
+      <c r="B1" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -2057,10 +2058,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2197,16 +2198,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="21"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -2257,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,16 +2278,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="21"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -2297,10 +2298,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2399,16 +2400,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="25"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2507,7 +2508,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2515,7 +2516,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="23"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
@@ -2569,7 +2570,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2577,13 +2578,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2591,7 +2592,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2636,179 +2637,179 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="75">
+    <row r="50" spans="1:2" ht="45">
       <c r="A50" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>122</v>
+      <c r="B50" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
       <c r="A51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
       <c r="A52" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="195">
       <c r="A54" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
       <c r="A58" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="25" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="22" t="s">
+      <c r="B60" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="25"/>
+      <c r="B62" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="22"/>
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="4" t="s">
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="25"/>
+      <c r="B64" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="22"/>
-      <c r="B64" s="4" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="4" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="25"/>
+      <c r="B66" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="22"/>
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="4" t="s">
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="22" t="s">
+      <c r="B68" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="210">
+      <c r="A69" s="25"/>
+      <c r="B69" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="22"/>
-      <c r="B69" s="4" t="s">
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="22" t="s">
+      <c r="B70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="25"/>
+      <c r="B71" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="22"/>
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="25"/>
+      <c r="B72" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="4" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="25"/>
+      <c r="B73" s="4" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>83</v>
@@ -2816,66 +2817,66 @@
     </row>
     <row r="75" spans="1:2" ht="30">
       <c r="A75" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
       <c r="A76" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
       <c r="A77" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
       <c r="A78" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
       <c r="A80" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30">
@@ -2883,244 +2884,239 @@
         <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="4" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="21" t="s">
+      <c r="B85" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="4" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="240">
+      <c r="A86" s="22"/>
+      <c r="B86" s="4" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="21"/>
-      <c r="B86" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="4" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="24" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="20" t="s">
+      <c r="B88" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="4" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="24"/>
+      <c r="B89" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="20"/>
-      <c r="B89" s="9" t="s">
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="22" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="21" t="s">
+      <c r="B90" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B90" s="4" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="300">
+      <c r="A91" s="22"/>
+      <c r="B91" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="21"/>
-      <c r="B91" s="4" t="s">
+    <row r="92" spans="1:2" ht="45">
+      <c r="A92" s="22"/>
+      <c r="B92" s="4" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="21"/>
-      <c r="B92" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="315">
       <c r="A99" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="4" t="s">
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="25" t="s">
+      <c r="B101" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="4" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="23"/>
+      <c r="B102" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="25"/>
-      <c r="B102" s="4" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="23"/>
+      <c r="B103" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="25"/>
-      <c r="B103" s="4" t="s">
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="25" t="s">
+      <c r="B104" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="4" t="s">
+    </row>
+    <row r="105" spans="1:2" ht="135">
+      <c r="A105" s="23"/>
+      <c r="B105" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="25"/>
-      <c r="B105" s="4" t="s">
+    <row r="106" spans="1:2" ht="120">
+      <c r="A106" s="24" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="20" t="s">
+      <c r="B106" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="4" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="210">
+      <c r="A107" s="24"/>
+      <c r="B107" s="4" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="20"/>
-      <c r="B107" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="180">
       <c r="A108" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120">
       <c r="A110" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B110" s="11" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="23" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="25" t="s">
+      <c r="B111" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B111" s="11" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="90">
+      <c r="A112" s="23"/>
+      <c r="B112" s="13" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="25"/>
-      <c r="B112" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180">
       <c r="A113" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="135">
       <c r="A114" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
@@ -3134,6 +3130,11 @@
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3168,10 +3169,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -1670,13 +1670,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2259,8 +2259,8 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2508,7 +2508,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2896,7 +2896,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="24" t="s">
         <v>177</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -2904,7 +2904,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="22"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="4" t="s">
         <v>179</v>
       </c>
@@ -2918,7 +2918,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="23" t="s">
         <v>182</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -2926,13 +2926,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="24" t="s">
         <v>185</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2940,13 +2940,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="22"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="22"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="4" t="s">
         <v>188</v>
       </c>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="22" t="s">
         <v>204</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -3022,19 +3022,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="23"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="23"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="22" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -3042,13 +3042,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="23"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="23" t="s">
         <v>211</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="4" t="s">
         <v>213</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="22" t="s">
         <v>220</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -3094,7 +3094,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="23"/>
+      <c r="A112" s="22"/>
       <c r="B112" s="13" t="s">
         <v>222</v>
       </c>
@@ -3117,6 +3117,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
@@ -3130,11 +3135,6 @@
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -900,10 +900,6 @@
     <t>site</t>
   </si>
   <si>
-    <t>everything related to generating documentation for your project. In fact, site can generate a complete website with documentation for your 
-  project</t>
-  </si>
-  <si>
     <t>mvn validate</t>
   </si>
   <si>
@@ -1303,23 +1299,6 @@
     <t>Maven compiler plugin</t>
   </si>
   <si>
-    <t>&lt;plugin&gt;
-                &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
-                &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
-                &lt;version&gt;3.5.1&lt;/version&gt;
-                &lt;configuration&gt;
-                    &lt;source&gt;1.6&lt;/source&gt;
-                    &lt;target&gt;1.6&lt;/target&gt;
-                    &lt;compilerArgument&gt;-Xlint:all&lt;/compilerArgument&gt;
-                    &lt;showWarnings&gt;true&lt;/showWarnings&gt;
-                    &lt;showDeprecation&gt;true&lt;/showDeprecation&gt;
-                &lt;/configuration&gt;
-            &lt;/plugin&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -parameter</t>
-  </si>
-  <si>
     <t>to preserve method parameter names in Java byte-code and make them available at runtime</t>
   </si>
   <si>
@@ -1434,6 +1413,27 @@
     <t>&lt;settings&gt;
     &lt;localRepository&gt;        d:\data\java\products\maven\repository    &lt;/localRepository&gt;
 &lt;/settings&gt;</t>
+  </si>
+  <si>
+    <t>everything related to generating documentation for your project. In fact, site can generate a complete website with documentation for your   project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -parameters</t>
+  </si>
+  <si>
+    <t>&lt;plugin&gt;
+                &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
+                &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
+                &lt;version&gt;3.5.1&lt;/version&gt;
+                &lt;configuration&gt;
+                    &lt;source&gt;1.6&lt;/source&gt;
+                    &lt;target&gt;1.6&lt;/target&gt;
+                    &lt;compilerArgument&gt;-Xlint:all&lt;/compilerArgument&gt;
+                   &lt;compilerArgument&gt;-parameters&lt;/compilerArgument&gt;
+                    &lt;showWarnings&gt;true&lt;/showWarnings&gt;
+                    &lt;showDeprecation&gt;true&lt;/showDeprecation&gt;
+                &lt;/configuration&gt;
+            &lt;/plugin&gt;</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1608,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1663,6 +1663,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,13 +1673,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2000,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -2058,10 +2061,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2198,16 +2201,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -2259,8 +2262,8 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2278,16 +2281,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -2298,10 +2301,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2400,16 +2403,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2508,7 +2511,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
@@ -2570,7 +2573,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2578,13 +2581,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="25"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2592,7 +2595,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>121</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
@@ -2701,115 +2704,115 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
+    <row r="58" spans="1:2" ht="30">
       <c r="A58" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>137</v>
+      <c r="B58" s="20" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="25" t="s">
+      <c r="B60" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="26"/>
+      <c r="B62" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="25"/>
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="4" t="s">
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="26"/>
+      <c r="B64" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="25"/>
-      <c r="B64" s="4" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="4" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="26"/>
+      <c r="B66" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="25"/>
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="26"/>
+      <c r="B67" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="4" t="s">
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="25" t="s">
+      <c r="B68" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="210">
+      <c r="A69" s="26"/>
+      <c r="B69" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="25"/>
-      <c r="B69" s="4" t="s">
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="25" t="s">
+      <c r="B70" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="26"/>
+      <c r="B71" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="25"/>
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="4" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="4" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>83</v>
@@ -2817,66 +2820,66 @@
     </row>
     <row r="75" spans="1:2" ht="30">
       <c r="A75" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
       <c r="A76" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
       <c r="A77" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
       <c r="A78" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
       <c r="A80" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30">
@@ -2884,244 +2887,239 @@
         <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="4" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="23" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="24" t="s">
+      <c r="B85" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="4" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="240">
+      <c r="A86" s="23"/>
+      <c r="B86" s="4" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="24"/>
-      <c r="B86" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="4" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="25" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="23" t="s">
+      <c r="B88" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B88" s="4" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="25"/>
+      <c r="B89" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="23"/>
-      <c r="B89" s="9" t="s">
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="24" t="s">
+      <c r="B90" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="4" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="300">
+      <c r="A91" s="23"/>
+      <c r="B91" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="24"/>
-      <c r="B91" s="4" t="s">
+    <row r="92" spans="1:2" ht="45">
+      <c r="A92" s="23"/>
+      <c r="B92" s="4" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="24"/>
-      <c r="B92" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="315">
       <c r="A99" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="4" t="s">
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="24" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="22" t="s">
+      <c r="B101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B101" s="4" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="24"/>
+      <c r="B102" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="22"/>
-      <c r="B102" s="4" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="24"/>
+      <c r="B103" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="22"/>
-      <c r="B103" s="4" t="s">
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="24" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="22" t="s">
+      <c r="B104" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="4" t="s">
+    </row>
+    <row r="105" spans="1:2" ht="135">
+      <c r="A105" s="24"/>
+      <c r="B105" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="22"/>
-      <c r="B105" s="4" t="s">
+    <row r="106" spans="1:2" ht="120">
+      <c r="A106" s="25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="23" t="s">
+      <c r="B106" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B106" s="4" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="210">
+      <c r="A107" s="25"/>
+      <c r="B107" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="23"/>
-      <c r="B107" s="4" t="s">
+    <row r="108" spans="1:2" ht="195">
+      <c r="A108" s="15" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="180">
-      <c r="A108" s="15" t="s">
+      <c r="B108" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120">
       <c r="A110" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="11" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="90">
+      <c r="A112" s="24"/>
+      <c r="B112" s="13" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="22"/>
-      <c r="B112" s="13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180">
       <c r="A113" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="135">
       <c r="A114" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
@@ -3135,6 +3133,11 @@
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3169,10 +3172,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="232">
   <si>
     <t>Topics</t>
   </si>
@@ -1434,6 +1434,12 @@
                     &lt;showDeprecation&gt;true&lt;/showDeprecation&gt;
                 &lt;/configuration&gt;
             &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>To run specific tests in a class from command prompt</t>
+  </si>
+  <si>
+    <t>mvn clean test -Dtest=&lt;test-class-name&gt;</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1614,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1666,6 +1672,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1673,13 +1682,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2061,10 +2070,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2201,16 +2210,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -2259,11 +2268,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2281,16 +2290,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -2301,10 +2310,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2403,16 +2412,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2519,7 +2528,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
@@ -2573,7 +2582,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2581,13 +2590,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="29" t="s">
         <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2595,7 +2604,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2721,7 +2730,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2729,49 +2738,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="26"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="26"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="26"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="26"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="26"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="26"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="26"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2779,13 +2788,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="26"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -2793,19 +2802,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="26"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="26"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="26"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="4" t="s">
         <v>155</v>
       </c>
@@ -2899,7 +2908,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="26" t="s">
         <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -2907,7 +2916,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="23"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="4" t="s">
         <v>178</v>
       </c>
@@ -2935,7 +2944,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="26" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2943,13 +2952,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="23"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="23"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="4" t="s">
         <v>187</v>
       </c>
@@ -3118,8 +3127,21 @@
         <v>223</v>
       </c>
     </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
@@ -3133,11 +3155,6 @@
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3172,10 +3189,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -175,33 +175,6 @@
     <t>goal or task</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specific taks used in building and managing the project.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ex: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Like target in ant</t>
-    </r>
-  </si>
-  <si>
     <t>some configurations we can give in pom</t>
   </si>
   <si>
@@ -390,11 +363,6 @@
   </si>
   <si>
     <t>Create jersey implemented web application using maven archetype plug in</t>
-  </si>
-  <si>
-    <t>C:\Users\Admin\Desktop\Test&gt;mvn archetype:generate -DarchetypeArtifactId=jersey-quickstart-webapp 
--DarchetypeGroupId=org.glassfish.jersey.archetypes -DinteractiveMode=false -DgroupId=com.example -DartifactId=simple-service-webapp 
--Dpackage=com.example -DarchetypeVersion=2.22.2</t>
   </si>
   <si>
     <t>cleaning and package in maven</t>
@@ -1440,6 +1408,37 @@
   </si>
   <si>
     <t>mvn clean test -Dtest=&lt;test-class-name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific tasks used in building and managing the project.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ex: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Like target in ant</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Admin\Desktop\Test&gt;mvn archetype:generate -DgroupId=com.example -DartifactId=simple-service-webapp -DarchetypeGroupId=org.glassfish.jersey.archetypes -DarchetypeArtifactId=jersey-quickstart-webapp 
+ -DarchetypeVersion=2.22.2 -Dpackage=com.example -DinteractiveMode=false   </t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1613,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1675,6 +1674,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,13 +1687,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2012,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -2070,10 +2075,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2210,16 +2215,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="25"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -2271,8 +2276,8 @@
   <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2290,16 +2295,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="25"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -2310,10 +2315,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2335,813 +2340,808 @@
       <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
+      <c r="B9" s="22" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="195">
       <c r="A14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90">
       <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="27" t="s">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="27"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="29"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
       <c r="A23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
+      <c r="B25" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
       <c r="A31" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="25" t="s">
+    <row r="34" spans="1:2" ht="315">
+      <c r="A34" s="30"/>
+      <c r="B34" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="28"/>
-      <c r="B34" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
       <c r="A36" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
       <c r="A39" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="255">
       <c r="A40" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="27" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="29"/>
+      <c r="B42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="27"/>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="29" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
       <c r="A50" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
       <c r="A51" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
       <c r="A52" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="195">
       <c r="A54" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="27" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="29"/>
+      <c r="B61" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="29"/>
+      <c r="B62" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="4" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="29"/>
+      <c r="B63" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="27"/>
-      <c r="B62" s="4" t="s">
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="29"/>
+      <c r="B64" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="4" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="29"/>
+      <c r="B65" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="27"/>
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="29"/>
+      <c r="B66" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="29"/>
+      <c r="B67" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="27"/>
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="29" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="27" t="s">
+    <row r="69" spans="1:2" ht="210">
+      <c r="A69" s="29"/>
+      <c r="B69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="27"/>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="27" t="s">
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="29"/>
+      <c r="B71" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="27"/>
-      <c r="B71" s="4" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="29"/>
+      <c r="B73" s="4" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
       <c r="A75" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
       <c r="A76" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
       <c r="A77" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
       <c r="A78" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
       <c r="A80" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30">
       <c r="A83" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
       <c r="A86" s="26"/>
       <c r="B86" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="25" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="28"/>
+      <c r="B89" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="25"/>
-      <c r="B89" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
       <c r="A90" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
       <c r="A91" s="26"/>
       <c r="B91" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
       <c r="A92" s="26"/>
       <c r="B92" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="315">
       <c r="A99" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="24" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="4" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="24"/>
-      <c r="B102" s="4" t="s">
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="24"/>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="24" t="s">
+    <row r="105" spans="1:2" ht="135">
+      <c r="A105" s="27"/>
+      <c r="B105" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="4" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="120">
+      <c r="A106" s="28" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="24"/>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="25" t="s">
+    <row r="107" spans="1:2" ht="210">
+      <c r="A107" s="28"/>
+      <c r="B107" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="25"/>
-      <c r="B107" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="195">
       <c r="A108" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120">
       <c r="A110" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B111" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="24" t="s">
+    <row r="112" spans="1:2" ht="90">
+      <c r="A112" s="27"/>
+      <c r="B112" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="24"/>
-      <c r="B112" s="13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180">
       <c r="A113" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="135">
       <c r="A114" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
@@ -3155,6 +3155,11 @@
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3189,10 +3194,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="234">
   <si>
     <t>Topics</t>
   </si>
@@ -1439,6 +1439,20 @@
   <si>
     <t xml:space="preserve">C:\Users\Admin\Desktop\Test&gt;mvn archetype:generate -DgroupId=com.example -DartifactId=simple-service-webapp -DarchetypeGroupId=org.glassfish.jersey.archetypes -DarchetypeArtifactId=jersey-quickstart-webapp 
  -DarchetypeVersion=2.22.2 -Dpackage=com.example -DinteractiveMode=false   </t>
+  </si>
+  <si>
+    <t>Maven eclipse plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;plugin&gt;
+ &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
+  &lt;artifactId&gt;maven-eclipse-plugin&lt;/artifactId&gt;
+  &lt;configuration&gt;
+     &lt;downloadSources&gt;true&lt;/downloadSources&gt;
+     &lt;downloadJavadocs&gt;true&lt;/downloadJavadocs&gt;
+  &lt;/configuration&gt;
+&lt;/plugin&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1627,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1680,6 +1694,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1687,13 +1704,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2075,10 +2092,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2215,16 +2232,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -2273,11 +2290,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2295,16 +2312,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -2315,10 +2332,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2417,16 +2434,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2533,7 +2550,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="4" t="s">
         <v>90</v>
       </c>
@@ -2587,7 +2604,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2595,13 +2612,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="29"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2609,7 +2626,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
@@ -2735,7 +2752,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="30" t="s">
         <v>137</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2743,49 +2760,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="29"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="29"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="29"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="29"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="29"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="29"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="30" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2793,13 +2810,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="29"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -2807,19 +2824,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="29"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="29"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="4" t="s">
         <v>153</v>
       </c>
@@ -2913,7 +2930,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -2921,7 +2938,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="26"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="4" t="s">
         <v>176</v>
       </c>
@@ -2949,7 +2966,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2957,13 +2974,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="26"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="26"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="4" t="s">
         <v>185</v>
       </c>
@@ -3140,8 +3157,21 @@
         <v>229</v>
       </c>
     </row>
+    <row r="116" spans="1:2" ht="135">
+      <c r="A116" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
@@ -3155,11 +3185,6 @@
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3194,10 +3219,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="286">
   <si>
     <t>Topics</t>
   </si>
@@ -1444,15 +1444,236 @@
     <t>Maven eclipse plugin</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;plugin&gt;
+    <t>Maven Fundamentals</t>
+  </si>
+  <si>
+    <t>Transitive dependencies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we add one dependency in pom.xml and if that dependency has other dependencies then maven will download automatically all the dependent dependencies. These dependent dependencies are called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transitive dependencies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Goals </t>
+  </si>
+  <si>
+    <t>Deletes target directory and any generated resources</t>
+  </si>
+  <si>
+    <t>compiles source code
+copy resources to classes directory</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>run compile goal first
+run unit test cases
+packages the application based on packaging type we declared in pom.xml</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>Runs package goal
+copies generated package into local repository based on groupId, artifactId, version declared in pom.xml</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>Runs install goal
+copies generated package into remote repository</t>
+  </si>
+  <si>
+    <t>clean, compile, package, install, deploy</t>
+  </si>
+  <si>
+    <t>How to give specific name to out application jar/war</t>
+  </si>
+  <si>
+    <t>1. using &lt;finalName&gt;MavenHelloWorld&lt;/finalName&gt; tag in &lt;build&gt; tag
+2. Now our war name will be MavenHelloWorld.war</t>
+  </si>
+  <si>
+    <t>&lt;plugin&gt;
  &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
   &lt;artifactId&gt;maven-eclipse-plugin&lt;/artifactId&gt;
   &lt;configuration&gt;
      &lt;downloadSources&gt;true&lt;/downloadSources&gt;
      &lt;downloadJavadocs&gt;true&lt;/downloadJavadocs&gt;
   &lt;/configuration&gt;
-&lt;/plugin&gt;
-</t>
+&lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>Dependency types</t>
+  </si>
+  <si>
+    <t>1. pom, jar, maven-plugin, ear, war, rar, par
+2. default packaging type is jar</t>
+  </si>
+  <si>
+    <t>pom dependency type</t>
+  </si>
+  <si>
+    <t>If we declare dependency type as pom then all dependencies in that pom will be downloaded to our application</t>
+  </si>
+  <si>
+    <t>There are 6 scopes in maven</t>
+  </si>
+  <si>
+    <t>compile (this is goal, do not confuse with compile scope)</t>
+  </si>
+  <si>
+    <t>compile (this is scope, do not confuse with compile goal)</t>
+  </si>
+  <si>
+    <t>Default scope. Artifacts are available every where</t>
+  </si>
+  <si>
+    <t>like compile, means artifact going to be provided by deployed environment</t>
+  </si>
+  <si>
+    <t>not needed for compilation but needed for execution</t>
+  </si>
+  <si>
+    <t>only available for the test compilation and execution phase</t>
+  </si>
+  <si>
+    <t>to specify a path to the jar on our file system</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>deals with dependencyManagement. DependencyManagement deals with sharing resources across multiple poms.</t>
+  </si>
+  <si>
+    <t>compile, provided, runtime, test, system, import</t>
+  </si>
+  <si>
+    <t>sample repositories tag</t>
+  </si>
+  <si>
+    <t>&lt;repositories&gt;
+    &lt;repository&gt;
+        &lt;id&gt;spring-snapshot&lt;/id&gt;
+        &lt;name&gt;Spring Maven Repository&lt;/name&gt;
+        &lt;url&gt;http://repo.springsource.org/libs-snapshot&lt;/url&gt;
+        &lt;snapshots&gt;
+            &lt;enabled&gt;true&lt;/enabled&gt;
+        &lt;/snapshots&gt;
+        &lt;releases&gt;
+            &lt;enabled&gt;false&lt;/enabled&gt;
+        &lt;/releases&gt;
+    &lt;/repository&gt;
+&lt;/repositories&gt;</t>
+  </si>
+  <si>
+    <t>plugin repositories - for downloading plugins</t>
+  </si>
+  <si>
+    <t>&lt;pluginRepositories&gt;
+    &lt;pluginRepository&gt;
+        &lt;id&gt;cerebro corp&lt;/id&gt;
+        &lt;name&gt;Cerebro plugin repository&lt;/name&gt;
+        &lt;url&gt;http://cerebrocorp.com/plugins&lt;/url&gt;
+        &lt;snapshots&gt;
+            &lt;enabled&gt;true&lt;/enabled&gt;
+        &lt;/snapshots&gt;
+        &lt;releases&gt;
+            &lt;enabled&gt;false&lt;/enabled&gt;
+        &lt;/releases&gt;
+    &lt;/pluginRepository&gt;
+&lt;/pluginRepositories&gt;</t>
+  </si>
+  <si>
+    <t>Maven plugins</t>
+  </si>
+  <si>
+    <t>Plugins are what maven uses to build and package out application as well as do anything outside of just downloading and storing artifacts for us</t>
+  </si>
+  <si>
+    <t>compiler plugin</t>
+  </si>
+  <si>
+    <t>&lt;plugin&gt;
+     &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
+     &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
+     &lt;version&gt;3.5.1&lt;/version&gt;
+     &lt;configuration&gt;
+      &lt;source&gt;1.8&lt;/source&gt;
+      &lt;target&gt;1.8&lt;/target&gt;
+      &lt;showDeprecation&gt;true&lt;/showDeprecation&gt;
+      &lt;showWarnings&gt;1.8&lt;/showWarnings&gt;
+      &lt;compilerArgument&gt;-Xlint:all&lt;/compilerArgument&gt;
+      &lt;compilerArgument&gt;-parameters&lt;/compilerArgument&gt;
+     &lt;/configuration&gt;
+    &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>jar plugin</t>
+  </si>
+  <si>
+    <t>sources plugin</t>
+  </si>
+  <si>
+    <t>javadoc plugin</t>
+  </si>
+  <si>
+    <t>Some built in phases</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validates the project is correct and has all the necessary information is available </t>
+  </si>
+  <si>
+    <t>phase where our source code is compiled. Here test code will not compile</t>
+  </si>
+  <si>
+    <t>phase where test code is compiled. Executes test cases</t>
+  </si>
+  <si>
+    <t>packages all our code into it's defined packaging such as jars</t>
+  </si>
+  <si>
+    <t>integration-test</t>
+  </si>
+  <si>
+    <t>deploy and run integration test</t>
+  </si>
+  <si>
+    <t>validate, compile, test, package, integration-test, verify, install, deploy</t>
+  </si>
+  <si>
+    <t>source plugin</t>
+  </si>
+  <si>
+    <t>to attache our source code to jar</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1848,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1697,6 +1918,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1704,13 +1934,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2092,10 +2322,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2232,16 +2462,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -2290,11 +2520,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2312,16 +2542,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -2332,10 +2562,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2434,16 +2664,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2542,7 +2772,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="32" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2550,7 +2780,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="31"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="4" t="s">
         <v>90</v>
       </c>
@@ -2604,7 +2834,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2612,13 +2842,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="30"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2626,7 +2856,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
@@ -2752,7 +2982,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="33" t="s">
         <v>137</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2760,49 +2990,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="30"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="30"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="30"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="30"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="30"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="30"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="30"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2810,13 +3040,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="30"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -2824,19 +3054,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="30"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="30"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="30"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="4" t="s">
         <v>153</v>
       </c>
@@ -2930,7 +3160,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -2938,7 +3168,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="29"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="4" t="s">
         <v>176</v>
       </c>
@@ -2952,7 +3182,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="32" t="s">
         <v>179</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -2960,13 +3190,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="28"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2974,13 +3204,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="29"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="29"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="4" t="s">
         <v>185</v>
       </c>
@@ -3048,7 +3278,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="31" t="s">
         <v>201</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -3056,19 +3286,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="27"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="27"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="27" t="s">
+      <c r="A104" s="31" t="s">
         <v>205</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -3076,13 +3306,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="27"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="32" t="s">
         <v>208</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -3090,7 +3320,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="28"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="4" t="s">
         <v>210</v>
       </c>
@@ -3120,7 +3350,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="31" t="s">
         <v>215</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -3128,7 +3358,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="27"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="13" t="s">
         <v>217</v>
       </c>
@@ -3157,16 +3387,271 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="135">
+    <row r="116" spans="1:2" ht="120">
       <c r="A116" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="28" t="s">
         <v>233</v>
       </c>
+      <c r="B118" s="29"/>
+    </row>
+    <row r="119" spans="1:2" ht="45">
+      <c r="A119" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30">
+      <c r="A122" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="45">
+      <c r="A123" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30">
+      <c r="A124" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30">
+      <c r="A125" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30">
+      <c r="A126" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30">
+      <c r="A127" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30">
+      <c r="A135" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="195">
+      <c r="A136" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="195">
+      <c r="A137" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30">
+      <c r="A138" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="195">
+      <c r="A139" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B147" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="26"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
@@ -3182,9 +3667,6 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3199,9 +3681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3219,10 +3701,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,14 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="364">
   <si>
     <t>Topics</t>
   </si>
   <si>
-    <t>Ant</t>
-  </si>
-  <si>
     <t>Maven</t>
   </si>
   <si>
@@ -33,9 +30,6 @@
   </si>
   <si>
     <t>Up</t>
-  </si>
-  <si>
-    <t>Material Links</t>
   </si>
   <si>
     <t>Ant Setup</t>
@@ -1675,12 +1669,543 @@
   <si>
     <t>to attache our source code to jar</t>
   </si>
+  <si>
+    <t>Gradle</t>
+  </si>
+  <si>
+    <t>Gradle Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Install gradle</t>
+  </si>
+  <si>
+    <t>Once gradle installed successfully we should see this output</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ------------------------------------------------------------
+Gradle 3.3
+------------------------------------------------------------
+Build time:   2017-01-03 15:31:04 UTC
+Revision:     075893a3d0798c0c1f322899b41ceca82e4e134b
+Groovy:       2.4.7
+Ant:          Apache Ant(TM) version 1.9.6 compiled on June 29 2015
+JVM:          1.8.0_65 (Oracle Corporation 25.65-b01)
+OS:           Windows 10 10.0 amd64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to website </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://gradle.org/gradle-download/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and download Complete Distribution
+2. extract to any folder
+3. Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;path-to-gradle&gt;/bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to path environmental variable
+4. open cmd, run "gradle --version"</t>
+    </r>
+  </si>
+  <si>
+    <t>Ant(Another Neat Tool)</t>
+  </si>
+  <si>
+    <t>Gradle build file</t>
+  </si>
+  <si>
+    <t>build.gradle</t>
+  </si>
+  <si>
+    <t>gradle hello world</t>
+  </si>
+  <si>
+    <t>task hello{
+    doFirst{
+        println "Hello Gradle - doFirst"
+    }
+    doLast{
+        println "Hello Gradle doLast"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1. go to any location of our choice
+2. create build.gradle file
+3. open it notepad/brackets or any editor
+4. build.gradle content created above</t>
+  </si>
+  <si>
+    <t>:hello
+Hello Gradle - doFirst
+Hello Gradle doLast
+BUILD SUCCESSFUL
+Total time: 8.188 secs</t>
+  </si>
+  <si>
+    <t>5. open cmd, go to location where build.gradle is present. Run "gradle hello". Output is as follows:</t>
+  </si>
+  <si>
+    <t>in the above example "hello" is gradle task. Every task in gradle will have phases and methods</t>
+  </si>
+  <si>
+    <t>Phases: Initialization, Configuration, Execution
+method: doFirst, doLast</t>
+  </si>
+  <si>
+    <t>gradle for java application</t>
+  </si>
+  <si>
+    <t>1. build.gradle will present at root directory of project like pom.xml
+2. gradle for java application follows convention
+3. gradle looks for source files in src/main/java
+4. we need to add plugin in build.gradle to tell gradle to use the convention of java</t>
+  </si>
+  <si>
+    <t>gradle plugin to use java convention</t>
+  </si>
+  <si>
+    <t>apply plugin: 'java'</t>
+  </si>
+  <si>
+    <t>Example of using gradle for java project</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. create maven core java project (it is absolutely fine to have gradle and maven for a single project)
+2. create build.gradle in the root directory of project (at the same location where pom.xml is present)
+3. add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apply plugin: 'java'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the build.gradle file
+4. open cmd and go to location where above build.gradle is present and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gradle build
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. this command will create .gradle, build directories</t>
+    </r>
+  </si>
+  <si>
+    <t>gradle clean</t>
+  </si>
+  <si>
+    <t>command to clean the project using gradle</t>
+  </si>
+  <si>
+    <t>command to build the project using gradle</t>
+  </si>
+  <si>
+    <t>gradle build</t>
+  </si>
+  <si>
+    <t>command to see all available tasks in gradle</t>
+  </si>
+  <si>
+    <t>gradle tasks --all</t>
+  </si>
+  <si>
+    <t>gradle wrapper</t>
+  </si>
+  <si>
+    <t>1. open build.gradle created above
+2. add the following content after java plugin</t>
+  </si>
+  <si>
+    <t>task wrapper(type: Wrapper){
+    gradleVersion = '3.3'
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. open cmd and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gradle wrapper
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. This will create gradle directory which contains gradle wrapper related jar file. And gradlew(shell script to run in linux), 
+     gradlew.bat files
+5. open cmd and run gradlew build. This will download gradle zip file of version we have specified in wrapper for the first time and runs the build. From second time onwards it wont be downloaded again</t>
+    </r>
+  </si>
+  <si>
+    <t>What is a task in gradle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task is a code that gradle executes for us. Tasks will have a lige cycle. Different parts of task will execute at different times. Task will have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialization phase, configuration phase, execution phase</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks may have properties. Tasks has description, groupId etc default properties. We can defined custom properties if we need. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks will have actions. This is the code that will execute. These actions are divided into 2 parts, First action and last action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks can have dependencies. One task can depend on another. </t>
+  </si>
+  <si>
+    <t>Top level object in gradle build script</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>project.task("Task1")</t>
+  </si>
+  <si>
+    <t>task("Task2")</t>
+  </si>
+  <si>
+    <t>task "Task3"</t>
+  </si>
+  <si>
+    <t>task Task4</t>
+  </si>
+  <si>
+    <t>defining description property. All tasks in gradle will have description property</t>
+  </si>
+  <si>
+    <t>Task4.description = "Hello Task 4"</t>
+  </si>
+  <si>
+    <t>run -&gt; gradle tasks --all after defining above tasks</t>
+  </si>
+  <si>
+    <t>Other tasks
+-----------
+Task1
+Task2
+Task3
+Task4 - Hello Task 4</t>
+  </si>
+  <si>
+    <t>running task Task4 defined above</t>
+  </si>
+  <si>
+    <t>gradle Task4</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task4
+:Task4 UP-TO-DATE
+BUILD SUCCESSFUL
+Total time: 6.497 secs</t>
+  </si>
+  <si>
+    <t>provide an action to Task4</t>
+  </si>
+  <si>
+    <t>task Task4
+Task4.description = "Hello Task 4"
+Task4.doLast {
+    println "This is Task4 -&gt; doLast"
+}
+Task4.doFirst{
+    println "This is Task4 -&gt; doFirst"
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task4
+:Task4
+This is Task4 -&gt; doFirst
+This is Task4 -&gt; doLast
+BUILD SUCCESSFUL
+Total time: 6.772 secs</t>
+  </si>
+  <si>
+    <t>Another way to provide action in doLast for a task</t>
+  </si>
+  <si>
+    <t>task "Task3"
+Task3 &lt;&lt; {
+    println "This is Task3 -&gt; doLast"
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E:\Backup\JavaPrep\Gradle&gt;gradle Task3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Task.leftShift(Closure) method has been deprecated and is scheduled to be removed in Gradle 5.0. Please use Task.doLast(Action) instead. at build_azogku6to36zk0byfst0eixdl.run(E:\Backup\JavaPrep\Gradle\build.gradle:19)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+:Task3
+This is Task3 -&gt; doLast
+BUILD SUCCESSFUL
+Total time: 7.015 secs</t>
+    </r>
+  </si>
+  <si>
+    <t>Generally following way of writing tasks in gradle</t>
+  </si>
+  <si>
+    <t>task Task5 {
+    doLast{
+        println "This is Task5 -&gt; doLast"
+    }
+}</t>
+  </si>
+  <si>
+    <t>task Task6 &lt;&lt; {
+    println "This is Task6 -&gt; doLast"
+}</t>
+  </si>
+  <si>
+    <t>If we define 2 actions to task</t>
+  </si>
+  <si>
+    <t>task Task5 {
+    doLast{
+        println "This is Task5 -&gt; doLast"
+    }
+}
+Task5{
+    doLast{
+        println "Another doLast"
+    }
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task5
+:Task5
+This is Task5 -&gt; doLast
+Another doLast
+BUILD SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>Another way for defining task</t>
+  </si>
+  <si>
+    <t>task Task6{
+description "Task6 Description"
+doLast{
+        println "This is Task6 -&gt; doLast $description" 
+    }
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task6
+:Task6
+This is Task6 -&gt; doLast Task6 Description
+BUILD SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>Initialization phase</t>
+  </si>
+  <si>
+    <t>Used to configure multi project builds</t>
+  </si>
+  <si>
+    <t>Configuration phase</t>
+  </si>
+  <si>
+    <t>Executes code in the task but not the actions like doFirst, doLast</t>
+  </si>
+  <si>
+    <t>Execution phase</t>
+  </si>
+  <si>
+    <t>Execute task actions</t>
+  </si>
+  <si>
+    <t>defining tasks in gradle build script
+1. Every task will have 2 actions. doFirst and doLast</t>
+  </si>
+  <si>
+    <t>doFirst multiple times</t>
+  </si>
+  <si>
+    <t>task Task7{
+    doFirst{
+        println "Task7 - doFirst"
+    }
+}
+Task7.doFirst{
+    println "Task7 - Another doFirst"
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task7
+:Task7
+Task7 - Another doFirst
+Task7 - doFirst
+BUILD SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>making one task depend on another task</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">each task has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dependsOn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method. We need to use this method to declare dependencies between tasks</t>
+    </r>
+  </si>
+  <si>
+    <t>using dependsOn method</t>
+  </si>
+  <si>
+    <t>task Task6{
+description "Task6 Description"
+doLast{
+        println "This is Task6 -&gt; doLast $description" 
+    }
+}
+task Task7{
+    doFirst{
+        println "Task7 - doFirst"
+    }
+}
+Task7.dependsOn Task6</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task7
+:Task6
+This is Task6 -&gt; doLast Task6 Description
+:Task7
+Task7 - doFirst
+BUILD SUCCESSFUL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +2273,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1848,7 +2380,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1927,11 +2459,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1941,9 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2250,7 +2785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2264,25 +2799,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2300,11 +2835,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2318,106 +2853,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -2433,6 +2980,7 @@
     <hyperlink ref="B11" r:id="rId9"/>
     <hyperlink ref="B12" r:id="rId10"/>
     <hyperlink ref="B13" r:id="rId11" location="How_do_I_use_plugins"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2458,51 +3006,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="30"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="29"/>
+      <c r="A4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2538,1106 +3086,1106 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="30"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="29"/>
+      <c r="A4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="195">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90">
       <c r="A15" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="33"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
       <c r="A23" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
       <c r="A31" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="32" t="s">
+    <row r="34" spans="1:2" ht="315">
+      <c r="A34" s="35"/>
+      <c r="B34" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="34"/>
-      <c r="B34" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
       <c r="A36" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
       <c r="A39" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="255">
       <c r="A40" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="33" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="31"/>
+      <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="33"/>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="35" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
       <c r="A50" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
       <c r="A51" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
       <c r="A52" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="195">
       <c r="A54" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="33" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="31"/>
+      <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="33"/>
-      <c r="B61" s="4" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="31"/>
+      <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="33"/>
-      <c r="B62" s="4" t="s">
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="31"/>
+      <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="4" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="31"/>
+      <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="33"/>
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="31"/>
+      <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="33"/>
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="33"/>
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="33"/>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="33" t="s">
+    <row r="69" spans="1:2" ht="210">
+      <c r="A69" s="31"/>
+      <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="31" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="33"/>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="33" t="s">
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="31"/>
+      <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="31"/>
+      <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="33"/>
-      <c r="B71" s="4" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="31"/>
+      <c r="B73" s="4" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="33"/>
-      <c r="B73" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
       <c r="A75" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
       <c r="A76" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
       <c r="A77" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
       <c r="A78" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
       <c r="A80" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30">
       <c r="A83" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="30" t="s">
+    <row r="86" spans="1:2" ht="240">
+      <c r="A86" s="32"/>
+      <c r="B86" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="30"/>
-      <c r="B86" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="32" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="34"/>
+      <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="4" t="s">
+    </row>
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="32"/>
-      <c r="B89" s="9" t="s">
+      <c r="B90" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="30" t="s">
+    <row r="91" spans="1:2" ht="300">
+      <c r="A91" s="32"/>
+      <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="4" t="s">
+    </row>
+    <row r="92" spans="1:2" ht="45">
+      <c r="A92" s="32"/>
+      <c r="B92" s="4" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="30"/>
-      <c r="B91" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="30"/>
-      <c r="B92" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="315">
       <c r="A99" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="31" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="4" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="33"/>
+      <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="31"/>
-      <c r="B102" s="4" t="s">
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="33" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="31"/>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="31" t="s">
+    <row r="105" spans="1:2" ht="135">
+      <c r="A105" s="33"/>
+      <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="4" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="120">
+      <c r="A106" s="34" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="31"/>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="32" t="s">
+    <row r="107" spans="1:2" ht="210">
+      <c r="A107" s="34"/>
+      <c r="B107" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="32"/>
-      <c r="B107" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="195">
       <c r="A108" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120">
       <c r="A110" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B111" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="31" t="s">
+    <row r="112" spans="1:2" ht="90">
+      <c r="A112" s="33"/>
+      <c r="B112" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="31"/>
-      <c r="B112" s="13" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180">
       <c r="A113" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="135">
       <c r="A114" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="120">
       <c r="A116" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="29"/>
+      <c r="A118" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="30"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="30">
       <c r="A122" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="45">
       <c r="A123" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30">
       <c r="A124" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30">
       <c r="A125" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30">
       <c r="A126" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30">
       <c r="A127" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30">
       <c r="A128" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="30">
       <c r="A135" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="195">
       <c r="A136" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="195">
       <c r="A137" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30">
       <c r="A138" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="195">
       <c r="A139" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3648,6 +4196,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
@@ -3664,9 +4215,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -3679,16 +4227,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="122.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3697,23 +4245,389 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="165">
+      <c r="A10" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="120">
+      <c r="A13" s="34"/>
+      <c r="B13" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="105">
+      <c r="A15" s="34"/>
+      <c r="B15" s="28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="34"/>
+      <c r="B24" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="34"/>
+      <c r="B25" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="34"/>
+      <c r="B29" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="33"/>
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="33"/>
+      <c r="B33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="33"/>
+      <c r="B34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="90">
+      <c r="A36" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="90">
+      <c r="A38" s="33"/>
+      <c r="B38" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="165">
+      <c r="A39" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120">
+      <c r="A40" s="34"/>
+      <c r="B40" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="135">
+      <c r="A42" s="33"/>
+      <c r="B42" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45">
+      <c r="A44" s="33"/>
+      <c r="B44" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="165">
+      <c r="A45" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="90">
+      <c r="A46" s="34"/>
+      <c r="B46" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="90">
+      <c r="A47" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="34"/>
+      <c r="B48" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="135">
+      <c r="A52" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="90">
+      <c r="A53" s="34"/>
+      <c r="B53" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="195">
+      <c r="A55" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="105">
+      <c r="A56" s="34"/>
+      <c r="B56" s="28" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="14">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="497">
   <si>
     <t>Topics</t>
   </si>
@@ -2199,6 +2199,644 @@
 :Task7
 Task7 - doFirst
 BUILD SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>To disable gradle logging while executing task</t>
+  </si>
+  <si>
+    <t>gradle -q Task7</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>execute with - gradle Task6</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task6
+:Task6
+This is Task6 -&gt; doLast Task6 Description
+BUILD SUCCESSFUL
+Total time: 6.475 secs</t>
+  </si>
+  <si>
+    <t>execute with - gradle -q Task6</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle -q Task6
+This is Task6 -&gt; doLast Task6 Description</t>
+  </si>
+  <si>
+    <t>Making Task7 depends on Task6 and Task5</t>
+  </si>
+  <si>
+    <t>way 1:
+Task7.dependsOn Task6
+Task7.dependsOn Task5</t>
+  </si>
+  <si>
+    <t>way 2:
+Task7.dependsOn Task6, Task5</t>
+  </si>
+  <si>
+    <t>we can declare depends on in Task7 declaration itself</t>
+  </si>
+  <si>
+    <t>task Task8{
+ dependsOn Task5
+ -----
+-----
+}</t>
+  </si>
+  <si>
+    <t>Example of declaring depends on in task</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle -q Task8
+This is Task5 -&gt; doLast
+Another doLast
+This is Task8 -&gt; doFirst</t>
+  </si>
+  <si>
+    <t>task Task5 {
+    doLast{        println "This is Task5 -&gt; doLast"    }
+}
+Task5{
+    doLast{        println "Another doLast"    }
+}</t>
+  </si>
+  <si>
+    <t>task Task8{
+    dependsOn Task5
+    doFirst{        println "This is Task8 -&gt; doFirst"    }
+}</t>
+  </si>
+  <si>
+    <t>declare variable with in current build.gradle scope</t>
+  </si>
+  <si>
+    <t>def projectVersion = "2.0"
+task Task9{
+doLast{
+    println "This is Task9 -&gt; doLast : $projectVersion"
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle -q Task9
+This is Task9 -&gt; doLast : 2.0</t>
+  </si>
+  <si>
+    <t>declare variable across my project, means across multiple build.gradle files</t>
+  </si>
+  <si>
+    <t>way 1:
+project.ext.projectVersion = "2.0"
+task Task9{
+doLast{
+    println "This is Task9 -&gt; doLast : $projectVersion"
+}
+}</t>
+  </si>
+  <si>
+    <t>way 2:
+ext.projectVersion = "2.0"
+task Task9{
+doLast{
+    println "This is Task9 -&gt; doLast : $projectVersion"
+}
+}</t>
+  </si>
+  <si>
+    <t>other ways of defining dependencies between tasks</t>
+  </si>
+  <si>
+    <t>1. mustRunAfter
+2. shouldRunAfter
+3. finalizedBy</t>
+  </si>
+  <si>
+    <t>task Task10{
+    doLast{ println "Task10 -&gt; doLast" }
+}
+task Task11{
+    doLast{ println "Task11 -&gt; doLast" }
+}
+Task10.mustRunAfter Task11</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle -q Task10 Task11
+Task11 -&gt; doLast
+Task10 -&gt; doLast</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle -q Task13 Task12
+Task13 -&gt; doLast
+Task12 -&gt; doLast</t>
+  </si>
+  <si>
+    <t>task Task12{
+    doLast { println "Task12 -&gt; doLast" }
+}
+task Task13{
+    doLast{ println "Task13 -&gt; doLast" }
+}
+Task12.shouldRunAfter Task13</t>
+  </si>
+  <si>
+    <t>mustRunAfter - we need to start both the tasks for mustRunAfter to work</t>
+  </si>
+  <si>
+    <t>shouldRunAfter - we need to run both the tasks for shouldRunAfter to work</t>
+  </si>
+  <si>
+    <t>task Task14{
+    doLast { println "Task14 -&gt; doLast" }
+}
+task Task15{
+    doLast { println "Task15 -&gt; doLast" }
+}
+Task14.finalizedBy Task15</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle -q Task14
+Task14 -&gt; doLast
+Task15 -&gt; doLast</t>
+  </si>
+  <si>
+    <t>difference between mustRunAfter and shouldRunAfter</t>
+  </si>
+  <si>
+    <t>If any circular dependencies are there then mustRunAfter throws an exception.
+In the case of shouldRunAfter, gradle tries to ignore and resolve circualr dependencies</t>
+  </si>
+  <si>
+    <t>mustRunAfter in circular dependency</t>
+  </si>
+  <si>
+    <t>task Task16{
+    doLast{println "Task16 -&gt; doLast"}
+}
+Task16.mustRunAfter Task16</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task16
+FAILURE: Build failed with an exception.
+* What went wrong:
+Circular dependency between the following tasks:
+:Task16
+\--- :Task16 (*)
+(*) - details omitted (listed previously)
+* Try:
+Run with --stacktrace option to get the stack trace. Run with --info or --debug option to get more log output.
+BUILD FAILED</t>
+  </si>
+  <si>
+    <t>shouldRunAfter in circular dependency</t>
+  </si>
+  <si>
+    <t>task Task16{
+    doLast{println "Task16 -&gt; doLast"}
+}
+Task16.shouldRunAfter Task16</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle&gt;gradle Task16
+:Task16
+Task16 -&gt; doLast
+BUILD SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>finalizedBy (introduced in gradle 2.6)</t>
+  </si>
+  <si>
+    <t>run gradle with info log level</t>
+  </si>
+  <si>
+    <t>command to get gradle help</t>
+  </si>
+  <si>
+    <t>gradle --help</t>
+  </si>
+  <si>
+    <t>gradle -i Task16</t>
+  </si>
+  <si>
+    <t>Typed Tasks</t>
+  </si>
+  <si>
+    <t>we should be able to reuse the tasks. For that purpose gradle introduced Typed tasks. Gradle has many built in Typed Tasks.</t>
+  </si>
+  <si>
+    <t>One such typed task is</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>task copyTask(type: Copy){
+    from 'source'
+    into 'dest'
+}</t>
+  </si>
+  <si>
+    <t>using Copy typed task - this copyTask using typed task Copy within brackets. This copyTask will copy images from source directory to dest directory</t>
+  </si>
+  <si>
+    <t>To exclude specific file while copying</t>
+  </si>
+  <si>
+    <t>task copyTask(type: Copy){
+    exclude 'New Doc 9.pdf'
+    from 'source'
+    into 'dest'
+}</t>
+  </si>
+  <si>
+    <t>Exclude multiple files while copying</t>
+  </si>
+  <si>
+    <t>task copyTask(type: Copy){
+    exclude 'New Doc 9.pdf', 'Payment_Details (1).pdf'
+    from 'source'
+    into 'dest'
+}</t>
+  </si>
+  <si>
+    <t>declaring copy specification seperately in a variable and using in copyTask</t>
+  </si>
+  <si>
+    <t>def contentSpec = copySpec{
+    exclude 'New Doc 9.pdf','Payment_Details (1).pdf'
+    from 'source'
+}
+task copyTask(type: Copy){
+    with contentSpec
+    into 'dest'
+}</t>
+  </si>
+  <si>
+    <t>def contentSpec = copySpec{
+    exclude{
+        it.file.name.endsWith('pdf')
+    }
+    from 'source'
+}
+task copyTask(type: Copy){
+    with contentSpec
+    into 'dest'
+}</t>
+  </si>
+  <si>
+    <t>exclude files with pdf extension
+it -&gt; iterator which iterates all the files in source directory
+file -&gt; file we want to copy
+file.name -&gt; name of the file with extension</t>
+  </si>
+  <si>
+    <t>same above task with println</t>
+  </si>
+  <si>
+    <t>def contentSpec = copySpec{
+    exclude{
+        println "file name: "+it.file.name
+        it.file.name.endsWith('pdf')
+    }
+    from 'source'
+}
+task copyTask(type: Copy){
+    with contentSpec
+    into 'dest'
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\images\za-gradle&gt;gradle copyTask
+:copyTask
+file name: IMG-20150612-WA0003.jpg
+file name: IMG-20150612-WA0003.jpg
+file name: New Doc 9.pdf
+file name: Payment_Details (1).pdf
+file name: rc026-010d-spring_annotations.pdf
+file name: IMG-20150612-WA0003.jpg
+file name: New Doc 9.pdf
+file name: Payment_Details (1).pdf
+file name: rc026-010d-spring_annotations.pdf</t>
+  </si>
+  <si>
+    <t>replace specific content in source file</t>
+  </si>
+  <si>
+    <t>task copyTask(type: Copy){
+    include 'src-file.txt'
+    from 'source'
+    into 'dest'
+    expand ([
+        resourceName: 'Gradle'
+    ])
+}</t>
+  </si>
+  <si>
+    <t>src-file.txt in source directory</t>
+  </si>
+  <si>
+    <t>welcome to $resourceName.
+Lets see how to replace text in file</t>
+  </si>
+  <si>
+    <t>src-file.txt in dest directory</t>
+  </si>
+  <si>
+    <t>welcome to Gradle.
+Lets see how to replace text in file</t>
+  </si>
+  <si>
+    <t>gradle standard layout for java project like src/main/java etc.
+if we want to change that default layout we have to use sourceSets</t>
+  </si>
+  <si>
+    <t>sourceSets{
+    main{
+        java{
+            srcDir 'src/java'
+        }
+        resources{
+            srcDir 'src/resources'
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>add version to our jar file in build.gradle</t>
+  </si>
+  <si>
+    <t>version = '1.0.SNAPSHOT'</t>
+  </si>
+  <si>
+    <t>Now jar file name will be - MyJava-1.0.SNAPSHOT.jar</t>
+  </si>
+  <si>
+    <t>Why gradle daemon</t>
+  </si>
+  <si>
+    <t>Every we run gradle command it will run the command in JVM. This will take some time to make JVM and running and run gradle command. So instead of new JVM each time we can enable daemon so the gradle command runs in that daemon</t>
+  </si>
+  <si>
+    <t>enable gradle daemon while running gradle task</t>
+  </si>
+  <si>
+    <t>gradle --daemon clean</t>
+  </si>
+  <si>
+    <t>enable daemon using properties file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. create gradle.properties in the same directory of build.gradle
+2. add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.gradle.daemon=true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the properties file</t>
+    </r>
+  </si>
+  <si>
+    <t>turn the daemon off</t>
+  </si>
+  <si>
+    <t>gradle --no-daemon clean build</t>
+  </si>
+  <si>
+    <t>building multi level projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. we have 2 projects. ServiceProject, RepositoryProject. Both projects have build.gradle file
+2. To build above 2 projects, we need to create settings.gradle in top level of these two projects. In this file we list all the projects that are part of this multi project build
+3. Add build.gradle at top level. </t>
+  </si>
+  <si>
+    <t>settings.gradle</t>
+  </si>
+  <si>
+    <t>include 'RepositoryProject', 'ServiceProject'</t>
+  </si>
+  <si>
+    <t>allprojects{
+    apply plugin: 'java'
+}
+project(':ServiceProject'){}
+project(':RepositoryProject'){
+    dependencies{
+        compile project(':ServiceProject')
+    }
+}</t>
+  </si>
+  <si>
+    <t>build.gradle
+1. apply java plugin to all projects
+2. specify the dependencies of each project
+3. RepositoryProject is depends on ServiceProject. This dependency we specified in second project</t>
+  </si>
+  <si>
+    <t>add dependencies from local file system in build.gradle</t>
+  </si>
+  <si>
+    <t>dependencies{
+    compile files ('C:/Users/Admin/.m2/repository/junit/junit/4.12/junit-4.12.jar')
+}</t>
+  </si>
+  <si>
+    <t>1. add application plugin. -&gt; apply plugin: 'application'
+2. add the mainClassName</t>
+  </si>
+  <si>
+    <t>apply plugin: 'java'
+apply plugin: 'application'
+task wrapper(type: Wrapper){
+    gradleVersion = '3.3'
+}
+dependencies{
+    compile files ('C:/Users/Admin/.m2/repository/junit/junit/4.12/junit-4.12.jar')
+}
+mainClassName = 'gradle.hello.world.App'</t>
+  </si>
+  <si>
+    <t>Specifying the main class to run the application
+run -&gt; gradle run</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle\GradleHelloWorld&gt;gradlew -q run
+Hello World!</t>
+  </si>
+  <si>
+    <t>Passing arguments to main class (that main class is iterating and printing input args)</t>
+  </si>
+  <si>
+    <t>run{
+    if(project.hasProperty('args')){
+        args project.args.split('\\s')
+    }
+}</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\Gradle\GradleHelloWorld&gt;gradle -q run -Pargs="Gradle Hello World"
+Hello World!
+Gradle
+Hello
+World</t>
+  </si>
+  <si>
+    <t>java plugin provides these configurations</t>
+  </si>
+  <si>
+    <t>compile, runtime, testCompile, testRuntime</t>
+  </si>
+  <si>
+    <t>list dependencies in a project</t>
+  </si>
+  <si>
+    <t>gradle -q dependencies</t>
+  </si>
+  <si>
+    <t>list dependencies in a project for particular configuration</t>
+  </si>
+  <si>
+    <t>gradle -q dependencies --configuration compile</t>
+  </si>
+  <si>
+    <t>specifying repositories in build.gradle</t>
+  </si>
+  <si>
+    <t>repositories{
+ mavenCentral()
+}</t>
+  </si>
+  <si>
+    <t>repositories{
+    jcenter()
+}</t>
+  </si>
+  <si>
+    <t>repositories{
+ maven{
+    url "http://myrepo.com/maven2"
+ }
+}</t>
+  </si>
+  <si>
+    <t>Remote maven repository</t>
+  </si>
+  <si>
+    <t>Add dependency in build.gradle</t>
+  </si>
+  <si>
+    <t>1. add repository
+2. add group (groupId in maven), name(artifactId in maven), version(version in maven)</t>
+  </si>
+  <si>
+    <t>repositories{
+    mavenCentral()
+}
+dependencies{
+    compile group: 'junit', name: 'junit', version: '4.12'
+}</t>
+  </si>
+  <si>
+    <t>another way of adding dependency</t>
+  </si>
+  <si>
+    <t>dependencies{
+    compile 'junit:junit:4.12'
+}</t>
+  </si>
+  <si>
+    <t>jars downloaded into local file system</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\.gradle\caches\modules-2\files-2.1</t>
+  </si>
+  <si>
+    <t>command to run test cases in gradle</t>
+  </si>
+  <si>
+    <t>gradle test</t>
+  </si>
+  <si>
+    <t>Specifying to run specific tests</t>
+  </si>
+  <si>
+    <t>test{
+    filter{
+        includeTestsMatching 'com.test.Test1'
+        includeTestsMatching '*Test'
+    }
+}</t>
+  </si>
+  <si>
+    <t>create test task to run specific tests</t>
+  </si>
+  <si>
+    <t>task singleTest(type: Test){
+    dependsOn testClasses
+    filter{
+        includeTestsMatching 'com.test.Test1'
+    }
+}</t>
+  </si>
+  <si>
+    <t>filtering test from command line</t>
+  </si>
+  <si>
+    <t>gradle test  --tests *Test</t>
+  </si>
+  <si>
+    <t>gradle-testsets-plugin</t>
+  </si>
+  <si>
+    <t>to run integration testing</t>
+  </si>
+  <si>
+    <t>configure gradle-testsets-plugin</t>
+  </si>
+  <si>
+    <t>1. Add plugin
+2. add testSet</t>
+  </si>
+  <si>
+    <t>sample gradle file</t>
+  </si>
+  <si>
+    <t>images/za-gradle/1-sample-gradle.jpg</t>
+  </si>
+  <si>
+    <t>Integration test in gradle</t>
+  </si>
+  <si>
+    <t>Pluralsight -&gt; Gradle fundamentals -&gt; Testing -&gt; Adding Other Test Types to you Build</t>
+  </si>
+  <si>
+    <t>what is gradlle wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrapper provides specification version to gradle to build this project. Rather than each developer using his own version of gradle to run the project, we can specify which version to use within build.gradle file. Each developer can use wrapper created and checked along with project. </t>
+  </si>
+  <si>
+    <t>wrapper task will be available to use by default. If we want to add wrapper task we can as specified above</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +3018,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2462,6 +3100,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2469,6 +3113,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2476,15 +3129,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2857,10 +3501,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2951,10 +3595,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3010,16 +3654,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3090,16 +3734,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -3110,10 +3754,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -3212,16 +3856,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="35"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3320,7 +3964,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3328,7 +3972,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="35"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
@@ -3382,7 +4026,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="35" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3390,7 +4034,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="31"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
@@ -3530,7 +4174,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="35" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -3538,49 +4182,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="31"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="31"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="31"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="31"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="31"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="31"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="31"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="35" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3588,13 +4232,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="31"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="35" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -3602,19 +4246,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="31"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="31"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="31"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -3708,7 +4352,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -3716,7 +4360,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="32"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -3730,7 +4374,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="33" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -3738,13 +4382,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="34"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -3752,13 +4396,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="32"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="32"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -3826,7 +4470,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="38" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -3834,19 +4478,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="33"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="33"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="38" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -3854,13 +4498,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="33"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="33" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -3868,7 +4512,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="34"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -3898,7 +4542,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="38" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -3906,7 +4550,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="33"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -3944,10 +4588,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="30"/>
+      <c r="B118" s="32"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4196,11 +4840,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A2:B2"/>
@@ -4215,6 +4854,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4227,11 +4871,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4249,16 +4893,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4285,7 +4929,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -4293,19 +4937,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="34"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="34"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="28" t="s">
         <v>296</v>
       </c>
@@ -4366,262 +5010,850 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B24" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="28" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="33"/>
+      <c r="B25" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="34"/>
-      <c r="B25" s="28" t="s">
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="33"/>
+      <c r="B26" s="28" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="34" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B27" s="28" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="28" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="28" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="28" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="28" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="28" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="33" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="33"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="38"/>
+      <c r="B33" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="33"/>
-      <c r="B33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="38"/>
+      <c r="B34" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="33"/>
-      <c r="B34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="38"/>
+      <c r="B35" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="28" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="90">
-      <c r="A36" s="28" t="s">
+    <row r="37" spans="1:2" ht="90">
+      <c r="A37" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B37" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="33" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="90">
-      <c r="A38" s="33"/>
-      <c r="B38" s="28" t="s">
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="38"/>
+      <c r="B39" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="165">
-      <c r="A39" s="34" t="s">
+    <row r="40" spans="1:2" ht="165">
+      <c r="A40" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B40" s="28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="34"/>
-      <c r="B40" s="28" t="s">
+    <row r="41" spans="1:2" ht="120">
+      <c r="A41" s="33"/>
+      <c r="B41" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="33" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="135">
-      <c r="A42" s="33"/>
-      <c r="B42" s="28" t="s">
+    <row r="43" spans="1:2" ht="135">
+      <c r="A43" s="38"/>
+      <c r="B43" s="28" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="33" t="s">
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="33"/>
-      <c r="B44" s="28" t="s">
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="38"/>
+      <c r="B45" s="28" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="165">
-      <c r="A45" s="34" t="s">
+    <row r="46" spans="1:2" ht="165">
+      <c r="A46" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="90">
-      <c r="A46" s="34"/>
-      <c r="B46" s="28" t="s">
+    <row r="47" spans="1:2" ht="90">
+      <c r="A47" s="33"/>
+      <c r="B47" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="34" t="s">
+    <row r="48" spans="1:2" ht="90">
+      <c r="A48" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="34"/>
-      <c r="B48" s="28" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="33"/>
+      <c r="B49" s="28" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B52" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="135">
-      <c r="A52" s="34" t="s">
+    <row r="53" spans="1:2" ht="135">
+      <c r="A53" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90">
-      <c r="A53" s="34"/>
-      <c r="B53" s="28" t="s">
+    <row r="54" spans="1:2" ht="90">
+      <c r="A54" s="33"/>
+      <c r="B54" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="28" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B55" s="28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="195">
-      <c r="A55" s="34" t="s">
+    <row r="56" spans="1:2" ht="195">
+      <c r="A56" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B56" s="28" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="105">
-      <c r="A56" s="34"/>
-      <c r="B56" s="28" t="s">
+    <row r="57" spans="1:2" ht="105">
+      <c r="A57" s="33"/>
+      <c r="B57" s="28" t="s">
         <v>363</v>
       </c>
     </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="90">
+      <c r="A59" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="105">
+      <c r="A60" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="33"/>
+      <c r="B63" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="75">
+      <c r="A64" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="105">
+      <c r="A65" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="33"/>
+      <c r="B66" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="33"/>
+      <c r="B67" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="90">
+      <c r="A68" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="33"/>
+      <c r="B69" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="105">
+      <c r="A70" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="105">
+      <c r="A71" s="33"/>
+      <c r="B71" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45">
+      <c r="A72" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="135">
+      <c r="A73" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="33"/>
+      <c r="B74" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="135">
+      <c r="A75" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="33"/>
+      <c r="B76" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="135">
+      <c r="A77" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="33"/>
+      <c r="B78" s="29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="240">
+      <c r="A81" s="33"/>
+      <c r="B81" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="33"/>
+      <c r="B83" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="60">
+      <c r="A87" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="75">
+      <c r="A88" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="75">
+      <c r="A89" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="135">
+      <c r="A90" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="165">
+      <c r="A91" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="180">
+      <c r="A92" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="165">
+      <c r="A93" s="33"/>
+      <c r="B93" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="120">
+      <c r="A94" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30">
+      <c r="A96" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="150">
+      <c r="A97" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="38"/>
+      <c r="B99" s="29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30">
+      <c r="A102" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="60">
+      <c r="A104" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="165">
+      <c r="A106" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="45">
+      <c r="A107" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30">
+      <c r="A108" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="180">
+      <c r="A109" s="33"/>
+      <c r="B109" s="29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="33"/>
+      <c r="B110" s="29" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="75">
+      <c r="A112" s="33"/>
+      <c r="B112" s="29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="45">
+      <c r="A116" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="45">
+      <c r="A117" s="33"/>
+      <c r="B117" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="75">
+      <c r="A118" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="90">
+      <c r="A120" s="33"/>
+      <c r="B120" s="29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="45">
+      <c r="A121" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="90">
+      <c r="A124" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="90">
+      <c r="A125" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="45">
+      <c r="A131" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="33"/>
+      <c r="B132" s="29" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+  <mergeCells count="30">
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -1919,22 +1919,6 @@
     <t>What is a task in gradle</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Task is a code that gradle executes for us. Tasks will have a lige cycle. Different parts of task will execute at different times. Task will have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Initialization phase, configuration phase, execution phase</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Tasks may have properties. Tasks has description, groupId etc default properties. We can defined custom properties if we need. </t>
   </si>
   <si>
@@ -1966,9 +1950,6 @@
   </si>
   <si>
     <t>Task4.description = "Hello Task 4"</t>
-  </si>
-  <si>
-    <t>run -&gt; gradle tasks --all after defining above tasks</t>
   </si>
   <si>
     <t>Other tasks
@@ -2577,9 +2558,6 @@
     <t>Why gradle daemon</t>
   </si>
   <si>
-    <t>Every we run gradle command it will run the command in JVM. This will take some time to make JVM and running and run gradle command. So instead of new JVM each time we can enable daemon so the gradle command runs in that daemon</t>
-  </si>
-  <si>
     <t>enable gradle daemon while running gradle task</t>
   </si>
   <si>
@@ -2837,6 +2815,29 @@
   </si>
   <si>
     <t>wrapper task will be available to use by default. If we want to add wrapper task we can as specified above</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task is a code that gradle executes for us. Tasks will have a life cycle. Different parts of task will execute at different times. Task will have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialization phase, configuration phase, execution phase</t>
+    </r>
+  </si>
+  <si>
+    <t>after defining above tasks
+run -&gt; gradle tasks --all</t>
+  </si>
+  <si>
+    <t>Every time we run gradle command it will run the command in JVM. This will take some time to make JVM up and running and run gradle command. So instead of new JVM each time we can enable daemon so the gradle command runs in that daemon</t>
   </si>
 </sst>
 </file>
@@ -3018,7 +3019,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3106,6 +3107,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3113,15 +3117,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3129,6 +3124,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3501,10 +3505,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3595,10 +3599,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3654,16 +3658,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3734,16 +3738,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="15" t="s">
@@ -3754,10 +3758,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -3856,16 +3860,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3964,7 +3968,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="37" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3972,7 +3976,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="34"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
@@ -4026,7 +4030,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4034,13 +4038,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="35"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="39" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4048,7 +4052,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4174,7 +4178,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="34" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4182,49 +4186,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="35"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="35"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="35"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="35"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="35"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="35"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="35"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="34" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4232,13 +4236,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="35"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="34" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4246,19 +4250,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="35"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="35"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4352,7 +4356,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="35" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4360,7 +4364,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="37"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4374,7 +4378,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4382,13 +4386,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4396,13 +4400,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="37"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="37"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4470,7 +4474,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="36" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4478,19 +4482,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="38"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="38"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="36" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4498,13 +4502,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="38"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="37" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4512,7 +4516,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="33"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4542,7 +4546,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="36" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4550,7 +4554,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="38"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4588,10 +4592,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="32"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4840,6 +4844,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A2:B2"/>
@@ -4856,9 +4863,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4874,8 +4878,8 @@
   <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131:A132"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4893,16 +4897,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4929,7 +4933,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -4937,19 +4941,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="28" t="s">
         <v>296</v>
       </c>
@@ -5012,14 +5016,14 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="37" t="s">
         <v>312</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5027,824 +5031,803 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="33"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="28" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="28" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="28" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="28" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="28" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B31" s="28" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B32" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="36"/>
+      <c r="B33" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="38"/>
-      <c r="B33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="36"/>
+      <c r="B34" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="38"/>
-      <c r="B34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="36"/>
+      <c r="B35" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="38"/>
-      <c r="B35" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" t="s">
         <v>327</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="90">
+      <c r="A37" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="90">
-      <c r="A37" s="28" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="38" t="s">
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="36"/>
+      <c r="B39" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="165">
+      <c r="A40" s="37" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="38"/>
-      <c r="B39" s="28" t="s">
+      <c r="B40" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="33" t="s">
+    <row r="41" spans="1:2" ht="120">
+      <c r="A41" s="37"/>
+      <c r="B41" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="28" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="36" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="33"/>
-      <c r="B41" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="38" t="s">
+    <row r="43" spans="1:2" ht="135">
+      <c r="A43" s="36"/>
+      <c r="B43" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="B42" s="28" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="36" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="38"/>
-      <c r="B43" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="38" t="s">
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="36"/>
+      <c r="B45" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="B44" s="28" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="165">
+      <c r="A46" s="37" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="38"/>
-      <c r="B45" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="33" t="s">
+    <row r="47" spans="1:2" ht="90">
+      <c r="A47" s="37"/>
+      <c r="B47" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="B46" s="28" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="90">
+      <c r="A48" s="37" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="33"/>
-      <c r="B47" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="33" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="37"/>
+      <c r="B49" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="33"/>
-      <c r="B49" s="28" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B52" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="135">
+      <c r="A53" s="37" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="33" t="s">
+      <c r="B53" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="90">
+      <c r="A54" s="37"/>
+      <c r="B54" s="28" t="s">
         <v>356</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="33"/>
-      <c r="B54" s="28" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="195">
+      <c r="A56" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B56" s="28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="33" t="s">
+    <row r="57" spans="1:2" ht="105">
+      <c r="A57" s="37"/>
+      <c r="B57" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="33"/>
-      <c r="B57" s="28" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="90">
       <c r="A59" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
       <c r="A60" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
       <c r="A61" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B62" s="29" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="33" t="s">
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="37"/>
+      <c r="B63" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="33"/>
-      <c r="B63" s="29" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
       <c r="A64" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="105">
+      <c r="A65" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B65" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="37"/>
+      <c r="B66" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="37"/>
+      <c r="B67" s="29" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B65" s="29" t="s">
+    <row r="68" spans="1:2" ht="90">
+      <c r="A68" s="37" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="33"/>
-      <c r="B66" s="29" t="s">
+      <c r="B68" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="33"/>
-      <c r="B67" s="29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="33" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="37"/>
+      <c r="B69" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="B68" s="29" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="105">
+      <c r="A70" s="37" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="33"/>
-      <c r="B69" s="29" t="s">
+      <c r="B70" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="33" t="s">
+    <row r="71" spans="1:2" ht="105">
+      <c r="A71" s="37"/>
+      <c r="B71" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="33"/>
-      <c r="B71" s="29" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
       <c r="A72" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="135">
+      <c r="A73" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="B72" s="29" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="37"/>
+      <c r="B74" s="29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="33" t="s">
+    <row r="75" spans="1:2" ht="135">
+      <c r="A75" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="37"/>
+      <c r="B76" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="135">
+      <c r="A77" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="33"/>
-      <c r="B74" s="29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="33" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="37"/>
+      <c r="B78" s="29" t="s">
         <v>393</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="33"/>
-      <c r="B76" s="29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="33"/>
-      <c r="B78" s="29" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B80" s="29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="33" t="s">
+    <row r="81" spans="1:2" ht="240">
+      <c r="A81" s="37"/>
+      <c r="B81" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="29" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="37" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="33"/>
-      <c r="B81" s="29" t="s">
+      <c r="B82" s="29" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="33" t="s">
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="37"/>
+      <c r="B83" s="29" t="s">
         <v>401</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="33"/>
-      <c r="B83" s="29" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="60">
       <c r="A87" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
       <c r="A88" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75">
       <c r="A89" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="135">
       <c r="A90" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="165">
       <c r="A91" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="180">
+      <c r="A92" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="B92" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="33" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="165">
+      <c r="A93" s="37"/>
+      <c r="B93" s="29" t="s">
         <v>423</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="33"/>
-      <c r="B93" s="29" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="120">
       <c r="A94" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
       <c r="A95" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
       <c r="A96" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="150">
       <c r="A97" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B98" s="29" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="38" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="36"/>
+      <c r="B99" s="29" t="s">
         <v>434</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="38"/>
-      <c r="B99" s="29" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
       <c r="A100" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>438</v>
+        <v>435</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30">
       <c r="A102" s="29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="29" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60">
       <c r="A104" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="29" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="165">
       <c r="A106" s="29" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="45">
       <c r="A107" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30">
+      <c r="A108" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="180">
+      <c r="A109" s="37"/>
+      <c r="B109" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="33" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="37"/>
+      <c r="B110" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="B111" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="33"/>
-      <c r="B109" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="33"/>
-      <c r="B110" s="29" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="75">
+      <c r="A112" s="37"/>
+      <c r="B112" s="29" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="33"/>
-      <c r="B112" s="29" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="45">
+      <c r="A116" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="B116" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="B115" s="29" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="45">
+      <c r="A117" s="37"/>
+      <c r="B117" s="29" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="33"/>
-      <c r="B117" s="29" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="75">
       <c r="A118" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="90">
+      <c r="A120" s="37"/>
+      <c r="B120" s="29" t="s">
         <v>470</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="33"/>
-      <c r="B120" s="29" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="45">
       <c r="A121" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="29" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="90">
       <c r="A124" s="29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90">
       <c r="A125" s="29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="29" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="29" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30">
       <c r="A128" s="29" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="29" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="45">
+      <c r="A131" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="B130" s="29" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="37"/>
+      <c r="B132" s="29" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="33"/>
-      <c r="B132" s="29" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5854,6 +5837,27 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3019,7 +3019,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3110,11 +3110,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3130,9 +3136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3505,10 +3508,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3599,10 +3602,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3658,16 +3661,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3718,9 +3721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3738,33 +3741,33 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3860,16 +3863,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3955,37 +3958,37 @@
       <c r="A31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="38"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3993,7 +3996,7 @@
       <c r="A36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="32" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4030,7 +4033,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4038,13 +4041,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4052,7 +4055,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4178,7 +4181,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="36" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4186,49 +4189,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="34"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="34"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="34"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="34"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="34"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="34"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="36" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4236,13 +4239,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="34"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="36" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4250,19 +4253,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="34"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4356,7 +4359,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4364,7 +4367,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="35"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4378,7 +4381,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="39" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4386,13 +4389,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4400,13 +4403,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="35"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="35"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4474,7 +4477,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="36" t="s">
+      <c r="A101" s="38" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4482,19 +4485,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="36"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="36"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="38" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4502,13 +4505,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="36"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="39" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4516,7 +4519,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="37"/>
+      <c r="A107" s="39"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4546,7 +4549,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="38" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4554,7 +4557,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="36"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4592,10 +4595,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="33"/>
+      <c r="B118" s="34"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4844,17 +4847,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A4:B4"/>
@@ -4863,6 +4860,12 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4877,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
@@ -4897,16 +4900,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4933,7 +4936,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -4941,19 +4944,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="37"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="28" t="s">
         <v>296</v>
       </c>
@@ -5023,7 +5026,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="39" t="s">
         <v>312</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5031,19 +5034,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="37"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>316</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -5051,19 +5054,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="28" t="s">
         <v>319</v>
       </c>
@@ -5077,7 +5080,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="38" t="s">
         <v>353</v>
       </c>
       <c r="B32" t="s">
@@ -5085,19 +5088,19 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="38"/>
       <c r="B33" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="36"/>
+      <c r="A34" s="38"/>
       <c r="B34" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="38"/>
       <c r="B35" t="s">
         <v>325</v>
       </c>
@@ -5119,7 +5122,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="38" t="s">
         <v>329</v>
       </c>
       <c r="B38" t="s">
@@ -5127,13 +5130,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="39" t="s">
         <v>332</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5141,13 +5144,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="37"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="28" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="38" t="s">
         <v>335</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -5155,13 +5158,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="36"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="28" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="38" t="s">
         <v>338</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -5169,13 +5172,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="28" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="39" t="s">
         <v>341</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5183,13 +5186,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="28" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5197,7 +5200,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="28" t="s">
         <v>346</v>
       </c>
@@ -5227,7 +5230,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="39" t="s">
         <v>354</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5235,7 +5238,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="37"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="28" t="s">
         <v>356</v>
       </c>
@@ -5249,7 +5252,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="39" t="s">
         <v>359</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5257,7 +5260,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="37"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="28" t="s">
         <v>361</v>
       </c>
@@ -5295,7 +5298,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="39" t="s">
         <v>369</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5303,7 +5306,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="37"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="29" t="s">
         <v>371</v>
       </c>
@@ -5317,7 +5320,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="39" t="s">
         <v>374</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5325,19 +5328,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="37"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="29" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="37"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="39" t="s">
         <v>378</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5345,13 +5348,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="37"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="39" t="s">
         <v>381</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -5359,7 +5362,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="37"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="29" t="s">
         <v>383</v>
       </c>
@@ -5373,7 +5376,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="39" t="s">
         <v>390</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -5381,13 +5384,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="37"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="29" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="39" t="s">
         <v>391</v>
       </c>
       <c r="B75" s="29" t="s">
@@ -5395,13 +5398,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="37"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="29" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="39" t="s">
         <v>402</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5409,7 +5412,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="37"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="29" t="s">
         <v>393</v>
       </c>
@@ -5423,7 +5426,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="39" t="s">
         <v>396</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5431,13 +5434,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="37"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="29" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="39" t="s">
         <v>399</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -5445,7 +5448,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="37"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="29" t="s">
         <v>401</v>
       </c>
@@ -5515,7 +5518,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="39" t="s">
         <v>421</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5523,7 +5526,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="37"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="29" t="s">
         <v>423</v>
       </c>
@@ -5561,7 +5564,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="38" t="s">
         <v>432</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -5569,7 +5572,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="36"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="29" t="s">
         <v>434</v>
       </c>
@@ -5639,7 +5642,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="39" t="s">
         <v>452</v>
       </c>
       <c r="B108" s="29" t="s">
@@ -5647,19 +5650,19 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="37"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="37"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="29" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="39" t="s">
         <v>454</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -5667,7 +5670,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="37"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="29" t="s">
         <v>456</v>
       </c>
@@ -5697,7 +5700,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="39" t="s">
         <v>463</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -5705,7 +5708,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="37"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="29" t="s">
         <v>465</v>
       </c>
@@ -5719,7 +5722,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="39" t="s">
         <v>468</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5727,7 +5730,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="37"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="29" t="s">
         <v>470</v>
       </c>
@@ -5813,7 +5816,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="39" t="s">
         <v>491</v>
       </c>
       <c r="B131" s="29" t="s">
@@ -5821,13 +5824,34 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="37"/>
+      <c r="A132" s="39"/>
       <c r="B132" s="29" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5837,27 +5861,6 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -3019,7 +3019,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3113,17 +3113,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3134,8 +3131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3508,10 +3511,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3602,10 +3605,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3661,16 +3664,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3741,16 +3744,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3761,10 +3764,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -3863,16 +3866,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3971,7 +3974,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3993,10 +3996,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="33" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4033,7 +4036,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4041,13 +4044,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="36"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4055,7 +4058,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4181,7 +4184,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4189,49 +4192,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="36"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="36"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="36"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="36"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="36"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="36"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="39" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4239,13 +4242,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="36"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="39" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4253,19 +4256,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="36"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="36"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="36"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4359,7 +4362,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4367,7 +4370,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="37"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4381,7 +4384,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="38" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4389,13 +4392,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="39"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4403,13 +4406,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="37"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="37"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4477,7 +4480,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="37" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4485,19 +4488,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="38"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="38"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="37" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4505,13 +4508,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="38"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="38" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4519,7 +4522,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="39"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4549,7 +4552,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="37" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4557,7 +4560,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="38"/>
+      <c r="A112" s="37"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4595,10 +4598,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="34"/>
+      <c r="B118" s="35"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4847,6 +4850,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
@@ -4863,9 +4869,6 @@
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4900,16 +4903,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4936,7 +4939,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -4944,19 +4947,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="28" t="s">
         <v>296</v>
       </c>
@@ -5026,7 +5029,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>312</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5034,19 +5037,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>316</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -5054,19 +5057,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="28" t="s">
         <v>319</v>
       </c>
@@ -5080,7 +5083,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>353</v>
       </c>
       <c r="B32" t="s">
@@ -5088,19 +5091,19 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="37"/>
       <c r="B34" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="37"/>
       <c r="B35" t="s">
         <v>325</v>
       </c>
@@ -5122,7 +5125,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>329</v>
       </c>
       <c r="B38" t="s">
@@ -5130,13 +5133,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="38"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="38" t="s">
         <v>332</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5144,13 +5147,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="39"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="28" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>335</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -5158,13 +5161,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="38"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="28" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>338</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -5172,13 +5175,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="28" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="38" t="s">
         <v>341</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5186,13 +5189,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="39"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="28" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5200,7 +5203,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="39"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="28" t="s">
         <v>346</v>
       </c>
@@ -5230,7 +5233,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="38" t="s">
         <v>354</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5238,7 +5241,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="39"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="28" t="s">
         <v>356</v>
       </c>
@@ -5252,7 +5255,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5260,7 +5263,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="39"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="28" t="s">
         <v>361</v>
       </c>
@@ -5298,7 +5301,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="38" t="s">
         <v>369</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5306,7 +5309,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="39"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="29" t="s">
         <v>371</v>
       </c>
@@ -5320,7 +5323,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="38" t="s">
         <v>374</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5328,19 +5331,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="39"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="29" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="39"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="38" t="s">
         <v>378</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5348,13 +5351,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="39"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="38" t="s">
         <v>381</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -5362,7 +5365,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="39"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="29" t="s">
         <v>383</v>
       </c>
@@ -5376,7 +5379,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="38" t="s">
         <v>390</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -5384,13 +5387,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="39"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="29" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="38" t="s">
         <v>391</v>
       </c>
       <c r="B75" s="29" t="s">
@@ -5398,13 +5401,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="39"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="29" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="38" t="s">
         <v>402</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5412,7 +5415,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="39"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="29" t="s">
         <v>393</v>
       </c>
@@ -5426,7 +5429,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="38" t="s">
         <v>396</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5434,13 +5437,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="39"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="29" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="38" t="s">
         <v>399</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -5448,7 +5451,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="39"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="29" t="s">
         <v>401</v>
       </c>
@@ -5518,7 +5521,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="38" t="s">
         <v>421</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5526,7 +5529,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="39"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="29" t="s">
         <v>423</v>
       </c>
@@ -5564,7 +5567,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="37" t="s">
         <v>432</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -5572,7 +5575,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="38"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="29" t="s">
         <v>434</v>
       </c>
@@ -5642,7 +5645,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="38" t="s">
         <v>452</v>
       </c>
       <c r="B108" s="29" t="s">
@@ -5650,19 +5653,19 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="39"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="39"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="29" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="38" t="s">
         <v>454</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -5670,7 +5673,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="39"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="29" t="s">
         <v>456</v>
       </c>
@@ -5700,7 +5703,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="38" t="s">
         <v>463</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -5708,7 +5711,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="39"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="29" t="s">
         <v>465</v>
       </c>
@@ -5722,7 +5725,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="38" t="s">
         <v>468</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5730,7 +5733,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="39"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="29" t="s">
         <v>470</v>
       </c>
@@ -5816,7 +5819,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="39" t="s">
+      <c r="A131" s="38" t="s">
         <v>491</v>
       </c>
       <c r="B131" s="29" t="s">
@@ -5824,34 +5827,13 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="39"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="29" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5861,6 +5843,27 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="500">
   <si>
     <t>Topics</t>
   </si>
@@ -2838,6 +2838,15 @@
   </si>
   <si>
     <t>Every time we run gradle command it will run the command in JVM. This will take some time to make JVM up and running and run gradle command. So instead of new JVM each time we can enable daemon so the gradle command runs in that daemon</t>
+  </si>
+  <si>
+    <t>run mvn by passing aws.access key and secret key as java parameters</t>
+  </si>
+  <si>
+    <t>mvn -Daws.accessKeyId=XYZ -Daws.secretKey=ABC clean compile install</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/sdk-for-java/v1/developer-guide/credentials.html</t>
   </si>
 </sst>
 </file>
@@ -3019,7 +3028,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3116,6 +3125,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3123,16 +3135,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3511,10 +3523,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3605,10 +3617,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3664,16 +3676,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3725,8 +3737,8 @@
   <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3744,16 +3756,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3764,10 +3776,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -3866,16 +3878,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3974,7 +3986,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3982,7 +3994,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="40"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4036,7 +4048,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="37" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4044,13 +4056,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="39"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4058,7 +4070,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4184,7 +4196,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="37" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4192,49 +4204,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="39"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="39"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="39"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="39"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="37" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4242,13 +4254,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="39"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="37" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4256,19 +4268,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="39"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="39"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="39"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4362,7 +4374,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="39" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4370,7 +4382,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="36"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4384,7 +4396,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="40" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4392,13 +4404,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="39" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4406,13 +4418,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="36"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="36"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4480,7 +4492,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="38" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4488,19 +4500,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="37"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="37"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="38" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4508,13 +4520,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="37"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="40" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4522,7 +4534,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="38"/>
+      <c r="A107" s="40"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4552,7 +4564,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="38" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4560,7 +4572,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="37"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4598,10 +4610,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="35"/>
+      <c r="B118" s="36"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4842,14 +4854,25 @@
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="26"/>
+    <row r="150" spans="1:2" ht="30" customHeight="1">
+      <c r="A150" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="B150" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="26"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -4866,16 +4889,14 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B1" location="Maven!A2" display="Up"/>
+    <hyperlink ref="B151" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4903,16 +4924,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4939,7 +4960,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="40" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -4947,19 +4968,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="38"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="28" t="s">
         <v>296</v>
       </c>
@@ -5029,7 +5050,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="40" t="s">
         <v>312</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5037,19 +5058,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="38"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="38"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="40" t="s">
         <v>316</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -5057,19 +5078,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="28" t="s">
         <v>319</v>
       </c>
@@ -5083,7 +5104,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="38" t="s">
         <v>353</v>
       </c>
       <c r="B32" t="s">
@@ -5091,19 +5112,19 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" t="s">
         <v>325</v>
       </c>
@@ -5125,7 +5146,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="38" t="s">
         <v>329</v>
       </c>
       <c r="B38" t="s">
@@ -5133,13 +5154,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="37"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="40" t="s">
         <v>332</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5147,13 +5168,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="38"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="28" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="38" t="s">
         <v>335</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -5161,13 +5182,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="37"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="28" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="38" t="s">
         <v>338</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -5175,13 +5196,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="37"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="28" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="40" t="s">
         <v>341</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5189,13 +5210,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="38"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="28" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="40" t="s">
         <v>344</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5203,7 +5224,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="38"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="28" t="s">
         <v>346</v>
       </c>
@@ -5233,7 +5254,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="40" t="s">
         <v>354</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5241,7 +5262,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="38"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="28" t="s">
         <v>356</v>
       </c>
@@ -5255,7 +5276,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="40" t="s">
         <v>359</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5263,7 +5284,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="38"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="28" t="s">
         <v>361</v>
       </c>
@@ -5301,7 +5322,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="40" t="s">
         <v>369</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5309,7 +5330,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="38"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="29" t="s">
         <v>371</v>
       </c>
@@ -5323,7 +5344,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="40" t="s">
         <v>374</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5331,19 +5352,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="38"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="29" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="38"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="40" t="s">
         <v>378</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5351,13 +5372,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="38"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="40" t="s">
         <v>381</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -5365,7 +5386,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="38"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="29" t="s">
         <v>383</v>
       </c>
@@ -5379,7 +5400,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="40" t="s">
         <v>390</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -5387,13 +5408,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="38"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="29" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="40" t="s">
         <v>391</v>
       </c>
       <c r="B75" s="29" t="s">
@@ -5401,13 +5422,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="38"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="29" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="40" t="s">
         <v>402</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5415,7 +5436,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="38"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="29" t="s">
         <v>393</v>
       </c>
@@ -5429,7 +5450,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="40" t="s">
         <v>396</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5437,13 +5458,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="38"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="29" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="40" t="s">
         <v>399</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -5451,7 +5472,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="38"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="29" t="s">
         <v>401</v>
       </c>
@@ -5521,7 +5542,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="40" t="s">
         <v>421</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5529,7 +5550,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="38"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="29" t="s">
         <v>423</v>
       </c>
@@ -5567,7 +5588,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="38" t="s">
         <v>432</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -5575,7 +5596,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="37"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="29" t="s">
         <v>434</v>
       </c>
@@ -5645,7 +5666,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="40" t="s">
         <v>452</v>
       </c>
       <c r="B108" s="29" t="s">
@@ -5653,19 +5674,19 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="38"/>
+      <c r="A109" s="40"/>
       <c r="B109" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="38"/>
+      <c r="A110" s="40"/>
       <c r="B110" s="29" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="40" t="s">
         <v>454</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -5673,7 +5694,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="38"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="29" t="s">
         <v>456</v>
       </c>
@@ -5703,7 +5724,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="40" t="s">
         <v>463</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -5711,7 +5732,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="38"/>
+      <c r="A117" s="40"/>
       <c r="B117" s="29" t="s">
         <v>465</v>
       </c>
@@ -5725,7 +5746,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="40" t="s">
         <v>468</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5733,7 +5754,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="38"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="29" t="s">
         <v>470</v>
       </c>
@@ -5819,7 +5840,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="40" t="s">
         <v>491</v>
       </c>
       <c r="B131" s="29" t="s">
@@ -5827,13 +5848,34 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="38"/>
+      <c r="A132" s="40"/>
       <c r="B132" s="29" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5843,27 +5885,6 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1765,12 +1765,6 @@
 }</t>
   </si>
   <si>
-    <t>1. go to any location of our choice
-2. create build.gradle file
-3. open it notepad/brackets or any editor
-4. build.gradle content created above</t>
-  </si>
-  <si>
     <t>:hello
 Hello Gradle - doFirst
 Hello Gradle doLast
@@ -1917,9 +1911,6 @@
   </si>
   <si>
     <t>What is a task in gradle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks may have properties. Tasks has description, groupId etc default properties. We can defined custom properties if we need. </t>
   </si>
   <si>
     <t xml:space="preserve">Tasks will have actions. This is the code that will execute. These actions are divided into 2 parts, First action and last action. </t>
@@ -2847,6 +2838,15 @@
   </si>
   <si>
     <t>http://docs.aws.amazon.com/sdk-for-java/v1/developer-guide/credentials.html</t>
+  </si>
+  <si>
+    <t>1. go to any location of our choice
+2. create build.gradle file
+3. open it notepad/brackets or any editor
+4. add below content to - build.gradle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks may have properties. Tasks has description, groupId etc default properties. We can define custom properties if we need. </t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3028,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3128,11 +3128,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3148,9 +3154,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3523,10 +3526,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3617,10 +3620,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3676,16 +3679,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3736,9 +3739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3756,16 +3759,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3776,10 +3779,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -3878,16 +3881,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3986,7 +3989,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3994,7 +3997,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="41"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4048,7 +4051,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4056,13 +4059,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="37"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="38" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4070,7 +4073,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="42"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4196,7 +4199,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4204,49 +4207,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="37"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="37"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="37"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="37"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="37"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="37"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="39" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4254,13 +4257,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="37"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="39" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4268,19 +4271,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="37"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="37"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4374,7 +4377,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4382,7 +4385,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="39"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4396,7 +4399,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="42" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4404,13 +4407,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="40"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="41" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4418,13 +4421,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="39"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="39"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4492,7 +4495,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="40" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4500,19 +4503,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="38"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="38"/>
+      <c r="A103" s="40"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="40" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4520,13 +4523,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="38"/>
+      <c r="A105" s="40"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="42" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4534,7 +4537,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="40"/>
+      <c r="A107" s="42"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4564,7 +4567,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="40" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4572,7 +4575,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="38"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4610,10 +4613,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="36"/>
+      <c r="B118" s="37"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4856,26 +4859,20 @@
     </row>
     <row r="150" spans="1:2" ht="30" customHeight="1">
       <c r="A150" s="34" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B150" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="34"/>
       <c r="B151" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
@@ -4889,6 +4886,12 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4904,9 +4907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4924,16 +4927,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4960,922 +4963,901 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>295</v>
+      <c r="B12" s="35" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>300</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
       <c r="A19" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>308</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>310</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="28" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="42"/>
+      <c r="B25" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="40"/>
-      <c r="B25" s="28" t="s">
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="42"/>
+      <c r="B26" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="40"/>
-      <c r="B26" s="28" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="42" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40" t="s">
+      <c r="B27" s="31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="28" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="28" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="28" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" t="s">
         <v>320</v>
       </c>
-      <c r="B31" s="28" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="40"/>
+      <c r="B33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="40"/>
+      <c r="B34" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="38"/>
-      <c r="B33" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="40"/>
+      <c r="B35" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="38"/>
-      <c r="B34" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="38"/>
-      <c r="B35" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90">
       <c r="A37" s="31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="38" t="s">
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="40"/>
+      <c r="B39" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="165">
+      <c r="A40" s="42" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="38"/>
-      <c r="B39" s="28" t="s">
+      <c r="B40" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="40" t="s">
+    <row r="41" spans="1:2" ht="120">
+      <c r="A41" s="42"/>
+      <c r="B41" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B40" s="28" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="40" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="40"/>
-      <c r="B41" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="38" t="s">
+    <row r="43" spans="1:2" ht="135">
+      <c r="A43" s="40"/>
+      <c r="B43" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="B42" s="28" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="40" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="38"/>
-      <c r="B43" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="38" t="s">
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="40"/>
+      <c r="B45" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="28" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="165">
+      <c r="A46" s="42" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="38"/>
-      <c r="B45" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="40" t="s">
+    <row r="47" spans="1:2" ht="90">
+      <c r="A47" s="42"/>
+      <c r="B47" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="B46" s="28" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="90">
+      <c r="A48" s="42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="40"/>
-      <c r="B47" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="40" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="42"/>
+      <c r="B49" s="28" t="s">
         <v>344</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="40"/>
-      <c r="B49" s="28" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B52" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="135">
+      <c r="A53" s="42" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="40" t="s">
+      <c r="B53" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="90">
+      <c r="A54" s="42"/>
+      <c r="B54" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="40"/>
-      <c r="B54" s="28" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="195">
+      <c r="A56" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B56" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="40" t="s">
+    <row r="57" spans="1:2" ht="105">
+      <c r="A57" s="42"/>
+      <c r="B57" s="28" t="s">
         <v>359</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="40"/>
-      <c r="B57" s="28" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="90">
       <c r="A59" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
       <c r="A60" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
       <c r="A61" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B62" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="40" t="s">
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="42"/>
+      <c r="B63" s="29" t="s">
         <v>369</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="40"/>
-      <c r="B63" s="29" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
       <c r="A64" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="105">
+      <c r="A65" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B65" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="42"/>
+      <c r="B66" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="42"/>
+      <c r="B67" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="B65" s="29" t="s">
+    <row r="68" spans="1:2" ht="90">
+      <c r="A68" s="42" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="40"/>
-      <c r="B66" s="29" t="s">
+      <c r="B68" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="40"/>
-      <c r="B67" s="29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="40" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="42"/>
+      <c r="B69" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="B68" s="29" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="105">
+      <c r="A70" s="42" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="40"/>
-      <c r="B69" s="29" t="s">
+      <c r="B70" s="29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="40" t="s">
+    <row r="71" spans="1:2" ht="105">
+      <c r="A71" s="42"/>
+      <c r="B71" s="29" t="s">
         <v>381</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="40"/>
-      <c r="B71" s="29" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
       <c r="A72" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="135">
+      <c r="A73" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B72" s="29" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="42"/>
+      <c r="B74" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="40" t="s">
+    <row r="75" spans="1:2" ht="135">
+      <c r="A75" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="42"/>
+      <c r="B76" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="135">
+      <c r="A77" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="40"/>
-      <c r="B74" s="29" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="40" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="42"/>
+      <c r="B78" s="29" t="s">
         <v>391</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="40"/>
-      <c r="B76" s="29" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="40"/>
-      <c r="B78" s="29" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B80" s="29" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="40" t="s">
+    <row r="81" spans="1:2" ht="240">
+      <c r="A81" s="42"/>
+      <c r="B81" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="B80" s="29" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="42" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="40"/>
-      <c r="B81" s="29" t="s">
+      <c r="B82" s="29" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="40" t="s">
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="42"/>
+      <c r="B83" s="29" t="s">
         <v>399</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="40"/>
-      <c r="B83" s="29" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="60">
       <c r="A87" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
       <c r="A88" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75">
       <c r="A89" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="135">
       <c r="A90" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="165">
       <c r="A91" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="180">
+      <c r="A92" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="B92" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="40" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="165">
+      <c r="A93" s="42"/>
+      <c r="B93" s="29" t="s">
         <v>421</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="40"/>
-      <c r="B93" s="29" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="120">
       <c r="A94" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
       <c r="A95" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
       <c r="A96" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="150">
       <c r="A97" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B98" s="29" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="38" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="40"/>
+      <c r="B99" s="29" t="s">
         <v>432</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="38"/>
-      <c r="B99" s="29" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
       <c r="A100" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30">
       <c r="A102" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60">
       <c r="A104" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="165">
       <c r="A106" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="45">
       <c r="A107" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30">
+      <c r="A108" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="B108" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="B107" s="29" t="s">
+    </row>
+    <row r="109" spans="1:2" ht="180">
+      <c r="A109" s="42"/>
+      <c r="B109" s="29" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="40" t="s">
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="42"/>
+      <c r="B110" s="29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="40"/>
-      <c r="B109" s="29" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="40"/>
-      <c r="B110" s="29" t="s">
+      <c r="B111" s="29" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="40" t="s">
+    <row r="112" spans="1:2" ht="75">
+      <c r="A112" s="42"/>
+      <c r="B112" s="29" t="s">
         <v>454</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="40"/>
-      <c r="B112" s="29" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="45">
+      <c r="A116" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B116" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="40" t="s">
+    <row r="117" spans="1:2" ht="45">
+      <c r="A117" s="42"/>
+      <c r="B117" s="29" t="s">
         <v>463</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="40"/>
-      <c r="B117" s="29" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="75">
       <c r="A118" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="40" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="90">
+      <c r="A120" s="42"/>
+      <c r="B120" s="29" t="s">
         <v>468</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="40"/>
-      <c r="B120" s="29" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="45">
       <c r="A121" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="90">
       <c r="A124" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90">
       <c r="A125" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30">
       <c r="A128" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="45">
+      <c r="A131" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B131" s="29" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="40" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="42"/>
+      <c r="B132" s="29" t="s">
         <v>491</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="40"/>
-      <c r="B132" s="29" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5885,6 +5867,27 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3137,23 +3137,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3739,9 +3739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3779,10 +3779,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -3881,16 +3881,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3997,7 +3997,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="43"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4051,7 +4051,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4059,13 +4059,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="39"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="43" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4073,7 +4073,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="38"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="41" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4207,49 +4207,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="39"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="39"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="39"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="39"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="41" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4257,13 +4257,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="39"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="41" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4271,19 +4271,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="39"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="39"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="38" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4385,7 +4385,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="41"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4399,7 +4399,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="40" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4407,13 +4407,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="42"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="38" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4421,13 +4421,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="41"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="41"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="40" t="s">
+      <c r="A101" s="39" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4503,19 +4503,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="40"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="40"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="39" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4523,13 +4523,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="40"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="40" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4537,7 +4537,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="42"/>
+      <c r="A107" s="40"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="39" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="40"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4873,6 +4873,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
@@ -4889,9 +4892,6 @@
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4907,9 +4907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4963,7 +4963,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -4971,19 +4971,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="42"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="28" t="s">
         <v>295</v>
       </c>
@@ -5053,7 +5053,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="40" t="s">
         <v>311</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5061,19 +5061,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="42"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>315</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -5081,19 +5081,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="35" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="28" t="s">
         <v>317</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>351</v>
       </c>
       <c r="B32" t="s">
@@ -5115,19 +5115,19 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" t="s">
         <v>323</v>
       </c>
@@ -5149,7 +5149,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="39" t="s">
         <v>327</v>
       </c>
       <c r="B38" t="s">
@@ -5157,13 +5157,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="40" t="s">
         <v>330</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5171,13 +5171,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="42"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>333</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -5185,13 +5185,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="28" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>336</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -5199,13 +5199,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="40"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="28" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="40" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5213,13 +5213,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="42"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="40" t="s">
         <v>342</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="42"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="28" t="s">
         <v>344</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="40" t="s">
         <v>352</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="42"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="28" t="s">
         <v>354</v>
       </c>
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="40" t="s">
         <v>357</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5287,7 +5287,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="28" t="s">
         <v>359</v>
       </c>
@@ -5325,7 +5325,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="40" t="s">
         <v>367</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5333,7 +5333,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="42"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="29" t="s">
         <v>369</v>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="40" t="s">
         <v>372</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5355,19 +5355,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="42"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="42"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="40" t="s">
         <v>376</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5375,13 +5375,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="42"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="40" t="s">
         <v>379</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="42"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="29" t="s">
         <v>381</v>
       </c>
@@ -5403,7 +5403,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="40" t="s">
         <v>388</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -5411,13 +5411,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="42"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="40" t="s">
         <v>389</v>
       </c>
       <c r="B75" s="29" t="s">
@@ -5425,13 +5425,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="42"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="29" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="40" t="s">
         <v>400</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5439,7 +5439,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="42"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="29" t="s">
         <v>391</v>
       </c>
@@ -5453,7 +5453,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="40" t="s">
         <v>394</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5461,13 +5461,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="42"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="29" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="40" t="s">
         <v>397</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -5475,7 +5475,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="42"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="29" t="s">
         <v>399</v>
       </c>
@@ -5545,7 +5545,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="42"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="29" t="s">
         <v>421</v>
       </c>
@@ -5591,7 +5591,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="39" t="s">
         <v>430</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -5599,7 +5599,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="40"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="29" t="s">
         <v>432</v>
       </c>
@@ -5669,7 +5669,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="40" t="s">
         <v>450</v>
       </c>
       <c r="B108" s="29" t="s">
@@ -5677,19 +5677,19 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="42"/>
+      <c r="A109" s="40"/>
       <c r="B109" s="29" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="42"/>
+      <c r="A110" s="40"/>
       <c r="B110" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="40" t="s">
         <v>452</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -5697,7 +5697,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="42"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="29" t="s">
         <v>454</v>
       </c>
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="40" t="s">
         <v>461</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -5735,7 +5735,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="42"/>
+      <c r="A117" s="40"/>
       <c r="B117" s="29" t="s">
         <v>463</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="40" t="s">
         <v>466</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5757,7 +5757,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="42"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="29" t="s">
         <v>468</v>
       </c>
@@ -5843,7 +5843,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="40" t="s">
         <v>489</v>
       </c>
       <c r="B131" s="29" t="s">
@@ -5851,13 +5851,34 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="42"/>
+      <c r="A132" s="40"/>
       <c r="B132" s="29" t="s">
         <v>491</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5867,27 +5888,6 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="505">
   <si>
     <t>Topics</t>
   </si>
@@ -2847,6 +2847,21 @@
   </si>
   <si>
     <t xml:space="preserve">Tasks may have properties. Tasks has description, groupId etc default properties. We can define custom properties if we need. </t>
+  </si>
+  <si>
+    <t>Gradle Commands</t>
+  </si>
+  <si>
+    <t>To see available tasks</t>
+  </si>
+  <si>
+    <t>build.gradle-location&gt; gradle tasks</t>
+  </si>
+  <si>
+    <t>To build project</t>
+  </si>
+  <si>
+    <t>build.gradle-location&gt; gradle build</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3043,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3131,6 +3146,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3138,16 +3156,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3526,10 +3544,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3620,10 +3638,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3679,16 +3697,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3739,9 +3757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:A34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3759,16 +3777,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3779,10 +3797,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -3881,16 +3899,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -3989,7 +4007,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3997,7 +4015,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="42"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4051,7 +4069,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4059,13 +4077,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="41"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4073,7 +4091,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4199,7 +4217,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4207,49 +4225,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="41"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="41"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="41"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="41"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="41"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="39" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4257,13 +4275,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="41"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="39" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4271,19 +4289,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="41"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="41"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="41"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4377,7 +4395,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="41" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4385,7 +4403,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="38"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4399,7 +4417,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="42" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4407,13 +4425,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="40"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="41" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4421,13 +4439,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="38"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="38"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4495,7 +4513,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="40" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4503,19 +4521,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="39"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="39"/>
+      <c r="A103" s="40"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="40" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4523,13 +4541,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="39"/>
+      <c r="A105" s="40"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="42" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4537,7 +4555,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="40"/>
+      <c r="A107" s="42"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4567,7 +4585,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="40" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4575,7 +4593,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="39"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4613,10 +4631,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="37"/>
+      <c r="B118" s="38"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4873,6 +4891,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -4889,9 +4910,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4905,11 +4923,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4927,16 +4945,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4963,7 +4981,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -4971,19 +4989,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="28" t="s">
         <v>295</v>
       </c>
@@ -5053,7 +5071,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="42" t="s">
         <v>311</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5061,19 +5079,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="40"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="40"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="42" t="s">
         <v>315</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -5081,19 +5099,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="35" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="28" t="s">
         <v>317</v>
       </c>
@@ -5107,7 +5125,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>351</v>
       </c>
       <c r="B32" t="s">
@@ -5115,19 +5133,19 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" t="s">
         <v>323</v>
       </c>
@@ -5149,7 +5167,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>327</v>
       </c>
       <c r="B38" t="s">
@@ -5157,13 +5175,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="42" t="s">
         <v>330</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5171,13 +5189,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="40"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>333</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -5185,13 +5203,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="39"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="28" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>336</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -5199,13 +5217,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="39"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="28" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="42" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5213,13 +5231,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="40"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="42" t="s">
         <v>342</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5227,7 +5245,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="40"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="28" t="s">
         <v>344</v>
       </c>
@@ -5257,7 +5275,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="42" t="s">
         <v>352</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5265,7 +5283,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="40"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="28" t="s">
         <v>354</v>
       </c>
@@ -5279,7 +5297,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="42" t="s">
         <v>357</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5287,7 +5305,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="40"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="28" t="s">
         <v>359</v>
       </c>
@@ -5325,7 +5343,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="42" t="s">
         <v>367</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5333,7 +5351,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="40"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="29" t="s">
         <v>369</v>
       </c>
@@ -5347,7 +5365,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="42" t="s">
         <v>372</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5355,19 +5373,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="40"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="40"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="42" t="s">
         <v>376</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5375,13 +5393,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="40"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="42" t="s">
         <v>379</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -5389,7 +5407,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="40"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="29" t="s">
         <v>381</v>
       </c>
@@ -5403,7 +5421,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="42" t="s">
         <v>388</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -5411,13 +5429,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="40"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="42" t="s">
         <v>389</v>
       </c>
       <c r="B75" s="29" t="s">
@@ -5425,13 +5443,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="40"/>
+      <c r="A76" s="42"/>
       <c r="B76" s="29" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="42" t="s">
         <v>400</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5439,7 +5457,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="40"/>
+      <c r="A78" s="42"/>
       <c r="B78" s="29" t="s">
         <v>391</v>
       </c>
@@ -5453,7 +5471,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="42" t="s">
         <v>394</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5461,13 +5479,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="40"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="29" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="42" t="s">
         <v>397</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -5475,7 +5493,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="40"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="29" t="s">
         <v>399</v>
       </c>
@@ -5545,7 +5563,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="42" t="s">
         <v>419</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5553,7 +5571,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="40"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="29" t="s">
         <v>421</v>
       </c>
@@ -5591,7 +5609,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="40" t="s">
         <v>430</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -5599,7 +5617,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="39"/>
+      <c r="A99" s="40"/>
       <c r="B99" s="29" t="s">
         <v>432</v>
       </c>
@@ -5669,7 +5687,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="42" t="s">
         <v>450</v>
       </c>
       <c r="B108" s="29" t="s">
@@ -5677,19 +5695,19 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="40"/>
+      <c r="A109" s="42"/>
       <c r="B109" s="29" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="40"/>
+      <c r="A110" s="42"/>
       <c r="B110" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="42" t="s">
         <v>452</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -5697,7 +5715,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="40"/>
+      <c r="A112" s="42"/>
       <c r="B112" s="29" t="s">
         <v>454</v>
       </c>
@@ -5727,7 +5745,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="42" t="s">
         <v>461</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -5735,7 +5753,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="40"/>
+      <c r="A117" s="42"/>
       <c r="B117" s="29" t="s">
         <v>463</v>
       </c>
@@ -5749,7 +5767,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="40" t="s">
+      <c r="A119" s="42" t="s">
         <v>466</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5757,7 +5775,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="40"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="29" t="s">
         <v>468</v>
       </c>
@@ -5843,7 +5861,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="42" t="s">
         <v>489</v>
       </c>
       <c r="B131" s="29" t="s">
@@ -5851,34 +5869,36 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="40"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="29" t="s">
         <v>491</v>
       </c>
     </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="B134" s="38"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
+  <mergeCells count="31">
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
@@ -5888,6 +5908,27 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="545">
   <si>
     <t>Topics</t>
   </si>
@@ -2862,6 +2862,182 @@
   </si>
   <si>
     <t>build.gradle-location&gt; gradle build</t>
+  </si>
+  <si>
+    <t>Make application as java - use this plugin</t>
+  </si>
+  <si>
+    <t>apply plugin: "java"</t>
+  </si>
+  <si>
+    <t>add source directories. defaults to src/main/java, src/test/java. If we want to change we 
+ can do as follows</t>
+  </si>
+  <si>
+    <t>sourceSets{ 
+ main.java.srcDir "src/main/java"
+ test.java.srcDir "src/test/java"
+}</t>
+  </si>
+  <si>
+    <t>To create jar file. To update Main-Class in MANIFEST.MF</t>
+  </si>
+  <si>
+    <t>jar{ 
+ manifest.attributes "Main-Class": "com.gradle.practice.App"
+}</t>
+  </si>
+  <si>
+    <t>class files, jar files etc will be created in "build" folder. build folder in gradle is similar to target folder in maven</t>
+  </si>
+  <si>
+    <t>specify repositories from where to download dependencies</t>
+  </si>
+  <si>
+    <t>repositories{ 
+ mavenCentral()
+}</t>
+  </si>
+  <si>
+    <t>Adding dependencies</t>
+  </si>
+  <si>
+    <t>dependencies{ 
+ compile "junit:junit:4.12"
+}</t>
+  </si>
+  <si>
+    <t>gradle dependencies</t>
+  </si>
+  <si>
+    <t>command to see the list of dependencies and for which phase they are added</t>
+  </si>
+  <si>
+    <t>Another way of declaring dependency</t>
+  </si>
+  <si>
+    <t>compile group: "org.apache.commons", name: "commons-lang3", version: "3.6"</t>
+  </si>
+  <si>
+    <t>multiple dependencies</t>
+  </si>
+  <si>
+    <t>dependencies{ 
+ compile "junit:junit:4.12"
+ compile group: "org.apache.commons", name: "commons-lang3", version: "3.6"
+}</t>
+  </si>
+  <si>
+    <t>To create an executable jar file with all dependencies added to libs of final jar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jar{ 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from configurations.compile.collect{ zipTree it }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ manifest.attributes "Main-Class": "com.gradle.practice.GradlePractice"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>command to remove the build folder</t>
+  </si>
+  <si>
+    <t>Creating task</t>
+  </si>
+  <si>
+    <t>// create task belongs to Greeting group - after creating this task run - gradls tasks
+task greet(group: 'Greeting', description: 'Greeting task')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradle tasks </t>
+  </si>
+  <si>
+    <t>Greeting tasks
+--------------
+greet - Greeting task</t>
+  </si>
+  <si>
+    <t>command to compile src java files</t>
+  </si>
+  <si>
+    <t>gradle compileJava</t>
+  </si>
+  <si>
+    <t>command to compile test java files</t>
+  </si>
+  <si>
+    <t>gradle compileTestJava</t>
+  </si>
+  <si>
+    <t>command to execute jar</t>
+  </si>
+  <si>
+    <t>// To create jar file. To update Main-Class in MANIFEST.MF
+jar{ 
+ // to add all dependencies to final jar to create executable jar file
+ from configurations.compile.collect{ zipTree it }
+ manifest.attributes "Main-Class": "com.gradle.practice.GradlePractice"
+}</t>
+  </si>
+  <si>
+    <t>// gradle task to execute an executable jar
+task runJar(type: Exec, dependsOn: jar){
+ group "Run Jar"
+ description "Task to execute jar"
+ executable 'java'
+ args '-jar', "$jar.archivePath"
+}</t>
+  </si>
+  <si>
+    <t>Command to execute specific class</t>
+  </si>
+  <si>
+    <t>task runClass(type: JavaExec, dependsOn: classes){ 
+ main 'com.gradle.practice.GradlePractice'
+ classpath sourceSets.main.runtimeClasspath
+}</t>
+  </si>
+  <si>
+    <t>Gradle Practice</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/GradlePractice</t>
+  </si>
+  <si>
+    <t>Important Links</t>
+  </si>
+  <si>
+    <t>Gradle DSL</t>
+  </si>
+  <si>
+    <t>https://docs.gradle.org/4.1/dsl/</t>
+  </si>
+  <si>
+    <t>Gradle docs</t>
+  </si>
+  <si>
+    <t>https://gradle.org/docs/</t>
   </si>
 </sst>
 </file>
@@ -3043,7 +3219,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3149,6 +3325,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3156,16 +3338,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3544,10 +3726,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3638,10 +3820,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3697,16 +3879,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3777,16 +3959,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3797,10 +3979,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -3899,16 +4081,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4007,7 +4189,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -4015,7 +4197,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="43"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4069,7 +4251,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4077,13 +4259,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="39"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4091,7 +4273,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="44"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4217,7 +4399,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="44" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4225,49 +4407,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="39"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="39"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="39"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="39"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="44" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4275,13 +4457,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="39"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="44" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4289,19 +4471,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="39"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="39"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="39"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4417,7 +4599,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="43" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4425,7 +4607,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="42"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
@@ -4513,7 +4695,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="40" t="s">
+      <c r="A101" s="42" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4521,19 +4703,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="40"/>
+      <c r="A102" s="42"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="40"/>
+      <c r="A103" s="42"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="42" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4541,13 +4723,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="40"/>
+      <c r="A105" s="42"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="43" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4555,7 +4737,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="42"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4585,7 +4767,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="42" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4593,7 +4775,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="40"/>
+      <c r="A112" s="42"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4631,10 +4813,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="38"/>
+      <c r="B118" s="40"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -4891,9 +5073,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -4910,6 +5089,9 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -4923,11 +5105,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4945,16 +5127,46 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" s="40"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="28" t="s">
@@ -4981,7 +5193,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -4989,19 +5201,19 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="28" t="s">
         <v>295</v>
       </c>
@@ -5071,7 +5283,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="43" t="s">
         <v>311</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5079,19 +5291,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>315</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -5099,19 +5311,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="28" t="s">
         <v>317</v>
       </c>
@@ -5125,7 +5337,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="42" t="s">
         <v>351</v>
       </c>
       <c r="B32" t="s">
@@ -5133,19 +5345,19 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="42"/>
       <c r="B33" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="42"/>
       <c r="B34" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="42"/>
       <c r="B35" t="s">
         <v>323</v>
       </c>
@@ -5167,7 +5379,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="42" t="s">
         <v>327</v>
       </c>
       <c r="B38" t="s">
@@ -5175,13 +5387,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="40"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="43" t="s">
         <v>330</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5189,13 +5401,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="42" t="s">
         <v>333</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -5203,13 +5415,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="40"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="28" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="42" t="s">
         <v>336</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -5217,13 +5429,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="40"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="28" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="43" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5231,13 +5443,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="43" t="s">
         <v>342</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5245,7 +5457,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="28" t="s">
         <v>344</v>
       </c>
@@ -5275,7 +5487,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="43" t="s">
         <v>352</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5283,7 +5495,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="42"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="28" t="s">
         <v>354</v>
       </c>
@@ -5297,7 +5509,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="43" t="s">
         <v>357</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5305,7 +5517,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="42"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="28" t="s">
         <v>359</v>
       </c>
@@ -5343,7 +5555,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="43" t="s">
         <v>367</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5351,7 +5563,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="42"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="29" t="s">
         <v>369</v>
       </c>
@@ -5365,7 +5577,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="43" t="s">
         <v>372</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5373,19 +5585,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="42"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="42"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="43" t="s">
         <v>376</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5393,13 +5605,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="43" t="s">
         <v>379</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -5407,7 +5619,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="29" t="s">
         <v>381</v>
       </c>
@@ -5421,7 +5633,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="43" t="s">
         <v>388</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -5429,13 +5641,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="42"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="43" t="s">
         <v>389</v>
       </c>
       <c r="B75" s="29" t="s">
@@ -5443,13 +5655,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="42"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="29" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="43" t="s">
         <v>400</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5457,7 +5669,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="42"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="29" t="s">
         <v>391</v>
       </c>
@@ -5471,7 +5683,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="43" t="s">
         <v>394</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5479,13 +5691,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="42"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="29" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="43" t="s">
         <v>397</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -5493,7 +5705,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="42"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="29" t="s">
         <v>399</v>
       </c>
@@ -5563,7 +5775,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="43" t="s">
         <v>419</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5571,7 +5783,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="42"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="29" t="s">
         <v>421</v>
       </c>
@@ -5609,7 +5821,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="42" t="s">
         <v>430</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -5617,7 +5829,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="40"/>
+      <c r="A99" s="42"/>
       <c r="B99" s="29" t="s">
         <v>432</v>
       </c>
@@ -5687,7 +5899,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="43" t="s">
         <v>450</v>
       </c>
       <c r="B108" s="29" t="s">
@@ -5695,19 +5907,19 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="42"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="29" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="42"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="43" t="s">
         <v>452</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -5715,7 +5927,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="42"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="29" t="s">
         <v>454</v>
       </c>
@@ -5745,7 +5957,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="43" t="s">
         <v>461</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -5753,7 +5965,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="42"/>
+      <c r="A117" s="43"/>
       <c r="B117" s="29" t="s">
         <v>463</v>
       </c>
@@ -5767,7 +5979,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="43" t="s">
         <v>466</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5775,7 +5987,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="42"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="29" t="s">
         <v>468</v>
       </c>
@@ -5861,7 +6073,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="43" t="s">
         <v>489</v>
       </c>
       <c r="B131" s="29" t="s">
@@ -5869,16 +6081,16 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="42"/>
+      <c r="A132" s="43"/>
       <c r="B132" s="29" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="B134" s="38"/>
+      <c r="B134" s="40"/>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="36" t="s">
@@ -5889,20 +6101,172 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="42" t="s">
         <v>503</v>
       </c>
       <c r="B136" s="27" t="s">
         <v>504</v>
       </c>
     </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="42"/>
+      <c r="B137" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="60">
+      <c r="A139" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="45">
+      <c r="A140" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="45">
+      <c r="A141" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="45">
+      <c r="A142" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="60">
+      <c r="A144" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30">
+      <c r="A145" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="60">
+      <c r="A146" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="B146" s="37" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="B147" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30">
+      <c r="A148" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="45">
+      <c r="A149" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="90">
+      <c r="A152" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="120">
+      <c r="A153" s="42"/>
+      <c r="B153" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="60">
+      <c r="A154" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A134:B134"/>
+  <mergeCells count="34">
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
@@ -5913,28 +6277,22 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A136:A137"/>
     <mergeCell ref="A131:A132"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A134:B134"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -2258,9 +2258,6 @@
 This is Task9 -&gt; doLast : 2.0</t>
   </si>
   <si>
-    <t>declare variable across my project, means across multiple build.gradle files</t>
-  </si>
-  <si>
     <t>way 1:
 project.ext.projectVersion = "2.0"
 task Task9{
@@ -3038,6 +3035,9 @@
   </si>
   <si>
     <t>https://gradle.org/docs/</t>
+  </si>
+  <si>
+    <t>declare variable across many projects, means across multiple build.gradle files</t>
   </si>
 </sst>
 </file>
@@ -3338,16 +3338,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3979,10 +3979,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -4081,16 +4081,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4189,7 +4189,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -4251,7 +4251,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="41" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="44"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
@@ -4399,7 +4399,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="41" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4407,49 +4407,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="44"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="44"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="44"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="44"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="44"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="44"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="41" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4457,13 +4457,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="44"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="41" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4471,19 +4471,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="44"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="44"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="43" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4585,7 +4585,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="41"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4599,7 +4599,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4607,13 +4607,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="43"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="43" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4621,13 +4621,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="41"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="41"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4729,7 +4729,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="44" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4737,7 +4737,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="43"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -5059,20 +5059,23 @@
     </row>
     <row r="150" spans="1:2" ht="30" customHeight="1">
       <c r="A150" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B150" t="s">
         <v>495</v>
-      </c>
-      <c r="B150" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="34"/>
       <c r="B151" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -5089,9 +5092,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5108,8 +5108,8 @@
   <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5134,32 +5134,32 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5193,27 +5193,27 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="28" t="s">
         <v>295</v>
       </c>
@@ -5276,14 +5276,14 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>311</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -5291,39 +5291,39 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="43"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="43"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>315</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="28" t="s">
         <v>317</v>
       </c>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="37" spans="1:2" ht="90">
       <c r="A37" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>326</v>
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>330</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -5401,7 +5401,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="28" t="s">
         <v>332</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="44" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -5443,13 +5443,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="44" t="s">
         <v>342</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -5457,7 +5457,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="28" t="s">
         <v>344</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="44" t="s">
         <v>352</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -5495,7 +5495,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="90">
-      <c r="A54" s="43"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="28" t="s">
         <v>354</v>
       </c>
@@ -5509,7 +5509,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="44" t="s">
         <v>357</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -5517,7 +5517,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="43"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="28" t="s">
         <v>359</v>
       </c>
@@ -5555,7 +5555,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="44" t="s">
         <v>367</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="43"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="29" t="s">
         <v>369</v>
       </c>
@@ -5577,7 +5577,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="44" t="s">
         <v>372</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -5585,19 +5585,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="43"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="43"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="44" t="s">
         <v>376</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -5605,590 +5605,590 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="43"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="B70" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="B70" s="29" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="105">
+      <c r="A71" s="44"/>
+      <c r="B71" s="29" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="43"/>
-      <c r="B71" s="29" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
       <c r="A72" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B72" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B72" s="29" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="135">
+      <c r="A73" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="43" t="s">
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="44"/>
+      <c r="B74" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="135">
+      <c r="A75" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="43"/>
-      <c r="B74" s="29" t="s">
+      <c r="B75" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="44"/>
+      <c r="B76" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="43" t="s">
+    <row r="77" spans="1:2" ht="135">
+      <c r="A77" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="B75" s="29" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="43"/>
-      <c r="B76" s="29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="B77" s="29" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="44"/>
+      <c r="B78" s="29" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="43"/>
-      <c r="B78" s="29" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="B79" s="29" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="43" t="s">
+      <c r="B80" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="29" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="240">
+      <c r="A81" s="44"/>
+      <c r="B81" s="29" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="43"/>
-      <c r="B81" s="29" t="s">
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="44" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="43" t="s">
+      <c r="B82" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="29" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="44"/>
+      <c r="B83" s="29" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="43"/>
-      <c r="B83" s="29" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>405</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B86" s="29" t="s">
         <v>407</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="60">
       <c r="A87" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
       <c r="A88" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75">
       <c r="A89" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="B89" s="29" t="s">
         <v>413</v>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="135">
       <c r="A90" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="B90" s="29" t="s">
         <v>415</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="165">
       <c r="A91" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="180">
+      <c r="A92" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="43" t="s">
+      <c r="B92" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="B92" s="29" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="165">
+      <c r="A93" s="44"/>
+      <c r="B93" s="29" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="43"/>
-      <c r="B93" s="29" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="120">
       <c r="A94" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="B94" s="29" t="s">
         <v>422</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
       <c r="A95" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>424</v>
-      </c>
-      <c r="B95" s="29" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
       <c r="A96" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B96" s="29" t="s">
         <v>426</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="150">
       <c r="A97" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B97" s="29" t="s">
         <v>428</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="B98" s="29" t="s">
         <v>430</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="42"/>
       <c r="B99" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
       <c r="A100" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="B101" s="29" t="s">
         <v>434</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30">
       <c r="A102" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="B102" s="29" t="s">
         <v>436</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B103" s="29" t="s">
         <v>438</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60">
       <c r="A104" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" s="29" t="s">
         <v>440</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="29" t="s">
         <v>442</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="165">
       <c r="A106" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="45">
       <c r="A107" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="B107" s="29" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="30">
+      <c r="A108" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B108" s="29" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="43" t="s">
+    <row r="109" spans="1:2" ht="180">
+      <c r="A109" s="44"/>
+      <c r="B109" s="29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="44"/>
+      <c r="B110" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="43"/>
-      <c r="B109" s="29" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="43"/>
-      <c r="B110" s="29" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="44" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="43" t="s">
+      <c r="B111" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="B111" s="29" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="75">
+      <c r="A112" s="44"/>
+      <c r="B112" s="29" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="43"/>
-      <c r="B112" s="29" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="B114" s="29" t="s">
         <v>457</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B115" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="B115" s="29" t="s">
+    </row>
+    <row r="116" spans="1:2" ht="45">
+      <c r="A116" s="44" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="43" t="s">
+      <c r="B116" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="B116" s="29" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="45">
+      <c r="A117" s="44"/>
+      <c r="B117" s="29" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="43"/>
-      <c r="B117" s="29" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="75">
       <c r="A118" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="44" t="s">
         <v>465</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="43" t="s">
+      <c r="B119" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="B119" s="29" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="90">
+      <c r="A120" s="44"/>
+      <c r="B120" s="29" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="43"/>
-      <c r="B120" s="29" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="45">
       <c r="A121" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B121" s="29" t="s">
         <v>469</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B122" s="29" t="s">
         <v>471</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" s="29" t="s">
         <v>473</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="90">
       <c r="A124" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" s="29" t="s">
         <v>475</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90">
       <c r="A125" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B125" s="29" t="s">
         <v>477</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B126" s="29" t="s">
         <v>479</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30">
       <c r="A128" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B128" s="29" t="s">
         <v>483</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B129" s="29" t="s">
         <v>485</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="B130" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="B130" s="29" t="s">
+    </row>
+    <row r="131" spans="1:2" ht="45">
+      <c r="A131" s="44" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="43" t="s">
+      <c r="B131" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="B131" s="29" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="44"/>
+      <c r="B132" s="29" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="43"/>
-      <c r="B132" s="29" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B134" s="40"/>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="B135" s="27" t="s">
         <v>501</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="B136" s="27" t="s">
         <v>503</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="42"/>
       <c r="B137" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B138" s="27" t="s">
         <v>505</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="60">
       <c r="A139" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B139" s="37" t="s">
         <v>507</v>
-      </c>
-      <c r="B139" s="37" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="45">
       <c r="A140" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="B140" s="37" t="s">
         <v>509</v>
-      </c>
-      <c r="B140" s="37" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="45">
       <c r="A141" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="B141" s="37" t="s">
         <v>512</v>
-      </c>
-      <c r="B141" s="37" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="45">
       <c r="A142" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="B142" s="37" t="s">
         <v>514</v>
-      </c>
-      <c r="B142" s="37" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B143" s="37" t="s">
         <v>518</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="60">
       <c r="A144" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="B144" s="37" t="s">
         <v>520</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="30">
       <c r="A145" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="60">
       <c r="A146" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="B146" s="37" t="s">
         <v>522</v>
-      </c>
-      <c r="B146" s="37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B147" s="37" t="s">
         <v>305</v>
@@ -6196,60 +6196,78 @@
     </row>
     <row r="148" spans="1:2" ht="30">
       <c r="A148" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B148" s="38" t="s">
         <v>525</v>
-      </c>
-      <c r="B148" s="38" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="45">
       <c r="A149" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="B149" s="38" t="s">
         <v>527</v>
-      </c>
-      <c r="B149" s="38" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="B150" s="38" t="s">
         <v>529</v>
-      </c>
-      <c r="B150" s="38" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="B151" s="38" t="s">
         <v>531</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="90">
       <c r="A152" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="B152" s="38" t="s">
         <v>533</v>
-      </c>
-      <c r="B152" s="38" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="120">
       <c r="A153" s="42"/>
       <c r="B153" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="60">
       <c r="A154" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B154" s="38" t="s">
         <v>536</v>
-      </c>
-      <c r="B154" s="38" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A152:A153"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A77:A78"/>
@@ -6266,24 +6284,6 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A134:B134"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -2867,10 +2867,6 @@
     <t>apply plugin: "java"</t>
   </si>
   <si>
-    <t>add source directories. defaults to src/main/java, src/test/java. If we want to change we 
- can do as follows</t>
-  </si>
-  <si>
     <t>sourceSets{ 
  main.java.srcDir "src/main/java"
  test.java.srcDir "src/test/java"
@@ -3038,6 +3034,9 @@
   </si>
   <si>
     <t>declare variable across many projects, means across multiple build.gradle files</t>
+  </si>
+  <si>
+    <t>add source directories. defaults to src/main/java, src/test/java. If we want to change we can do as follows</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3218,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3331,6 +3330,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3338,16 +3340,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3726,10 +3728,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3820,10 +3822,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3879,16 +3881,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3959,16 +3961,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3979,10 +3981,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -4081,16 +4083,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="45"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="45"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4197,7 +4199,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4251,7 +4253,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4259,13 +4261,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="41"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4273,7 +4275,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="46"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4399,7 +4401,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="45" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4407,49 +4409,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="41"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="41"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="41"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="41"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="41"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="45" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4457,13 +4459,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="41"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="45" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4471,19 +4473,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="41"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="41"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="41"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4577,7 +4579,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="42" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4585,7 +4587,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="43"/>
+      <c r="A86" s="42"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4613,7 +4615,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4621,13 +4623,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="43"/>
+      <c r="A91" s="42"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="43"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4695,7 +4697,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="43" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4703,19 +4705,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="42"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="42"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="43" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4723,7 +4725,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="42"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
@@ -4767,7 +4769,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="43" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4775,7 +4777,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="42"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4813,10 +4815,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="40"/>
+      <c r="B118" s="41"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -5073,9 +5075,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -5092,6 +5091,9 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5105,11 +5107,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5127,1163 +5129,1163 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="40" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="90">
+      <c r="A29" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="120">
+      <c r="A30" s="43"/>
+      <c r="B30" s="38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="28" t="s">
+      <c r="B33" s="41"/>
+    </row>
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B34" s="28" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="165">
-      <c r="A10" s="28" t="s">
+    <row r="35" spans="1:2" ht="165">
+      <c r="A35" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B35" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B36" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="44" t="s">
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B37" s="35" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="44"/>
-      <c r="B13" s="28" t="s">
+    <row r="38" spans="1:2" ht="120">
+      <c r="A38" s="44"/>
+      <c r="B38" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="28" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="44"/>
+      <c r="B39" s="28" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="44"/>
-      <c r="B15" s="28" t="s">
+    <row r="40" spans="1:2" ht="105">
+      <c r="A40" s="44"/>
+      <c r="B40" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="28" t="s">
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B41" s="28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="28" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="28" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="28" t="s">
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="28" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B45" s="28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="28" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B47" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B48" s="29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="44" t="s">
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B49" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="44"/>
-      <c r="B25" s="28" t="s">
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="44"/>
+      <c r="B50" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="44"/>
-      <c r="B26" s="28" t="s">
+    <row r="51" spans="1:2" ht="75">
+      <c r="A51" s="44"/>
+      <c r="B51" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="44" t="s">
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B52" s="31" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="35" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="44"/>
+      <c r="B53" s="35" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="42"/>
-      <c r="B33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="42"/>
-      <c r="B34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="42"/>
-      <c r="B35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="90">
-      <c r="A37" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="B38" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="42"/>
-      <c r="B39" s="28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="165">
-      <c r="A40" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="44"/>
-      <c r="B41" s="28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="135">
-      <c r="A43" s="42"/>
-      <c r="B43" s="28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="42"/>
-      <c r="B45" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="90">
-      <c r="A47" s="44"/>
-      <c r="B47" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="44"/>
-      <c r="B49" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="135">
-      <c r="A53" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="90">
+    <row r="54" spans="1:2">
       <c r="A54" s="44"/>
       <c r="B54" s="28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="43"/>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="43"/>
+      <c r="B59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="43"/>
+      <c r="B60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90">
+      <c r="A62" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="90">
+      <c r="A64" s="43"/>
+      <c r="B64" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="165">
+      <c r="A65" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="120">
+      <c r="A66" s="44"/>
+      <c r="B66" s="28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="135">
+      <c r="A68" s="43"/>
+      <c r="B68" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="75">
+      <c r="A69" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="43"/>
+      <c r="B70" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="165">
+      <c r="A71" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="90">
+      <c r="A72" s="44"/>
+      <c r="B72" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90">
+      <c r="A73" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="75">
+      <c r="A74" s="44"/>
+      <c r="B74" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="135">
+      <c r="A78" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="90">
+      <c r="A79" s="44"/>
+      <c r="B79" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="28" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B80" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="195">
-      <c r="A56" s="44" t="s">
+    <row r="81" spans="1:2" ht="195">
+      <c r="A81" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B81" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105">
-      <c r="A57" s="44"/>
-      <c r="B57" s="28" t="s">
+    <row r="82" spans="1:2" ht="105">
+      <c r="A82" s="44"/>
+      <c r="B82" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="29" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B83" s="29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="90">
-      <c r="A59" s="29" t="s">
+    <row r="84" spans="1:2" ht="90">
+      <c r="A84" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B84" s="29" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="105">
-      <c r="A60" s="29" t="s">
+    <row r="85" spans="1:2" ht="105">
+      <c r="A85" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B85" s="29" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="29" t="s">
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B86" s="29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="44" t="s">
+    <row r="87" spans="1:2" ht="45">
+      <c r="A87" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B87" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="44"/>
-      <c r="B63" s="29" t="s">
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="44"/>
+      <c r="B88" s="29" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="105">
-      <c r="A65" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="44"/>
-      <c r="B66" s="29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="44"/>
-      <c r="B67" s="29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="90">
-      <c r="A68" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="44"/>
-      <c r="B69" s="29" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="105">
-      <c r="A70" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="105">
-      <c r="A71" s="44"/>
-      <c r="B71" s="29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="44"/>
-      <c r="B74" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="44"/>
-      <c r="B76" s="29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="44"/>
-      <c r="B78" s="29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="240">
-      <c r="A81" s="44"/>
-      <c r="B81" s="29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="75">
-      <c r="A82" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="44"/>
-      <c r="B83" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="60">
-      <c r="A87" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75">
       <c r="A89" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="105">
+      <c r="A90" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60">
+      <c r="A91" s="44"/>
+      <c r="B91" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="60">
+      <c r="A92" s="44"/>
+      <c r="B92" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="90">
+      <c r="A93" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30">
+      <c r="A94" s="44"/>
+      <c r="B94" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="105">
+      <c r="A95" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="105">
+      <c r="A96" s="44"/>
+      <c r="B96" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="45">
+      <c r="A97" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="135">
+      <c r="A98" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45">
+      <c r="A99" s="44"/>
+      <c r="B99" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="135">
+      <c r="A100" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="44"/>
+      <c r="B101" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="135">
+      <c r="A102" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45">
+      <c r="A103" s="44"/>
+      <c r="B103" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30">
+      <c r="A104" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="75">
+      <c r="A105" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="240">
+      <c r="A106" s="44"/>
+      <c r="B106" s="29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="75">
+      <c r="A107" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="75">
+      <c r="A108" s="44"/>
+      <c r="B108" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="60">
+      <c r="A112" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="75">
+      <c r="A113" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="75">
+      <c r="A114" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B114" s="29" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="135">
-      <c r="A90" s="29" t="s">
+    <row r="115" spans="1:2" ht="135">
+      <c r="A115" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B115" s="29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="165">
-      <c r="A91" s="29" t="s">
+    <row r="116" spans="1:2" ht="165">
+      <c r="A116" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B116" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="180">
-      <c r="A92" s="44" t="s">
+    <row r="117" spans="1:2" ht="180">
+      <c r="A117" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B117" s="29" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="165">
-      <c r="A93" s="44"/>
-      <c r="B93" s="29" t="s">
+    <row r="118" spans="1:2" ht="165">
+      <c r="A118" s="44"/>
+      <c r="B118" s="29" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="120">
-      <c r="A94" s="29" t="s">
+    <row r="119" spans="1:2" ht="120">
+      <c r="A119" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B119" s="29" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30">
-      <c r="A95" s="29" t="s">
+    <row r="120" spans="1:2" ht="30">
+      <c r="A120" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B120" s="29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="29" t="s">
+    <row r="121" spans="1:2" ht="30">
+      <c r="A121" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B121" s="29" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="150">
-      <c r="A97" s="29" t="s">
+    <row r="122" spans="1:2" ht="150">
+      <c r="A122" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B122" s="29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="42" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B123" s="29" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="42"/>
-      <c r="B99" s="29" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="43"/>
+      <c r="B124" s="29" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="29" t="s">
+    <row r="125" spans="1:2" ht="30">
+      <c r="A125" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B125" s="31" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="30">
-      <c r="A102" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="60">
-      <c r="A104" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="165">
-      <c r="A106" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="45">
-      <c r="A107" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="180">
-      <c r="A109" s="44"/>
-      <c r="B109" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="44"/>
-      <c r="B110" s="29" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="44"/>
-      <c r="B112" s="29" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="44"/>
-      <c r="B117" s="29" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="75">
-      <c r="A118" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="30">
-      <c r="A119" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="90">
-      <c r="A120" s="44"/>
-      <c r="B120" s="29" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="45">
-      <c r="A121" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="90">
-      <c r="A124" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="90">
-      <c r="A125" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="29" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30">
       <c r="A127" s="29" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="30">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" s="29" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="60">
       <c r="A129" s="29" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="165">
+      <c r="A131" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="45">
+      <c r="A132" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30">
+      <c r="A133" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="180">
+      <c r="A134" s="44"/>
+      <c r="B134" s="29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30">
+      <c r="A135" s="44"/>
+      <c r="B135" s="29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="75">
+      <c r="A136" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="B136" s="29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="75">
+      <c r="A137" s="44"/>
+      <c r="B137" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="45">
+      <c r="A141" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="45">
+      <c r="A142" s="44"/>
+      <c r="B142" s="29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="75">
+      <c r="A143" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30">
+      <c r="A144" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="90">
+      <c r="A145" s="44"/>
+      <c r="B145" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="45">
+      <c r="A146" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="90">
+      <c r="A149" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="90">
+      <c r="A150" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="30">
+      <c r="A153" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B155" s="29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="44" t="s">
+    <row r="156" spans="1:2" ht="45">
+      <c r="A156" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B156" s="29" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="44"/>
-      <c r="B132" s="29" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="44"/>
+      <c r="B157" s="29" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="B134" s="40"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="42"/>
-      <c r="B137" s="27" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="60">
-      <c r="A139" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="B139" s="37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="45">
-      <c r="A140" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="B140" s="37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="45">
-      <c r="A141" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="B141" s="37" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="45">
-      <c r="A142" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="B142" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="60">
-      <c r="A144" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="30">
-      <c r="A145" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="B145" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="60">
-      <c r="A146" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="B146" s="37" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="B147" s="37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="30">
-      <c r="A148" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="B148" s="38" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="45">
-      <c r="A149" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="B149" s="38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="B150" s="38" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="90">
-      <c r="A152" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="B152" s="38" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="120">
-      <c r="A153" s="42"/>
-      <c r="B153" s="38" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="60">
-      <c r="A154" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="B154" s="38" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="547">
   <si>
     <t>Topics</t>
   </si>
@@ -3037,6 +3037,12 @@
   </si>
   <si>
     <t>add source directories. defaults to src/main/java, src/test/java. If we want to change we can do as follows</t>
+  </si>
+  <si>
+    <t>Sample Gradle file</t>
+  </si>
+  <si>
+    <t>images/gradle/sample-gradle.txt</t>
   </si>
 </sst>
 </file>
@@ -3218,7 +3224,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3333,6 +3339,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3340,16 +3349,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3728,10 +3737,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3822,10 +3831,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3881,16 +3890,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3961,16 +3970,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3981,10 +3990,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -4083,16 +4092,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="43"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4191,7 +4200,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -4199,7 +4208,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4253,7 +4262,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4261,13 +4270,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4275,7 +4284,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4401,7 +4410,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4409,49 +4418,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="45"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="45"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="45"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="45"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="45"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="45"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="45"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="43" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4459,13 +4468,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="45"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="43" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4473,19 +4482,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="45"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="45"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="45"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4579,7 +4588,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="45" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4587,7 +4596,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="42"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4601,7 +4610,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="46" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4609,13 +4618,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="44"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="45" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4623,13 +4632,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="42"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="42"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4697,7 +4706,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="43" t="s">
+      <c r="A101" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4705,19 +4714,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="43"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="43"/>
+      <c r="A103" s="44"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="44" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4725,13 +4734,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="43"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="44" t="s">
+      <c r="A106" s="46" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4739,7 +4748,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="44"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4769,7 +4778,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="43" t="s">
+      <c r="A111" s="44" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4777,7 +4786,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="43"/>
+      <c r="A112" s="44"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -4815,10 +4824,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="41"/>
+      <c r="B118" s="42"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -5075,6 +5084,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -5091,9 +5103,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5107,11 +5116,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5129,10 +5138,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="38" t="s">
@@ -5142,1157 +5151,1169 @@
         <v>537</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="B5" s="41"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="B7" s="42"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="B11" s="41"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="36" t="s">
+      <c r="B13" s="42"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="43" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B15" s="27" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="27" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="27" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B17" s="27" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="39" t="s">
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B18" s="37" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="37" t="s">
-        <v>507</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B21" s="37" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B22" s="37" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B25" s="37" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="37" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B26" s="37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="38" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B27" s="38" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="38" t="s">
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B28" s="38" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="38" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B29" s="38" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="38" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B30" s="38" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="90">
-      <c r="A29" s="43" t="s">
+    <row r="31" spans="1:2" ht="90">
+      <c r="A31" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B31" s="38" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="120">
-      <c r="A30" s="43"/>
-      <c r="B30" s="38" t="s">
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" s="44"/>
+      <c r="B32" s="38" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="38" t="s">
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B33" s="38" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="40" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="41"/>
-    </row>
-    <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="28" t="s">
+      <c r="B35" s="42"/>
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B36" s="28" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="165">
-      <c r="A35" s="28" t="s">
+    <row r="37" spans="1:2" ht="165">
+      <c r="A37" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B37" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="28" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="44" t="s">
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B39" s="35" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="44"/>
-      <c r="B38" s="28" t="s">
+    <row r="40" spans="1:2" ht="120">
+      <c r="A40" s="46"/>
+      <c r="B40" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="28" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="46"/>
+      <c r="B41" s="28" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="105">
-      <c r="A40" s="44"/>
-      <c r="B40" s="28" t="s">
+    <row r="42" spans="1:2" ht="105">
+      <c r="A42" s="46"/>
+      <c r="B42" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="28" t="s">
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="28" t="s">
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="75">
       <c r="A46" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B49" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="29" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B50" s="29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="44" t="s">
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B51" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="44"/>
-      <c r="B50" s="28" t="s">
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="46"/>
+      <c r="B52" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="44"/>
-      <c r="B51" s="28" t="s">
+    <row r="53" spans="1:2" ht="75">
+      <c r="A53" s="46"/>
+      <c r="B53" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="44" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B54" s="31" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="35" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="35" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="28" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="28" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="46"/>
+      <c r="B57" s="28" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="28" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B58" s="28" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="43" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="43"/>
-      <c r="B58" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="44"/>
+      <c r="B60" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="43"/>
-      <c r="B59" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="44"/>
+      <c r="B61" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="43"/>
-      <c r="B60" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="44"/>
+      <c r="B62" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="28" t="s">
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="31" t="s">
+    <row r="64" spans="1:2" ht="90">
+      <c r="A64" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B64" s="28" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="43" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="90">
-      <c r="A64" s="43"/>
-      <c r="B64" s="28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="165">
-      <c r="A65" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="120">
+    <row r="66" spans="1:2" ht="90">
       <c r="A66" s="44"/>
       <c r="B66" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="165">
+      <c r="A67" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="120">
+      <c r="A68" s="46"/>
+      <c r="B68" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="43" t="s">
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B69" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="135">
-      <c r="A68" s="43"/>
-      <c r="B68" s="28" t="s">
+    <row r="70" spans="1:2" ht="135">
+      <c r="A70" s="44"/>
+      <c r="B70" s="28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="75">
-      <c r="A69" s="43" t="s">
+    <row r="71" spans="1:2" ht="75">
+      <c r="A71" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B71" s="28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="43"/>
-      <c r="B70" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="165">
-      <c r="A71" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="90">
+    <row r="72" spans="1:2" ht="45">
       <c r="A72" s="44"/>
       <c r="B72" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="165">
+      <c r="A73" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="90">
+      <c r="A74" s="46"/>
+      <c r="B74" s="28" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90">
-      <c r="A73" s="44" t="s">
+    <row r="75" spans="1:2" ht="90">
+      <c r="A75" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B75" s="28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="75">
-      <c r="A74" s="44"/>
-      <c r="B74" s="28" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="46"/>
+      <c r="B76" s="28" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B79" s="28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="135">
-      <c r="A78" s="44" t="s">
+    <row r="80" spans="1:2" ht="135">
+      <c r="A80" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B80" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="90">
-      <c r="A79" s="44"/>
-      <c r="B79" s="28" t="s">
+    <row r="81" spans="1:2" ht="90">
+      <c r="A81" s="46"/>
+      <c r="B81" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="28" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B82" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="195">
-      <c r="A81" s="44" t="s">
+    <row r="83" spans="1:2" ht="195">
+      <c r="A83" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B83" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105">
-      <c r="A82" s="44"/>
-      <c r="B82" s="28" t="s">
+    <row r="84" spans="1:2" ht="105">
+      <c r="A84" s="46"/>
+      <c r="B84" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="29" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B85" s="29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="90">
-      <c r="A84" s="29" t="s">
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B86" s="29" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="105">
-      <c r="A85" s="29" t="s">
+    <row r="87" spans="1:2" ht="105">
+      <c r="A87" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B87" s="29" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="29" t="s">
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B88" s="29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="45">
-      <c r="A87" s="44" t="s">
+    <row r="89" spans="1:2" ht="45">
+      <c r="A89" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B89" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="44"/>
-      <c r="B88" s="29" t="s">
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="46"/>
+      <c r="B90" s="29" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="75">
-      <c r="A89" s="29" t="s">
+    <row r="91" spans="1:2" ht="75">
+      <c r="A91" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B91" s="29" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="105">
-      <c r="A90" s="44" t="s">
+    <row r="92" spans="1:2" ht="105">
+      <c r="A92" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B92" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="60">
-      <c r="A91" s="44"/>
-      <c r="B91" s="29" t="s">
+    <row r="93" spans="1:2" ht="60">
+      <c r="A93" s="46"/>
+      <c r="B93" s="29" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="44"/>
-      <c r="B92" s="29" t="s">
+    <row r="94" spans="1:2" ht="60">
+      <c r="A94" s="46"/>
+      <c r="B94" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="90">
-      <c r="A93" s="44" t="s">
+    <row r="95" spans="1:2" ht="90">
+      <c r="A95" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B95" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30">
-      <c r="A94" s="44"/>
-      <c r="B94" s="29" t="s">
+    <row r="96" spans="1:2" ht="30">
+      <c r="A96" s="46"/>
+      <c r="B96" s="29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="105">
-      <c r="A95" s="44" t="s">
+    <row r="97" spans="1:2" ht="105">
+      <c r="A97" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B97" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="105">
-      <c r="A96" s="44"/>
-      <c r="B96" s="29" t="s">
+    <row r="98" spans="1:2" ht="105">
+      <c r="A98" s="46"/>
+      <c r="B98" s="29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45">
-      <c r="A97" s="29" t="s">
+    <row r="99" spans="1:2" ht="45">
+      <c r="A99" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B99" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="135">
-      <c r="A98" s="44" t="s">
+    <row r="100" spans="1:2" ht="135">
+      <c r="A100" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B100" s="29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="45">
-      <c r="A99" s="44"/>
-      <c r="B99" s="29" t="s">
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="46"/>
+      <c r="B101" s="29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="135">
-      <c r="A100" s="44" t="s">
+    <row r="102" spans="1:2" ht="135">
+      <c r="A102" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B102" s="29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="45">
-      <c r="A101" s="44"/>
-      <c r="B101" s="29" t="s">
+    <row r="103" spans="1:2" ht="45">
+      <c r="A103" s="46"/>
+      <c r="B103" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="135">
-      <c r="A102" s="44" t="s">
+    <row r="104" spans="1:2" ht="135">
+      <c r="A104" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B104" s="29" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="44"/>
-      <c r="B103" s="29" t="s">
+    <row r="105" spans="1:2" ht="45">
+      <c r="A105" s="46"/>
+      <c r="B105" s="29" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30">
-      <c r="A104" s="29" t="s">
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B106" s="29" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="75">
-      <c r="A105" s="44" t="s">
+    <row r="107" spans="1:2" ht="75">
+      <c r="A107" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B107" s="29" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="240">
-      <c r="A106" s="44"/>
-      <c r="B106" s="29" t="s">
+    <row r="108" spans="1:2" ht="240">
+      <c r="A108" s="46"/>
+      <c r="B108" s="29" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="75">
-      <c r="A107" s="44" t="s">
+    <row r="109" spans="1:2" ht="75">
+      <c r="A109" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B109" s="29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="44"/>
-      <c r="B108" s="29" t="s">
+    <row r="110" spans="1:2" ht="75">
+      <c r="A110" s="46"/>
+      <c r="B110" s="29" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B113" s="29" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="60">
-      <c r="A112" s="29" t="s">
+    <row r="114" spans="1:2" ht="60">
+      <c r="A114" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B114" s="29" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="75">
-      <c r="A113" s="29" t="s">
+    <row r="115" spans="1:2" ht="75">
+      <c r="A115" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B115" s="29" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="75">
-      <c r="A114" s="29" t="s">
+    <row r="116" spans="1:2" ht="75">
+      <c r="A116" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B116" s="29" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="135">
-      <c r="A115" s="29" t="s">
+    <row r="117" spans="1:2" ht="135">
+      <c r="A117" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B117" s="29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="165">
-      <c r="A116" s="29" t="s">
+    <row r="118" spans="1:2" ht="165">
+      <c r="A118" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B118" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="180">
-      <c r="A117" s="44" t="s">
+    <row r="119" spans="1:2" ht="180">
+      <c r="A119" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B119" s="29" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="165">
-      <c r="A118" s="44"/>
-      <c r="B118" s="29" t="s">
+    <row r="120" spans="1:2" ht="165">
+      <c r="A120" s="46"/>
+      <c r="B120" s="29" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="120">
-      <c r="A119" s="29" t="s">
+    <row r="121" spans="1:2" ht="120">
+      <c r="A121" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B121" s="29" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30">
-      <c r="A120" s="29" t="s">
+    <row r="122" spans="1:2" ht="30">
+      <c r="A122" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B122" s="29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30">
-      <c r="A121" s="29" t="s">
+    <row r="123" spans="1:2" ht="30">
+      <c r="A123" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B123" s="29" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="150">
-      <c r="A122" s="29" t="s">
+    <row r="124" spans="1:2" ht="150">
+      <c r="A124" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B124" s="29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="43" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B125" s="29" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="43"/>
-      <c r="B124" s="29" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="44"/>
+      <c r="B126" s="29" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="30">
-      <c r="A125" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30">
       <c r="A127" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="29" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="60">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30">
       <c r="A129" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="60">
+      <c r="A131" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B132" s="29" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="165">
-      <c r="A131" s="29" t="s">
+    <row r="133" spans="1:2" ht="165">
+      <c r="A133" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B133" s="29" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45">
-      <c r="A132" s="29" t="s">
+    <row r="134" spans="1:2" ht="45">
+      <c r="A134" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B134" s="29" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30">
-      <c r="A133" s="44" t="s">
+    <row r="135" spans="1:2" ht="30">
+      <c r="A135" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B135" s="29" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="180">
-      <c r="A134" s="44"/>
-      <c r="B134" s="29" t="s">
+    <row r="136" spans="1:2" ht="180">
+      <c r="A136" s="46"/>
+      <c r="B136" s="29" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30">
-      <c r="A135" s="44"/>
-      <c r="B135" s="29" t="s">
+    <row r="137" spans="1:2" ht="30">
+      <c r="A137" s="46"/>
+      <c r="B137" s="29" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="75">
-      <c r="A136" s="44" t="s">
+    <row r="138" spans="1:2" ht="75">
+      <c r="A138" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="B138" s="29" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="75">
-      <c r="A137" s="44"/>
-      <c r="B137" s="29" t="s">
+    <row r="139" spans="1:2" ht="75">
+      <c r="A139" s="46"/>
+      <c r="B139" s="29" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="B138" s="29" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="B142" s="29" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="45">
-      <c r="A141" s="44" t="s">
+    <row r="143" spans="1:2" ht="45">
+      <c r="A143" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B143" s="29" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="45">
-      <c r="A142" s="44"/>
-      <c r="B142" s="29" t="s">
+    <row r="144" spans="1:2" ht="45">
+      <c r="A144" s="46"/>
+      <c r="B144" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="75">
-      <c r="A143" s="30" t="s">
+    <row r="145" spans="1:2" ht="75">
+      <c r="A145" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B145" s="29" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30">
-      <c r="A144" s="44" t="s">
+    <row r="146" spans="1:2" ht="30">
+      <c r="A146" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B146" s="29" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="90">
-      <c r="A145" s="44"/>
-      <c r="B145" s="29" t="s">
+    <row r="147" spans="1:2" ht="90">
+      <c r="A147" s="46"/>
+      <c r="B147" s="29" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="45">
-      <c r="A146" s="29" t="s">
+    <row r="148" spans="1:2" ht="45">
+      <c r="A148" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="B146" s="29" t="s">
+      <c r="B148" s="29" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="29" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B149" s="29" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="29" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B150" s="29" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="90">
-      <c r="A149" s="29" t="s">
+    <row r="151" spans="1:2" ht="90">
+      <c r="A151" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="B151" s="29" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="90">
-      <c r="A150" s="29" t="s">
+    <row r="152" spans="1:2" ht="90">
+      <c r="A152" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B152" s="29" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="29" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B153" s="29" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="30">
-      <c r="A153" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="30">
+      <c r="A155" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B156" s="29" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="29" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="B155" s="29" t="s">
+      <c r="B157" s="29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="45">
-      <c r="A156" s="44" t="s">
+    <row r="158" spans="1:2" ht="45">
+      <c r="A158" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B158" s="29" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="44"/>
-      <c r="B157" s="29" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="46"/>
+      <c r="B159" s="29" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A104:A105"/>
     <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A109:A110"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -3348,6 +3348,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3362,9 +3365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3990,10 +3990,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -4092,16 +4092,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4200,7 +4200,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -4208,7 +4208,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4270,13 +4270,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="43" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4284,7 +4284,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="44" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4418,49 +4418,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="43"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="43"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="43"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="43"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="43"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="43"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="43"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="44" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4468,13 +4468,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="43"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="44" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4482,19 +4482,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="43"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="43"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="43"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4588,7 +4588,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="46" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4596,7 +4596,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="45"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4618,13 +4618,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="46"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="46" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4632,13 +4632,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="45"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="45"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4706,7 +4706,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="44" t="s">
+      <c r="A101" s="45" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4714,19 +4714,19 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="44"/>
+      <c r="A102" s="45"/>
       <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="44"/>
+      <c r="A103" s="45"/>
       <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="45" t="s">
         <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4734,13 +4734,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="44"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="47" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4748,7 +4748,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="44" t="s">
+      <c r="A111" s="45" t="s">
         <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4786,7 +4786,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="44"/>
+      <c r="A112" s="45"/>
       <c r="B112" s="13" t="s">
         <v>215</v>
       </c>
@@ -5084,12 +5084,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
@@ -5103,6 +5097,12 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5120,7 +5120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5200,7 +5200,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>502</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="27" t="s">
         <v>509</v>
       </c>
@@ -5326,7 +5326,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>531</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -5334,7 +5334,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="38" t="s">
         <v>533</v>
       </c>
@@ -5378,7 +5378,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -5386,19 +5386,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="28" t="s">
         <v>295</v>
       </c>
@@ -5468,7 +5468,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="47" t="s">
         <v>311</v>
       </c>
       <c r="B51" s="28" t="s">
@@ -5476,19 +5476,19 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="46"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="47" t="s">
         <v>315</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -5496,19 +5496,19 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="35" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="46"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="28" t="s">
         <v>317</v>
       </c>
@@ -5522,7 +5522,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="45" t="s">
         <v>351</v>
       </c>
       <c r="B59" t="s">
@@ -5530,19 +5530,19 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="45"/>
       <c r="B60" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="45"/>
       <c r="B61" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" t="s">
         <v>323</v>
       </c>
@@ -5564,7 +5564,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="45" t="s">
         <v>327</v>
       </c>
       <c r="B65" t="s">
@@ -5572,13 +5572,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="90">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="165">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="47" t="s">
         <v>330</v>
       </c>
       <c r="B67" s="28" t="s">
@@ -5586,13 +5586,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="46"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="45" t="s">
         <v>333</v>
       </c>
       <c r="B69" s="28" t="s">
@@ -5600,13 +5600,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="135">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="28" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="45" t="s">
         <v>336</v>
       </c>
       <c r="B71" s="28" t="s">
@@ -5614,13 +5614,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="44"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="28" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="165">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>339</v>
       </c>
       <c r="B73" s="28" t="s">
@@ -5628,13 +5628,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
-      <c r="A74" s="46"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="47" t="s">
         <v>342</v>
       </c>
       <c r="B75" s="28" t="s">
@@ -5642,7 +5642,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="46"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="28" t="s">
         <v>344</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="135">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="47" t="s">
         <v>352</v>
       </c>
       <c r="B80" s="28" t="s">
@@ -5680,7 +5680,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="46"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="28" t="s">
         <v>354</v>
       </c>
@@ -5694,7 +5694,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="195">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="47" t="s">
         <v>357</v>
       </c>
       <c r="B83" s="28" t="s">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="105">
-      <c r="A84" s="46"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="28" t="s">
         <v>359</v>
       </c>
@@ -5740,7 +5740,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="47" t="s">
         <v>367</v>
       </c>
       <c r="B89" s="29" t="s">
@@ -5748,7 +5748,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="46"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="29" t="s">
         <v>369</v>
       </c>
@@ -5762,7 +5762,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="105">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="47" t="s">
         <v>372</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5770,19 +5770,19 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="60">
-      <c r="A93" s="46"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60">
-      <c r="A94" s="46"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="47" t="s">
         <v>376</v>
       </c>
       <c r="B95" s="29" t="s">
@@ -5790,13 +5790,13 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="46"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>543</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -5804,7 +5804,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="105">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="29" t="s">
         <v>380</v>
       </c>
@@ -5818,7 +5818,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="135">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="47" t="s">
         <v>387</v>
       </c>
       <c r="B100" s="29" t="s">
@@ -5826,13 +5826,13 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="45">
-      <c r="A101" s="46"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="135">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="47" t="s">
         <v>388</v>
       </c>
       <c r="B102" s="29" t="s">
@@ -5840,13 +5840,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="46"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="135">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="47" t="s">
         <v>399</v>
       </c>
       <c r="B104" s="29" t="s">
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="46"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="29" t="s">
         <v>390</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="75">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="47" t="s">
         <v>393</v>
       </c>
       <c r="B107" s="29" t="s">
@@ -5876,13 +5876,13 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="240">
-      <c r="A108" s="46"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="29" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="47" t="s">
         <v>396</v>
       </c>
       <c r="B109" s="29" t="s">
@@ -5890,7 +5890,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="46"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="29" t="s">
         <v>398</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="180">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="47" t="s">
         <v>418</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5968,7 +5968,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="165">
-      <c r="A120" s="46"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="29" t="s">
         <v>420</v>
       </c>
@@ -6006,7 +6006,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="45" t="s">
         <v>429</v>
       </c>
       <c r="B125" s="29" t="s">
@@ -6014,7 +6014,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="44"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="29" t="s">
         <v>431</v>
       </c>
@@ -6084,7 +6084,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="30">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="47" t="s">
         <v>449</v>
       </c>
       <c r="B135" s="29" t="s">
@@ -6092,19 +6092,19 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="180">
-      <c r="A136" s="46"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="29" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30">
-      <c r="A137" s="46"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="29" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="47" t="s">
         <v>451</v>
       </c>
       <c r="B138" s="29" t="s">
@@ -6112,7 +6112,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="75">
-      <c r="A139" s="46"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="29" t="s">
         <v>453</v>
       </c>
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="47" t="s">
         <v>460</v>
       </c>
       <c r="B143" s="29" t="s">
@@ -6150,7 +6150,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="45">
-      <c r="A144" s="46"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="29" t="s">
         <v>462</v>
       </c>
@@ -6164,7 +6164,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="30">
-      <c r="A146" s="46" t="s">
+      <c r="A146" s="47" t="s">
         <v>465</v>
       </c>
       <c r="B146" s="29" t="s">
@@ -6172,7 +6172,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="90">
-      <c r="A147" s="46"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="29" t="s">
         <v>467</v>
       </c>
@@ -6258,7 +6258,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="45">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="47" t="s">
         <v>488</v>
       </c>
       <c r="B158" s="29" t="s">
@@ -6266,24 +6266,25 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="46"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="29" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A143:A144"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:B35"/>
@@ -6292,21 +6293,20 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A119:A120"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="549">
   <si>
     <t>Topics</t>
   </si>
@@ -3018,9 +3018,6 @@
     <t>https://github.com/avinashbabudonthu/GradlePractice</t>
   </si>
   <si>
-    <t>Important Links</t>
-  </si>
-  <si>
     <t>Gradle DSL</t>
   </si>
   <si>
@@ -3043,6 +3040,15 @@
   </si>
   <si>
     <t>images/gradle/sample-gradle.txt</t>
+  </si>
+  <si>
+    <t>Gradle Beyond Basics</t>
+  </si>
+  <si>
+    <t>images/gradle/Gradle Beyond the Basics.pdf</t>
+  </si>
+  <si>
+    <t>Materials &amp; Important Links</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3230,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3342,29 +3348,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3737,10 +3746,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3831,10 +3840,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="43"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -3890,16 +3899,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3970,16 +3979,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
@@ -3990,10 +3999,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -4092,16 +4101,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="47"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="47"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4200,7 +4209,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -4262,7 +4271,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4270,13 +4279,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="44"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="49" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4284,7 +4293,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="43"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -4410,7 +4419,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="47" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4418,49 +4427,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="44"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="44"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="44"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="44"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="44"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="44"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4468,13 +4477,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="44"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="47" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4482,19 +4491,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="44"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="44"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4588,7 +4597,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4596,7 +4605,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="46"/>
+      <c r="A86" s="44"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4610,7 +4619,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4618,13 +4627,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="47"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4632,13 +4641,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="46"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="46"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4740,7 +4749,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="46" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4748,7 +4757,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="47"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -4824,10 +4833,10 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="42"/>
+      <c r="B118" s="43"/>
     </row>
     <row r="119" spans="1:2" ht="45">
       <c r="A119" s="25" t="s">
@@ -5084,6 +5093,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A101:A103"/>
@@ -5100,9 +5112,6 @@
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5120,7 +5129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5138,10 +5147,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="38" t="s">
@@ -5153,10 +5162,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>545</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5164,32 +5173,40 @@
       <c r="B5" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" s="42"/>
+      <c r="A7" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>542</v>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="36" t="s">
@@ -5223,7 +5240,7 @@
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>506</v>
@@ -5348,10 +5365,10 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="43"/>
     </row>
     <row r="36" spans="1:2" ht="60">
       <c r="A36" s="28" t="s">
@@ -5378,7 +5395,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -5386,19 +5403,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="47"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="28" t="s">
         <v>295</v>
       </c>
@@ -5468,7 +5485,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="46" t="s">
         <v>311</v>
       </c>
       <c r="B51" s="28" t="s">
@@ -5476,19 +5493,19 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="47"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="47"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="46" t="s">
         <v>315</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -5496,19 +5513,19 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="35" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="47"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="28" t="s">
         <v>317</v>
       </c>
@@ -5578,7 +5595,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="165">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="46" t="s">
         <v>330</v>
       </c>
       <c r="B67" s="28" t="s">
@@ -5586,7 +5603,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="47"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="28" t="s">
         <v>332</v>
       </c>
@@ -5620,7 +5637,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="165">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="46" t="s">
         <v>339</v>
       </c>
       <c r="B73" s="28" t="s">
@@ -5628,13 +5645,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
-      <c r="A74" s="47"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="46" t="s">
         <v>342</v>
       </c>
       <c r="B75" s="28" t="s">
@@ -5642,7 +5659,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="47"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="28" t="s">
         <v>344</v>
       </c>
@@ -5672,7 +5689,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="135">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="46" t="s">
         <v>352</v>
       </c>
       <c r="B80" s="28" t="s">
@@ -5680,7 +5697,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="47"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="28" t="s">
         <v>354</v>
       </c>
@@ -5694,7 +5711,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="195">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>357</v>
       </c>
       <c r="B83" s="28" t="s">
@@ -5702,7 +5719,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="105">
-      <c r="A84" s="47"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="28" t="s">
         <v>359</v>
       </c>
@@ -5740,7 +5757,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="46" t="s">
         <v>367</v>
       </c>
       <c r="B89" s="29" t="s">
@@ -5748,7 +5765,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="47"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="29" t="s">
         <v>369</v>
       </c>
@@ -5762,7 +5779,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="105">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="46" t="s">
         <v>372</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5770,19 +5787,19 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="60">
-      <c r="A93" s="47"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60">
-      <c r="A94" s="47"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>376</v>
       </c>
       <c r="B95" s="29" t="s">
@@ -5790,21 +5807,21 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="47"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105">
-      <c r="A97" s="47" t="s">
-        <v>543</v>
+      <c r="A97" s="46" t="s">
+        <v>542</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105">
-      <c r="A98" s="47"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="29" t="s">
         <v>380</v>
       </c>
@@ -5818,7 +5835,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="135">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="46" t="s">
         <v>387</v>
       </c>
       <c r="B100" s="29" t="s">
@@ -5826,13 +5843,13 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="45">
-      <c r="A101" s="47"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="135">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>388</v>
       </c>
       <c r="B102" s="29" t="s">
@@ -5840,13 +5857,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="47"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="135">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="46" t="s">
         <v>399</v>
       </c>
       <c r="B104" s="29" t="s">
@@ -5854,7 +5871,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="47"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="29" t="s">
         <v>390</v>
       </c>
@@ -5868,7 +5885,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="75">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="46" t="s">
         <v>393</v>
       </c>
       <c r="B107" s="29" t="s">
@@ -5876,13 +5893,13 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="240">
-      <c r="A108" s="47"/>
+      <c r="A108" s="46"/>
       <c r="B108" s="29" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="46" t="s">
         <v>396</v>
       </c>
       <c r="B109" s="29" t="s">
@@ -5890,7 +5907,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="47"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="29" t="s">
         <v>398</v>
       </c>
@@ -5960,7 +5977,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="180">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="46" t="s">
         <v>418</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5968,7 +5985,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="165">
-      <c r="A120" s="47"/>
+      <c r="A120" s="46"/>
       <c r="B120" s="29" t="s">
         <v>420</v>
       </c>
@@ -6084,7 +6101,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="30">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="46" t="s">
         <v>449</v>
       </c>
       <c r="B135" s="29" t="s">
@@ -6092,19 +6109,19 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="180">
-      <c r="A136" s="47"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="29" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30">
-      <c r="A137" s="47"/>
+      <c r="A137" s="46"/>
       <c r="B137" s="29" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75">
-      <c r="A138" s="47" t="s">
+      <c r="A138" s="46" t="s">
         <v>451</v>
       </c>
       <c r="B138" s="29" t="s">
@@ -6112,7 +6129,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="75">
-      <c r="A139" s="47"/>
+      <c r="A139" s="46"/>
       <c r="B139" s="29" t="s">
         <v>453</v>
       </c>
@@ -6142,7 +6159,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="47" t="s">
+      <c r="A143" s="46" t="s">
         <v>460</v>
       </c>
       <c r="B143" s="29" t="s">
@@ -6150,7 +6167,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="45">
-      <c r="A144" s="47"/>
+      <c r="A144" s="46"/>
       <c r="B144" s="29" t="s">
         <v>462</v>
       </c>
@@ -6164,7 +6181,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="30">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="46" t="s">
         <v>465</v>
       </c>
       <c r="B146" s="29" t="s">
@@ -6172,7 +6189,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="90">
-      <c r="A147" s="47"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="29" t="s">
         <v>467</v>
       </c>
@@ -6258,7 +6275,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="45">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="46" t="s">
         <v>488</v>
       </c>
       <c r="B158" s="29" t="s">
@@ -6266,25 +6283,26 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="47"/>
+      <c r="A159" s="46"/>
       <c r="B159" s="29" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:B35"/>
@@ -6293,20 +6311,19 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A143:A144"/>
     <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -3358,16 +3358,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3999,10 +3999,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
@@ -4101,16 +4101,16 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -4209,7 +4209,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4279,7 +4279,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="47"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="44" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4427,49 +4427,49 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="47"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="47"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="47"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="44" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4477,13 +4477,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="47"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="44" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4491,19 +4491,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="47"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="47"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="46" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4605,7 +4605,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="240">
-      <c r="A86" s="44"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
@@ -4619,7 +4619,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4627,13 +4627,13 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="46"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="46" t="s">
         <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4641,13 +4641,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="44"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="44"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="47" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4757,7 +4757,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="4" t="s">
         <v>208</v>
       </c>
@@ -5093,6 +5093,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A111:A112"/>
@@ -5109,9 +5112,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5128,8 +5128,8 @@
   <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5395,7 +5395,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -5403,19 +5403,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="28" t="s">
         <v>295</v>
       </c>
@@ -5485,7 +5485,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="47" t="s">
         <v>311</v>
       </c>
       <c r="B51" s="28" t="s">
@@ -5493,19 +5493,19 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="46"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="47" t="s">
         <v>315</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -5513,19 +5513,19 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="35" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="46"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="28" t="s">
         <v>317</v>
       </c>
@@ -5595,7 +5595,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="165">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="47" t="s">
         <v>330</v>
       </c>
       <c r="B67" s="28" t="s">
@@ -5603,7 +5603,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="46"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="28" t="s">
         <v>332</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="165">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>339</v>
       </c>
       <c r="B73" s="28" t="s">
@@ -5645,13 +5645,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
-      <c r="A74" s="46"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="47" t="s">
         <v>342</v>
       </c>
       <c r="B75" s="28" t="s">
@@ -5659,7 +5659,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="46"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="28" t="s">
         <v>344</v>
       </c>
@@ -5689,7 +5689,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="135">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="47" t="s">
         <v>352</v>
       </c>
       <c r="B80" s="28" t="s">
@@ -5697,7 +5697,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="46"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="28" t="s">
         <v>354</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="195">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="47" t="s">
         <v>357</v>
       </c>
       <c r="B83" s="28" t="s">
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="105">
-      <c r="A84" s="46"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="28" t="s">
         <v>359</v>
       </c>
@@ -5757,7 +5757,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="47" t="s">
         <v>367</v>
       </c>
       <c r="B89" s="29" t="s">
@@ -5765,7 +5765,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="46"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="29" t="s">
         <v>369</v>
       </c>
@@ -5779,7 +5779,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="105">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="47" t="s">
         <v>372</v>
       </c>
       <c r="B92" s="29" t="s">
@@ -5787,19 +5787,19 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="60">
-      <c r="A93" s="46"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60">
-      <c r="A94" s="46"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="47" t="s">
         <v>376</v>
       </c>
       <c r="B95" s="29" t="s">
@@ -5807,13 +5807,13 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="46"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>542</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -5821,7 +5821,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="105">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="29" t="s">
         <v>380</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="135">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="47" t="s">
         <v>387</v>
       </c>
       <c r="B100" s="29" t="s">
@@ -5843,13 +5843,13 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="45">
-      <c r="A101" s="46"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="135">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="47" t="s">
         <v>388</v>
       </c>
       <c r="B102" s="29" t="s">
@@ -5857,13 +5857,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="46"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="135">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="47" t="s">
         <v>399</v>
       </c>
       <c r="B104" s="29" t="s">
@@ -5871,7 +5871,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="46"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="29" t="s">
         <v>390</v>
       </c>
@@ -5885,7 +5885,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="75">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="47" t="s">
         <v>393</v>
       </c>
       <c r="B107" s="29" t="s">
@@ -5893,13 +5893,13 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="240">
-      <c r="A108" s="46"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="29" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="47" t="s">
         <v>396</v>
       </c>
       <c r="B109" s="29" t="s">
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="46"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="29" t="s">
         <v>398</v>
       </c>
@@ -5977,7 +5977,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="180">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="47" t="s">
         <v>418</v>
       </c>
       <c r="B119" s="29" t="s">
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="165">
-      <c r="A120" s="46"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="29" t="s">
         <v>420</v>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="30">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="47" t="s">
         <v>449</v>
       </c>
       <c r="B135" s="29" t="s">
@@ -6109,19 +6109,19 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="180">
-      <c r="A136" s="46"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="29" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30">
-      <c r="A137" s="46"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="29" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="47" t="s">
         <v>451</v>
       </c>
       <c r="B138" s="29" t="s">
@@ -6129,7 +6129,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="75">
-      <c r="A139" s="46"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="29" t="s">
         <v>453</v>
       </c>
@@ -6159,7 +6159,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="47" t="s">
         <v>460</v>
       </c>
       <c r="B143" s="29" t="s">
@@ -6167,7 +6167,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="45">
-      <c r="A144" s="46"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="29" t="s">
         <v>462</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="30">
-      <c r="A146" s="46" t="s">
+      <c r="A146" s="47" t="s">
         <v>465</v>
       </c>
       <c r="B146" s="29" t="s">
@@ -6189,7 +6189,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="90">
-      <c r="A147" s="46"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="29" t="s">
         <v>467</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="45">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="47" t="s">
         <v>488</v>
       </c>
       <c r="B158" s="29" t="s">
@@ -6283,13 +6283,34 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="46"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="29" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A119:A120"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A107:A108"/>
@@ -6303,27 +6324,6 @@
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Materials" sheetId="5" r:id="rId2"/>
-    <sheet name="Ant" sheetId="2" r:id="rId3"/>
-    <sheet name="Maven" sheetId="3" r:id="rId4"/>
-    <sheet name="Graddle" sheetId="4" r:id="rId5"/>
+    <sheet name="Ant" sheetId="2" r:id="rId2"/>
+    <sheet name="Maven" sheetId="3" r:id="rId3"/>
+    <sheet name="Graddle" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="573">
   <si>
     <t>Topics</t>
   </si>
@@ -1670,9 +1669,6 @@
     <t>to attache our source code to jar</t>
   </si>
   <si>
-    <t>Gradle</t>
-  </si>
-  <si>
     <t>Gradle Fundamentals [Course]</t>
   </si>
   <si>
@@ -3048,7 +3044,83 @@
     <t>images/gradle/Gradle Beyond the Basics.pdf</t>
   </si>
   <si>
-    <t>Materials &amp; Important Links</t>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t>Eclipse workspace</t>
+  </si>
+  <si>
+    <t>E:\workspaces\gradle-ws</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compile("junit:junit:4.12")</t>
+  </si>
+  <si>
+    <t>Run the test cases</t>
+  </si>
+  <si>
+    <t>clean the project - delete build folder</t>
+  </si>
+  <si>
+    <t>compile java classes</t>
+  </si>
+  <si>
+    <t>compile test java classes</t>
+  </si>
+  <si>
+    <t>execute test cases</t>
+  </si>
+  <si>
+    <t>build the project</t>
+  </si>
+  <si>
+    <t>gradle version</t>
+  </si>
+  <si>
+    <t>gradle --version</t>
+  </si>
+  <si>
+    <t>gradle -v</t>
+  </si>
+  <si>
+    <t>gradle tasks</t>
+  </si>
+  <si>
+    <t>to see tasks</t>
+  </si>
+  <si>
+    <t>to see all tasks in detail</t>
+  </si>
+  <si>
+    <t>to see project dependencies</t>
+  </si>
+  <si>
+    <t>run the clean and build quietly</t>
+  </si>
+  <si>
+    <t>gradle -q clean build</t>
+  </si>
+  <si>
+    <t>run the main class</t>
+  </si>
+  <si>
+    <t>gradle run</t>
+  </si>
+  <si>
+    <t>Declare main class like below in build.gradle:
+mainClassName= "com.gradle.practice.GradlePractice"</t>
+  </si>
+  <si>
+    <t>Create gradle wrapper</t>
+  </si>
+  <si>
+    <t>build the project using gradle wrapper</t>
+  </si>
+  <si>
+    <t>gradlew build</t>
   </si>
 </sst>
 </file>
@@ -3230,7 +3302,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3351,11 +3423,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3371,9 +3449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3696,7 +3771,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3724,164 +3799,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
-    <col min="2" max="2" width="123.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="43"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="43"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11" location="How_do_I_use_plugins"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3899,16 +3821,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3955,13 +3877,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3979,1157 +3901,1267 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="43"/>
-    </row>
-    <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>36</v>
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="44"/>
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>228</v>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="46"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="195">
-      <c r="A14" s="14" t="s">
+    <row r="27" spans="1:2" ht="195">
+      <c r="A27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B27" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="90">
-      <c r="A15" s="14" t="s">
+    <row r="28" spans="1:2" ht="90">
+      <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B28" s="23" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="44"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="44"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="46"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="46"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75">
+      <c r="A36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="15" t="s">
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75">
-      <c r="A31" s="15" t="s">
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B44" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="32" t="s">
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B45" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="47" t="s">
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B46" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="315">
-      <c r="A34" s="48"/>
-      <c r="B34" s="32" t="s">
+    <row r="47" spans="1:2" ht="315">
+      <c r="A47" s="50"/>
+      <c r="B47" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="32" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B48" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="150">
-      <c r="A36" s="33" t="s">
+    <row r="49" spans="1:2" ht="150">
+      <c r="A49" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="15" t="s">
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="15" t="s">
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="15" t="s">
+    <row r="52" spans="1:2" ht="60">
+      <c r="A52" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="255">
-      <c r="A40" s="15" t="s">
+    <row r="53" spans="1:2" ht="255">
+      <c r="A53" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="44" t="s">
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="44"/>
-      <c r="B42" s="4" t="s">
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="46"/>
+      <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="49" t="s">
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="49"/>
-      <c r="B44" s="4" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="15" t="s">
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="15" t="s">
+    <row r="64" spans="1:2" ht="90">
+      <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="15" t="s">
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="60">
-      <c r="A53" s="15" t="s">
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="195">
-      <c r="A54" s="15" t="s">
+    <row r="67" spans="1:2" ht="195">
+      <c r="A67" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="15" t="s">
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="15" t="s">
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B71" s="20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="15" t="s">
+    <row r="72" spans="1:2" ht="30">
+      <c r="A72" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="44" t="s">
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="44"/>
-      <c r="B61" s="4" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="46"/>
+      <c r="B74" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="44"/>
-      <c r="B62" s="4" t="s">
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="46"/>
+      <c r="B75" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="44"/>
-      <c r="B63" s="4" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="46"/>
+      <c r="B76" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="44"/>
-      <c r="B64" s="4" t="s">
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="46"/>
+      <c r="B77" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="44"/>
-      <c r="B65" s="4" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="46"/>
+      <c r="B78" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="44"/>
-      <c r="B66" s="4" t="s">
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="46"/>
+      <c r="B79" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="44"/>
-      <c r="B67" s="4" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="46"/>
+      <c r="B80" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="44" t="s">
+    <row r="81" spans="1:2" ht="45">
+      <c r="A81" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="210">
-      <c r="A69" s="44"/>
-      <c r="B69" s="4" t="s">
+    <row r="82" spans="1:2" ht="210">
+      <c r="A82" s="46"/>
+      <c r="B82" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="44" t="s">
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="44"/>
-      <c r="B71" s="4" t="s">
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="46"/>
+      <c r="B84" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="44"/>
-      <c r="B72" s="4" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="46"/>
+      <c r="B85" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="44"/>
-      <c r="B73" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="60">
-      <c r="A78" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="45">
-      <c r="A82" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30">
-      <c r="A83" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="240">
+    <row r="86" spans="1:2">
       <c r="A86" s="46"/>
       <c r="B86" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="15" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="47" t="s">
-        <v>177</v>
+      <c r="A88" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="9" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="90">
+      <c r="A89" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="46" t="s">
-        <v>180</v>
+      <c r="A90" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="300">
-      <c r="A91" s="46"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60">
+      <c r="A91" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="B91" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="46"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="B92" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
       <c r="A93" s="15" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30">
       <c r="A94" s="15" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="45">
       <c r="A95" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2">
+        <v>167</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30">
       <c r="A96" s="15" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="240">
+      <c r="A99" s="48"/>
+      <c r="B99" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="49"/>
+      <c r="B102" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="300">
+      <c r="A104" s="48"/>
+      <c r="B104" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="45">
+      <c r="A105" s="48"/>
+      <c r="B105" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="15" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="315">
-      <c r="A99" s="15" t="s">
+    <row r="112" spans="1:2" ht="315">
+      <c r="A112" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="15" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="45" t="s">
+    <row r="114" spans="1:2" ht="30">
+      <c r="A114" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="45"/>
-      <c r="B102" s="4" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="47"/>
+      <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="45"/>
-      <c r="B103" s="4" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="47"/>
+      <c r="B116" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="45" t="s">
+    <row r="117" spans="1:2" ht="45">
+      <c r="A117" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="45"/>
-      <c r="B105" s="4" t="s">
+    <row r="118" spans="1:2" ht="135">
+      <c r="A118" s="47"/>
+      <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="120">
-      <c r="A106" s="47" t="s">
+    <row r="119" spans="1:2" ht="120">
+      <c r="A119" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="210">
-      <c r="A107" s="47"/>
-      <c r="B107" s="4" t="s">
+    <row r="120" spans="1:2" ht="210">
+      <c r="A120" s="49"/>
+      <c r="B120" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="195">
-      <c r="A108" s="15" t="s">
+    <row r="121" spans="1:2" ht="195">
+      <c r="A121" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B121" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="20" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="120">
-      <c r="A110" s="10" t="s">
+    <row r="123" spans="1:2" ht="120">
+      <c r="A123" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B123" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="45" t="s">
+    <row r="124" spans="1:2" ht="45">
+      <c r="A124" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B124" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="90">
-      <c r="A112" s="45"/>
-      <c r="B112" s="13" t="s">
+    <row r="125" spans="1:2" ht="90">
+      <c r="A125" s="47"/>
+      <c r="B125" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="180">
-      <c r="A113" s="15" t="s">
+    <row r="126" spans="1:2" ht="180">
+      <c r="A126" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B126" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="135">
-      <c r="A114" s="17" t="s">
+    <row r="127" spans="1:2" ht="135">
+      <c r="A127" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B127" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="21" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B128" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="120">
-      <c r="A116" s="24" t="s">
+    <row r="129" spans="1:2" ht="120">
+      <c r="A129" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B129" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="42" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="43"/>
-    </row>
-    <row r="119" spans="1:2" ht="45">
-      <c r="A119" s="25" t="s">
+      <c r="B131" s="44"/>
+    </row>
+    <row r="132" spans="1:2" ht="45">
+      <c r="A132" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B132" s="27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="25" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B133" s="27" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="25" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B134" s="27" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="30">
-      <c r="A122" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="45">
-      <c r="A123" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="30">
-      <c r="A124" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="30">
-      <c r="A125" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B125" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="30">
-      <c r="A126" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="30">
-      <c r="A127" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B127" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="30">
-      <c r="A128" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="30">
       <c r="A135" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B135" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="195">
-      <c r="A136" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B136" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="195">
-      <c r="A137" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="26" t="s">
-        <v>265</v>
+        <v>252</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="45">
+      <c r="A136" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30">
+      <c r="A137" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30">
-      <c r="A138" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="195">
-      <c r="A139" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="26" t="s">
-        <v>271</v>
+      <c r="A138" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30">
+      <c r="A139" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="30">
+      <c r="A140" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30">
+      <c r="A141" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="26" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B143" t="s">
-        <v>281</v>
+        <v>253</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B144" t="s">
-        <v>275</v>
+        <v>159</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B145" t="s">
-        <v>276</v>
+        <v>161</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B146" t="s">
-        <v>277</v>
+      <c r="B146" s="26" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30">
+      <c r="A148" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="195">
+      <c r="A149" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="195">
+      <c r="A150" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30">
+      <c r="A151" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="195">
+      <c r="A152" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B160" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="26" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B161" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="26" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B162" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="30" customHeight="1">
-      <c r="A150" s="34" t="s">
+    <row r="163" spans="1:2" ht="30" customHeight="1">
+      <c r="A163" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="B163" t="s">
         <v>494</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="34"/>
+      <c r="B164" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="34"/>
-      <c r="B151" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A111:A112"/>
+  <mergeCells count="20">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:A125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B1" location="Maven!A2" display="Up"/>
-    <hyperlink ref="B151" r:id="rId1"/>
+    <hyperlink ref="B164" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12" location="How_do_I_use_plugins"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5147,1192 +5179,1360 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="B7" s="43"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="B10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="42" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="B13" s="43"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B14" s="27" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="47" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="45" t="s">
+      <c r="B18" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="B15" s="27" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="37" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="27" t="s">
+      <c r="B20" s="27" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="37" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="37" t="s">
-        <v>507</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="37" t="s">
+      <c r="B23" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="B20" s="37" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="37" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="37" t="s">
+      <c r="B24" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="B21" s="37" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="B23" s="37" t="s">
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="37" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="37" t="s">
+      <c r="B29" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="B25" s="37" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="37" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="37" t="s">
+      <c r="B30" s="37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="38" t="s">
+      <c r="B31" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="B27" s="38" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="38" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="38" t="s">
+      <c r="B32" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="B28" s="38" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="38" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="38" t="s">
+      <c r="B33" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="B29" s="38" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="38" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="38" t="s">
+      <c r="B34" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="B30" s="38" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="90">
+      <c r="A35" s="47" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="45" t="s">
+      <c r="B35" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="B31" s="38" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="120">
+      <c r="A36" s="47"/>
+      <c r="B36" s="38" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="45"/>
-      <c r="B32" s="38" t="s">
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="38" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="60">
-      <c r="A33" s="38" t="s">
+      <c r="B37" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="42" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="43"/>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="28" t="s">
+      <c r="B39" s="44"/>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="165">
+      <c r="A41" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="165">
-      <c r="A37" s="28" t="s">
+      <c r="B41" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="28" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" t="s">
         <v>291</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="49" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="47" t="s">
+      <c r="B43" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="49"/>
+      <c r="B44" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="B39" s="35" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="47"/>
-      <c r="B40" s="28" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="49"/>
+      <c r="B45" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="105">
+      <c r="A46" s="49"/>
+      <c r="B46" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="28" t="s">
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="28" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="47"/>
-      <c r="B42" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="28" t="s">
+      <c r="B47" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="28" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="28" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="60">
-      <c r="A44" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>299</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B49" s="28" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="49" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="47" t="s">
+      <c r="B56" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B51" s="28" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="45">
+      <c r="A57" s="49"/>
+      <c r="B57" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="47"/>
-      <c r="B52" s="28" t="s">
+    <row r="58" spans="1:2" ht="75">
+      <c r="A58" s="49"/>
+      <c r="B58" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="47"/>
-      <c r="B53" s="28" t="s">
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="49" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="47" t="s">
+      <c r="B59" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="49"/>
+      <c r="B60" s="35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="49"/>
+      <c r="B61" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B54" s="31" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="49"/>
+      <c r="B62" s="28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="47"/>
+      <c r="B65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="47"/>
+      <c r="B66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="47"/>
+      <c r="B67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="90">
+      <c r="A69" s="31" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="35" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="B59" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="45"/>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="45"/>
-      <c r="B61" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="45"/>
-      <c r="B62" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="B69" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="90">
-      <c r="A64" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B64" s="28" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="47" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="45" t="s">
+      <c r="B70" t="s">
         <v>327</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="90">
+      <c r="A71" s="47"/>
+      <c r="B71" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="90">
-      <c r="A66" s="45"/>
-      <c r="B66" s="28" t="s">
+    <row r="72" spans="1:2" ht="165">
+      <c r="A72" s="49" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="165">
-      <c r="A67" s="47" t="s">
+      <c r="B72" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B67" s="28" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="120">
+      <c r="A73" s="49"/>
+      <c r="B73" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="47"/>
-      <c r="B68" s="28" t="s">
+    <row r="74" spans="1:2" ht="60">
+      <c r="A74" s="47" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="45" t="s">
+      <c r="B74" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="B69" s="28" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="135">
+      <c r="A75" s="47"/>
+      <c r="B75" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="135">
-      <c r="A70" s="45"/>
-      <c r="B70" s="28" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="47" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="45" t="s">
+      <c r="B76" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="B71" s="28" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="45">
+      <c r="A77" s="47"/>
+      <c r="B77" s="28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="45"/>
-      <c r="B72" s="28" t="s">
+    <row r="78" spans="1:2" ht="165">
+      <c r="A78" s="49" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="165">
-      <c r="A73" s="47" t="s">
+      <c r="B78" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B73" s="28" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="90">
+      <c r="A79" s="49"/>
+      <c r="B79" s="28" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="90">
-      <c r="A74" s="47"/>
-      <c r="B74" s="28" t="s">
+    <row r="80" spans="1:2" ht="90">
+      <c r="A80" s="49" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="47" t="s">
+      <c r="B80" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B75" s="28" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="75">
+      <c r="A81" s="49"/>
+      <c r="B81" s="28" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="47"/>
-      <c r="B76" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="135">
-      <c r="A80" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="47"/>
-      <c r="B81" s="28" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="135">
+      <c r="A85" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="49"/>
+      <c r="B86" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B82" s="28" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="195">
+      <c r="A88" s="49" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="195">
-      <c r="A83" s="47" t="s">
+      <c r="B88" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="B83" s="28" t="s">
+    </row>
+    <row r="89" spans="1:2" ht="105">
+      <c r="A89" s="49"/>
+      <c r="B89" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105">
-      <c r="A84" s="47"/>
-      <c r="B84" s="28" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="29" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="29" t="s">
+      <c r="B90" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="B85" s="29" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="90">
+      <c r="A91" s="29" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="29" t="s">
+      <c r="B91" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="105">
+      <c r="A92" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="B86" s="29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="105">
-      <c r="A87" s="29" t="s">
+      <c r="B92" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B87" s="29" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="29" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="29" t="s">
+      <c r="B93" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="B88" s="29" t="s">
+    </row>
+    <row r="94" spans="1:2" ht="45">
+      <c r="A94" s="49" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="47" t="s">
+      <c r="B94" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B89" s="29" t="s">
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="49"/>
+      <c r="B95" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="47"/>
-      <c r="B90" s="29" t="s">
+    <row r="96" spans="1:2" ht="75">
+      <c r="A96" s="29" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="75">
-      <c r="A91" s="29" t="s">
+      <c r="B96" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="B91" s="29" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="105">
+      <c r="A97" s="49" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="105">
-      <c r="A92" s="47" t="s">
+      <c r="B97" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="60">
+      <c r="A98" s="49"/>
+      <c r="B98" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="60">
+      <c r="A99" s="49"/>
+      <c r="B99" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="60">
-      <c r="A93" s="47"/>
-      <c r="B93" s="29" t="s">
+    </row>
+    <row r="100" spans="1:2" ht="90">
+      <c r="A100" s="49" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="60">
-      <c r="A94" s="47"/>
-      <c r="B94" s="29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="90">
-      <c r="A95" s="47" t="s">
+      <c r="B100" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="B95" s="29" t="s">
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="49"/>
+      <c r="B101" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="47"/>
-      <c r="B96" s="29" t="s">
+    <row r="102" spans="1:2" ht="105">
+      <c r="A102" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="B102" s="29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105">
-      <c r="A97" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="B97" s="29" t="s">
+    <row r="103" spans="1:2" ht="105">
+      <c r="A103" s="49"/>
+      <c r="B103" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="105">
-      <c r="A98" s="47"/>
-      <c r="B98" s="29" t="s">
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="29" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="45">
-      <c r="A99" s="29" t="s">
+      <c r="B104" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B99" s="29" t="s">
+    </row>
+    <row r="105" spans="1:2" ht="135">
+      <c r="A105" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B105" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="135">
-      <c r="A100" s="47" t="s">
+    <row r="106" spans="1:2" ht="45">
+      <c r="A106" s="49"/>
+      <c r="B106" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="135">
+      <c r="A107" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="B100" s="29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="45">
-      <c r="A101" s="47"/>
-      <c r="B101" s="29" t="s">
+      <c r="B107" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45">
+      <c r="A108" s="49"/>
+      <c r="B108" s="29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="135">
-      <c r="A102" s="47" t="s">
+    <row r="109" spans="1:2" ht="135">
+      <c r="A109" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="B109" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B102" s="29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="45">
-      <c r="A103" s="47"/>
-      <c r="B103" s="29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="135">
-      <c r="A104" s="47" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" s="49"/>
+      <c r="B110" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30">
+      <c r="A111" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="75">
+      <c r="A112" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="240">
+      <c r="A113" s="49"/>
+      <c r="B113" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="75">
+      <c r="A114" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="75">
+      <c r="A115" s="49"/>
+      <c r="B115" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="B104" s="29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="47"/>
-      <c r="B105" s="29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="75">
-      <c r="A107" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="240">
-      <c r="A108" s="47"/>
-      <c r="B108" s="29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="47"/>
-      <c r="B110" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="B111" s="29" t="s">
+      <c r="B116" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="29" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="29" t="s">
+      <c r="B117" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="B112" s="29" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="29" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="29" t="s">
+      <c r="B118" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="B113" s="29" t="s">
+    </row>
+    <row r="119" spans="1:2" ht="60">
+      <c r="A119" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B119" s="29" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="60">
-      <c r="A114" s="29" t="s">
+    <row r="120" spans="1:2" ht="75">
+      <c r="A120" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="B114" s="29" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="29" t="s">
+      <c r="B120" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="B115" s="29" t="s">
+    </row>
+    <row r="121" spans="1:2" ht="75">
+      <c r="A121" s="29" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="75">
-      <c r="A116" s="29" t="s">
+      <c r="B121" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B116" s="29" t="s">
+    </row>
+    <row r="122" spans="1:2" ht="135">
+      <c r="A122" s="29" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="135">
-      <c r="A117" s="29" t="s">
+      <c r="B122" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B117" s="29" t="s">
+    </row>
+    <row r="123" spans="1:2" ht="165">
+      <c r="A123" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B123" s="29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="165">
-      <c r="A118" s="29" t="s">
+    <row r="124" spans="1:2" ht="180">
+      <c r="A124" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="180">
-      <c r="A119" s="47" t="s">
+      <c r="B124" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="B119" s="29" t="s">
+    </row>
+    <row r="125" spans="1:2" ht="165">
+      <c r="A125" s="49"/>
+      <c r="B125" s="29" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="165">
-      <c r="A120" s="47"/>
-      <c r="B120" s="29" t="s">
+    <row r="126" spans="1:2" ht="120">
+      <c r="A126" s="29" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="120">
-      <c r="A121" s="29" t="s">
+      <c r="B126" s="29" t="s">
         <v>421</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="30">
-      <c r="A122" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="30">
-      <c r="A123" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="150">
-      <c r="A124" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="45"/>
-      <c r="B126" s="29" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30">
       <c r="A127" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="150">
+      <c r="A129" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="47"/>
+      <c r="B131" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30">
+      <c r="A132" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="B127" s="31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="29" t="s">
+      <c r="B133" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B128" s="29" t="s">
+    </row>
+    <row r="134" spans="1:2" ht="30">
+      <c r="A134" s="29" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="30">
-      <c r="A129" s="29" t="s">
+      <c r="B134" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="B129" s="29" t="s">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="29" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="29" t="s">
+      <c r="B135" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="B130" s="29" t="s">
+    </row>
+    <row r="136" spans="1:2" ht="60">
+      <c r="A136" s="29" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="60">
-      <c r="A131" s="29" t="s">
+      <c r="B136" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="29" t="s">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="29" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="29" t="s">
+      <c r="B137" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="29" t="s">
+    </row>
+    <row r="138" spans="1:2" ht="165">
+      <c r="A138" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="B138" s="29" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="165">
-      <c r="A133" s="29" t="s">
+    <row r="139" spans="1:2" ht="45">
+      <c r="A139" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="B133" s="29" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="45">
-      <c r="A134" s="29" t="s">
+      <c r="B139" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B134" s="29" t="s">
+    </row>
+    <row r="140" spans="1:2" ht="30">
+      <c r="A140" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="B140" s="29" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30">
-      <c r="A135" s="47" t="s">
+    <row r="141" spans="1:2" ht="180">
+      <c r="A141" s="49"/>
+      <c r="B141" s="29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="30">
+      <c r="A142" s="49"/>
+      <c r="B142" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="B135" s="29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="180">
-      <c r="A136" s="47"/>
-      <c r="B136" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="30">
-      <c r="A137" s="47"/>
-      <c r="B137" s="29" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="75">
+      <c r="A143" s="49" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="75">
-      <c r="A138" s="47" t="s">
+      <c r="B143" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="B138" s="29" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="75">
+      <c r="A144" s="49"/>
+      <c r="B144" s="29" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="75">
-      <c r="A139" s="47"/>
-      <c r="B139" s="29" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="29" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="29" t="s">
+      <c r="B145" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="B140" s="29" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="29" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="29" t="s">
+      <c r="B146" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="B141" s="29" t="s">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="29" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="29" t="s">
+      <c r="B147" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="B142" s="29" t="s">
+    </row>
+    <row r="148" spans="1:2" ht="45">
+      <c r="A148" s="49" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="47" t="s">
+      <c r="B148" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B143" s="29" t="s">
+    </row>
+    <row r="149" spans="1:2" ht="45">
+      <c r="A149" s="49"/>
+      <c r="B149" s="29" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="45">
-      <c r="A144" s="47"/>
-      <c r="B144" s="29" t="s">
+    <row r="150" spans="1:2" ht="75">
+      <c r="A150" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="75">
-      <c r="A145" s="30" t="s">
+    <row r="151" spans="1:2" ht="30">
+      <c r="A151" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="B145" s="29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="30">
-      <c r="A146" s="47" t="s">
+      <c r="B151" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="B146" s="29" t="s">
+    </row>
+    <row r="152" spans="1:2" ht="90">
+      <c r="A152" s="49"/>
+      <c r="B152" s="29" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="90">
-      <c r="A147" s="47"/>
-      <c r="B147" s="29" t="s">
+    <row r="153" spans="1:2" ht="45">
+      <c r="A153" s="29" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="45">
-      <c r="A148" s="29" t="s">
+      <c r="B153" s="29" t="s">
         <v>468</v>
-      </c>
-      <c r="B148" s="29" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="B149" s="29" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="90">
-      <c r="A151" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="90">
-      <c r="A152" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="90">
+      <c r="A156" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="90">
+      <c r="A157" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B159" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="B154" s="29" t="s">
+    </row>
+    <row r="160" spans="1:2" ht="30">
+      <c r="A160" s="29" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="30">
-      <c r="A155" s="29" t="s">
+      <c r="B160" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="B155" s="29" t="s">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="29" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="29" t="s">
+      <c r="B161" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="B156" s="29" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="29" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="29" t="s">
+      <c r="B162" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="B157" s="29" t="s">
+    </row>
+    <row r="163" spans="1:2" ht="45">
+      <c r="A163" s="49" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="45">
-      <c r="A158" s="47" t="s">
+      <c r="B163" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B158" s="29" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="49"/>
+      <c r="B164" s="29" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="47"/>
-      <c r="B159" s="29" t="s">
-        <v>490</v>
+    <row r="167" spans="1:2">
+      <c r="A167" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B167" s="44"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="B168" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="B169" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B170" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B171" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="B172" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="B173" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="47"/>
+      <c r="B174" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="B175" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B176" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B177" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="B178" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="30">
+      <c r="A179" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="B179" s="42" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="47"/>
+      <c r="B180" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B181" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="B182" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A108"/>
+  <mergeCells count="38">
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A124:A125"/>
     <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A97:A99"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="594">
   <si>
     <t>Topics</t>
   </si>
@@ -3117,10 +3117,76 @@
     <t>Create gradle wrapper</t>
   </si>
   <si>
-    <t>build the project using gradle wrapper</t>
-  </si>
-  <si>
     <t>gradlew build</t>
+  </si>
+  <si>
+    <t>Maven commands</t>
+  </si>
+  <si>
+    <t>clean project</t>
+  </si>
+  <si>
+    <t>mvn clean</t>
+  </si>
+  <si>
+    <t>compile project</t>
+  </si>
+  <si>
+    <t>mvn compile</t>
+  </si>
+  <si>
+    <t>build project</t>
+  </si>
+  <si>
+    <t>mvn build</t>
+  </si>
+  <si>
+    <t>run test cases</t>
+  </si>
+  <si>
+    <t>mvn test</t>
+  </si>
+  <si>
+    <t>to see dependency tree</t>
+  </si>
+  <si>
+    <t>mvn dependency:tree</t>
+  </si>
+  <si>
+    <t>Gradle videos</t>
+  </si>
+  <si>
+    <t>1-order-of-tutorials.xlsx</t>
+  </si>
+  <si>
+    <t>build the gradle wrapper of specific version</t>
+  </si>
+  <si>
+    <t>gradle wrapper --gradle-version 3.3</t>
+  </si>
+  <si>
+    <t>gradle assemble</t>
+  </si>
+  <si>
+    <t>gradle check</t>
+  </si>
+  <si>
+    <t>To compile the project without executing any unit tests and without generating build reports</t>
+  </si>
+  <si>
+    <t>build the project using gradle wrapper (assemble + check)</t>
+  </si>
+  <si>
+    <t>gradle bootRun</t>
+  </si>
+  <si>
+    <t>Persform assemble task
+Start the spring boot application using embedded web server</t>
+  </si>
+  <si>
+    <t>Compile both src and test src and 
+copies src and test resources to the build directory and 
+then executes all unit test and generates build report</t>
   </si>
 </sst>
 </file>
@@ -3302,7 +3368,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3426,29 +3492,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3821,16 +3896,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:2" ht="75">
       <c r="A5" s="4" t="s">
@@ -3879,11 +3954,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3901,10 +3976,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3999,16 +4074,16 @@
       <c r="B14" s="42"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="47"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="47"/>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="32" t="s">
@@ -4019,10 +4094,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
@@ -4121,16 +4196,16 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="50"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="50"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
@@ -4229,7 +4304,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="51" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="32" t="s">
@@ -4237,7 +4312,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="315">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="32" t="s">
         <v>88</v>
       </c>
@@ -4291,7 +4366,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="45">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="50" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -4299,13 +4374,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="46"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="53" t="s">
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4313,7 +4388,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="45"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -4439,7 +4514,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="50" t="s">
         <v>135</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4447,49 +4522,49 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="46"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="46"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="46"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="46"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="46"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="46"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="46"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="45">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="50" t="s">
         <v>144</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -4497,13 +4572,13 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="210">
-      <c r="A82" s="46"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4511,19 +4586,19 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="46"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="46"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="46"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="4" t="s">
         <v>151</v>
       </c>
@@ -4639,7 +4714,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="51" t="s">
         <v>177</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4647,7 +4722,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="49"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="9" t="s">
         <v>179</v>
       </c>
@@ -4735,7 +4810,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="30">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="49" t="s">
         <v>199</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -4743,19 +4818,19 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="47"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="47"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -4763,13 +4838,13 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="135">
-      <c r="A118" s="47"/>
+      <c r="A118" s="49"/>
       <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="120">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="51" t="s">
         <v>206</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -4777,7 +4852,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="210">
-      <c r="A120" s="49"/>
+      <c r="A120" s="51"/>
       <c r="B120" s="4" t="s">
         <v>208</v>
       </c>
@@ -4807,7 +4882,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="45">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="49" t="s">
         <v>213</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -4815,7 +4890,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="90">
-      <c r="A125" s="47"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="13" t="s">
         <v>215</v>
       </c>
@@ -4853,10 +4928,10 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="44"/>
+      <c r="B131" s="47"/>
     </row>
     <row r="132" spans="1:2" ht="45">
       <c r="A132" s="25" t="s">
@@ -5111,15 +5186,64 @@
         <v>495</v>
       </c>
     </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="B167" s="47"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="B168" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="B169" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="B170" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="B171" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="B172" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="A114:A116"/>
     <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
@@ -5131,8 +5255,6 @@
     <mergeCell ref="A73:A80"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:A125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5157,11 +5279,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5179,10 +5301,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="38" t="s">
@@ -5217,1317 +5339,1357 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="B8" s="44"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B11" s="42" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="44"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="40" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B15" s="40" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="42"/>
-    </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="36" t="s">
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="47" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B20" s="27" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="27" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="27" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="39" t="s">
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B23" s="37" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="37" t="s">
-        <v>509</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B26" s="42" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="37" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B27" s="37" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="42" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B28" s="42" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
       <c r="A29" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B31" s="37" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="37" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B32" s="37" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="38" t="s">
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B33" s="38" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="38" t="s">
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B34" s="38" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="38" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B35" s="38" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="38" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B36" s="38" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="47" t="s">
+    <row r="37" spans="1:2" ht="90">
+      <c r="A37" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B37" s="38" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="120">
-      <c r="A36" s="47"/>
-      <c r="B36" s="38" t="s">
+    <row r="38" spans="1:2" ht="120">
+      <c r="A38" s="49"/>
+      <c r="B38" s="38" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="38" t="s">
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B39" s="38" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="43" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="44"/>
-    </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="28" t="s">
+      <c r="B41" s="47"/>
+    </row>
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="165">
-      <c r="A41" s="28" t="s">
+    <row r="43" spans="1:2" ht="165">
+      <c r="A43" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="28" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="49" t="s">
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B45" s="35" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="49"/>
-      <c r="B44" s="28" t="s">
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="51"/>
+      <c r="B46" s="28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="49"/>
-      <c r="B45" s="28" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="105">
-      <c r="A46" s="49"/>
-      <c r="B46" s="28" t="s">
+    <row r="48" spans="1:2" ht="105">
+      <c r="A48" s="51"/>
+      <c r="B48" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="28" t="s">
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B49" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="28" t="s">
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B50" s="28" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="75">
       <c r="A52" s="28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B55" s="28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="29" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B56" s="29" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="42" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B57" s="42" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30">
-      <c r="A56" s="49" t="s">
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B58" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="49"/>
-      <c r="B57" s="28" t="s">
+    <row r="59" spans="1:2" ht="45">
+      <c r="A59" s="51"/>
+      <c r="B59" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="75">
-      <c r="A58" s="49"/>
-      <c r="B58" s="28" t="s">
+    <row r="60" spans="1:2" ht="75">
+      <c r="A60" s="51"/>
+      <c r="B60" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="49" t="s">
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B61" s="31" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="49"/>
-      <c r="B60" s="35" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="51"/>
+      <c r="B62" s="35" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="49"/>
-      <c r="B61" s="28" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="51"/>
+      <c r="B63" s="28" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="49"/>
-      <c r="B62" s="28" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="28" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B65" s="28" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="47" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="47"/>
-      <c r="B65" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="49"/>
+      <c r="B67" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="47"/>
-      <c r="B66" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="49"/>
+      <c r="B68" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="47"/>
-      <c r="B67" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="49"/>
+      <c r="B69" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="28" t="s">
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="90">
-      <c r="A69" s="31" t="s">
+    <row r="71" spans="1:2" ht="90">
+      <c r="A71" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B71" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="47" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="90">
-      <c r="A71" s="47"/>
-      <c r="B71" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="165">
-      <c r="A72" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="120">
+    <row r="73" spans="1:2" ht="90">
       <c r="A73" s="49"/>
       <c r="B73" s="28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="165">
+      <c r="A74" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="120">
+      <c r="A75" s="51"/>
+      <c r="B75" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="47" t="s">
+    <row r="76" spans="1:2" ht="60">
+      <c r="A76" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B76" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="47"/>
-      <c r="B75" s="28" t="s">
+    <row r="77" spans="1:2" ht="135">
+      <c r="A77" s="49"/>
+      <c r="B77" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="47" t="s">
+    <row r="78" spans="1:2" ht="75">
+      <c r="A78" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B78" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="45">
-      <c r="A77" s="47"/>
-      <c r="B77" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="165">
-      <c r="A78" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="90">
+    <row r="79" spans="1:2" ht="45">
       <c r="A79" s="49"/>
       <c r="B79" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="165">
+      <c r="A80" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="90">
+      <c r="A81" s="51"/>
+      <c r="B81" s="28" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="49" t="s">
+    <row r="82" spans="1:2" ht="90">
+      <c r="A82" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B82" s="28" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="49"/>
-      <c r="B81" s="28" t="s">
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="51"/>
+      <c r="B83" s="28" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B86" s="28" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="135">
-      <c r="A85" s="49" t="s">
+    <row r="87" spans="1:2" ht="135">
+      <c r="A87" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B87" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="49"/>
-      <c r="B86" s="28" t="s">
+    <row r="88" spans="1:2" ht="90">
+      <c r="A88" s="51"/>
+      <c r="B88" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="28" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B89" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="195">
-      <c r="A88" s="49" t="s">
+    <row r="90" spans="1:2" ht="195">
+      <c r="A90" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B90" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="105">
-      <c r="A89" s="49"/>
-      <c r="B89" s="28" t="s">
+    <row r="91" spans="1:2" ht="105">
+      <c r="A91" s="51"/>
+      <c r="B91" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="29" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B92" s="29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="90">
-      <c r="A91" s="29" t="s">
+    <row r="93" spans="1:2" ht="90">
+      <c r="A93" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B93" s="29" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105">
-      <c r="A92" s="29" t="s">
+    <row r="94" spans="1:2" ht="105">
+      <c r="A94" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B94" s="29" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="29" t="s">
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B95" s="29" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="45">
-      <c r="A94" s="49" t="s">
+    <row r="96" spans="1:2" ht="45">
+      <c r="A96" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B96" s="29" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30">
-      <c r="A95" s="49"/>
-      <c r="B95" s="29" t="s">
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="51"/>
+      <c r="B97" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="75">
-      <c r="A96" s="29" t="s">
+    <row r="98" spans="1:2" ht="75">
+      <c r="A98" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B98" s="29" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105">
-      <c r="A97" s="49" t="s">
+    <row r="99" spans="1:2" ht="105">
+      <c r="A99" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B99" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="60">
-      <c r="A98" s="49"/>
-      <c r="B98" s="29" t="s">
+    <row r="100" spans="1:2" ht="60">
+      <c r="A100" s="51"/>
+      <c r="B100" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="60">
-      <c r="A99" s="49"/>
-      <c r="B99" s="29" t="s">
+    <row r="101" spans="1:2" ht="60">
+      <c r="A101" s="51"/>
+      <c r="B101" s="29" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="90">
-      <c r="A100" s="49" t="s">
+    <row r="102" spans="1:2" ht="90">
+      <c r="A102" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B102" s="29" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="49"/>
-      <c r="B101" s="29" t="s">
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="51"/>
+      <c r="B103" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="105">
-      <c r="A102" s="49" t="s">
+    <row r="104" spans="1:2" ht="105">
+      <c r="A104" s="51" t="s">
         <v>541</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B104" s="29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="49"/>
-      <c r="B103" s="29" t="s">
+    <row r="105" spans="1:2" ht="105">
+      <c r="A105" s="51"/>
+      <c r="B105" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="29" t="s">
+    <row r="106" spans="1:2" ht="45">
+      <c r="A106" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B106" s="29" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="135">
-      <c r="A105" s="49" t="s">
+    <row r="107" spans="1:2" ht="135">
+      <c r="A107" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B107" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="45">
-      <c r="A106" s="49"/>
-      <c r="B106" s="29" t="s">
+    <row r="108" spans="1:2" ht="45">
+      <c r="A108" s="51"/>
+      <c r="B108" s="29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="135">
-      <c r="A107" s="49" t="s">
+    <row r="109" spans="1:2" ht="135">
+      <c r="A109" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B109" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="49"/>
-      <c r="B108" s="29" t="s">
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" s="51"/>
+      <c r="B110" s="29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="135">
-      <c r="A109" s="49" t="s">
+    <row r="111" spans="1:2" ht="135">
+      <c r="A111" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B111" s="29" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="49"/>
-      <c r="B110" s="29" t="s">
+    <row r="112" spans="1:2" ht="45">
+      <c r="A112" s="51"/>
+      <c r="B112" s="29" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30">
-      <c r="A111" s="29" t="s">
+    <row r="113" spans="1:2" ht="30">
+      <c r="A113" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B113" s="29" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="75">
-      <c r="A112" s="49" t="s">
+    <row r="114" spans="1:2" ht="75">
+      <c r="A114" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B114" s="29" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="240">
-      <c r="A113" s="49"/>
-      <c r="B113" s="29" t="s">
+    <row r="115" spans="1:2" ht="240">
+      <c r="A115" s="51"/>
+      <c r="B115" s="29" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="75">
-      <c r="A114" s="49" t="s">
+    <row r="116" spans="1:2" ht="75">
+      <c r="A116" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B116" s="29" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="49"/>
-      <c r="B115" s="29" t="s">
+    <row r="117" spans="1:2" ht="75">
+      <c r="A117" s="51"/>
+      <c r="B117" s="29" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B120" s="29" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="60">
-      <c r="A119" s="29" t="s">
+    <row r="121" spans="1:2" ht="60">
+      <c r="A121" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B121" s="29" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="75">
-      <c r="A120" s="29" t="s">
+    <row r="122" spans="1:2" ht="75">
+      <c r="A122" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B122" s="29" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="75">
-      <c r="A121" s="29" t="s">
+    <row r="123" spans="1:2" ht="75">
+      <c r="A123" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B123" s="29" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="135">
-      <c r="A122" s="29" t="s">
+    <row r="124" spans="1:2" ht="135">
+      <c r="A124" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B124" s="29" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="165">
-      <c r="A123" s="29" t="s">
+    <row r="125" spans="1:2" ht="165">
+      <c r="A125" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B125" s="29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="180">
-      <c r="A124" s="49" t="s">
+    <row r="126" spans="1:2" ht="180">
+      <c r="A126" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B126" s="29" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="165">
-      <c r="A125" s="49"/>
-      <c r="B125" s="29" t="s">
+    <row r="127" spans="1:2" ht="165">
+      <c r="A127" s="51"/>
+      <c r="B127" s="29" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="120">
-      <c r="A126" s="29" t="s">
+    <row r="128" spans="1:2" ht="120">
+      <c r="A128" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B128" s="29" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30">
-      <c r="A127" s="29" t="s">
+    <row r="129" spans="1:2" ht="30">
+      <c r="A129" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B129" s="29" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30">
-      <c r="A128" s="29" t="s">
+    <row r="130" spans="1:2" ht="30">
+      <c r="A130" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B130" s="29" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="150">
-      <c r="A129" s="29" t="s">
+    <row r="131" spans="1:2" ht="150">
+      <c r="A131" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="B131" s="29" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="47" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B132" s="29" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="47"/>
-      <c r="B131" s="29" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="49"/>
+      <c r="B133" s="29" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="30">
-      <c r="A132" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="30">
       <c r="A134" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="B134" s="29" t="s">
-        <v>435</v>
+        <v>431</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="60">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="30">
       <c r="A136" s="29" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="60">
+      <c r="A138" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="B139" s="29" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="165">
-      <c r="A138" s="29" t="s">
+    <row r="140" spans="1:2" ht="165">
+      <c r="A140" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B140" s="29" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="45">
-      <c r="A139" s="29" t="s">
+    <row r="141" spans="1:2" ht="45">
+      <c r="A141" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B141" s="29" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30">
-      <c r="A140" s="49" t="s">
+    <row r="142" spans="1:2" ht="30">
+      <c r="A142" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="B142" s="29" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="180">
-      <c r="A141" s="49"/>
-      <c r="B141" s="29" t="s">
+    <row r="143" spans="1:2" ht="180">
+      <c r="A143" s="51"/>
+      <c r="B143" s="29" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="30">
-      <c r="A142" s="49"/>
-      <c r="B142" s="29" t="s">
+    <row r="144" spans="1:2" ht="30">
+      <c r="A144" s="51"/>
+      <c r="B144" s="29" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="75">
-      <c r="A143" s="49" t="s">
+    <row r="145" spans="1:2" ht="75">
+      <c r="A145" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B145" s="29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="75">
-      <c r="A144" s="49"/>
-      <c r="B144" s="29" t="s">
+    <row r="146" spans="1:2" ht="75">
+      <c r="A146" s="51"/>
+      <c r="B146" s="29" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="B145" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="B146" s="29" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B149" s="29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="45">
-      <c r="A148" s="49" t="s">
+    <row r="150" spans="1:2" ht="45">
+      <c r="A150" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B150" s="29" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="45">
-      <c r="A149" s="49"/>
-      <c r="B149" s="29" t="s">
+    <row r="151" spans="1:2" ht="45">
+      <c r="A151" s="51"/>
+      <c r="B151" s="29" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="75">
-      <c r="A150" s="30" t="s">
+    <row r="152" spans="1:2" ht="75">
+      <c r="A152" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B152" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30">
-      <c r="A151" s="49" t="s">
+    <row r="153" spans="1:2" ht="30">
+      <c r="A153" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B153" s="29" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="90">
-      <c r="A152" s="49"/>
-      <c r="B152" s="29" t="s">
+    <row r="154" spans="1:2" ht="90">
+      <c r="A154" s="51"/>
+      <c r="B154" s="29" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="45">
-      <c r="A153" s="29" t="s">
+    <row r="155" spans="1:2" ht="45">
+      <c r="A155" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="B155" s="29" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="29" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B156" s="29" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="29" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="B155" s="29" t="s">
+      <c r="B157" s="29" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="90">
-      <c r="A156" s="29" t="s">
+    <row r="158" spans="1:2" ht="90">
+      <c r="A158" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B158" s="29" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="90">
-      <c r="A157" s="29" t="s">
+    <row r="159" spans="1:2" ht="90">
+      <c r="A159" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B157" s="29" t="s">
+      <c r="B159" s="29" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="29" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="B158" s="29" t="s">
+      <c r="B160" s="29" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="B159" s="29" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="30">
-      <c r="A160" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30">
+      <c r="A162" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B163" s="29" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="29" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B164" s="29" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45">
-      <c r="A163" s="49" t="s">
+    <row r="165" spans="1:2" ht="45">
+      <c r="A165" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="B163" s="29" t="s">
+      <c r="B165" s="29" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="49"/>
-      <c r="B164" s="29" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="51"/>
+      <c r="B166" s="29" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="43" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="B167" s="44"/>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="42" t="s">
-        <v>553</v>
-      </c>
-      <c r="B168" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="42" t="s">
-        <v>554</v>
-      </c>
-      <c r="B169" t="s">
-        <v>527</v>
-      </c>
+      <c r="B169" s="47"/>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B170" t="s">
-        <v>529</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B171" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B172" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B173" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B174" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="47" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" s="49" t="s">
         <v>558</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="47"/>
-      <c r="B174" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="49"/>
+      <c r="B176" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="B175" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="B176" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B177" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B178" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B179" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B180" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="30">
-      <c r="A179" s="47" t="s">
+    <row r="181" spans="1:2" ht="30">
+      <c r="A181" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="B179" s="42" t="s">
+      <c r="B181" s="42" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="47"/>
-      <c r="B180" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" s="49"/>
+      <c r="B182" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="42" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B183" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="42" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="B184" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="30">
+      <c r="A185" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="B185" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="45">
+      <c r="A186" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="B186" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="B187" t="s">
         <v>571</v>
       </c>
-      <c r="B182" t="s">
-        <v>572</v>
+    </row>
+    <row r="188" spans="1:2" ht="30">
+      <c r="A188" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="B188" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A66:A69"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
-    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2833,12 +2833,6 @@
     <t>http://docs.aws.amazon.com/sdk-for-java/v1/developer-guide/credentials.html</t>
   </si>
   <si>
-    <t>1. go to any location of our choice
-2. create build.gradle file
-3. open it notepad/brackets or any editor
-4. add below content to - build.gradle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tasks may have properties. Tasks has description, groupId etc default properties. We can define custom properties if we need. </t>
   </si>
   <si>
@@ -3188,12 +3182,18 @@
 copies src and test resources to the build directory and 
 then executes all unit test and generates build report</t>
   </si>
+  <si>
+    <t>1. go to any location of our choice
+2. create build.gradle file
+3. open it notepad++
+4. add below content to - build.gradle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3508,16 +3508,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3532,6 +3532,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3578,7 +3586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3610,9 +3618,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3644,6 +3653,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3819,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3827,13 +3837,13 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.109375" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3844,17 +3854,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3873,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3881,13 +3891,13 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="124.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="2" max="2" width="124.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3895,19 +3905,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>220</v>
       </c>
       <c r="B2" s="47"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:2" ht="75">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -3915,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105">
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3923,7 +3933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90">
+    <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -3953,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3961,13 +3971,13 @@
       <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="102.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3975,13 +3985,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="47"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
@@ -3989,7 +3999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
@@ -3997,7 +4007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
@@ -4005,7 +4015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
@@ -4021,7 +4031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -4029,7 +4039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
@@ -4037,7 +4047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -4045,7 +4055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -4053,7 +4063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
@@ -4069,23 +4079,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>220</v>
       </c>
       <c r="B15" s="47"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="47"/>
     </row>
-    <row r="18" spans="1:2" ht="45">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>35</v>
       </c>
@@ -4093,13 +4103,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="51"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
@@ -4115,7 +4125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
@@ -4131,7 +4141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>45</v>
       </c>
@@ -4139,7 +4149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
@@ -4147,7 +4157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>49</v>
       </c>
@@ -4155,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="195">
+    <row r="27" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>51</v>
       </c>
@@ -4163,7 +4173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="90">
+    <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
@@ -4171,7 +4181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>55</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
@@ -4187,7 +4197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>59</v>
       </c>
@@ -4195,19 +4205,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="50"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="50" t="s">
+      <c r="B32" s="51"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="50"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="51"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>65</v>
       </c>
@@ -4223,7 +4233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75">
+    <row r="36" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>67</v>
       </c>
@@ -4231,7 +4241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="45">
+    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>69</v>
       </c>
@@ -4239,7 +4249,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
+    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>71</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>72</v>
       </c>
@@ -4255,7 +4265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>74</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>76</v>
       </c>
@@ -4271,7 +4281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>78</v>
       </c>
@@ -4279,7 +4289,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>80</v>
       </c>
@@ -4287,7 +4297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75">
+    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>82</v>
       </c>
@@ -4295,7 +4305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>84</v>
       </c>
@@ -4303,21 +4313,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="51" t="s">
+    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="315">
+    <row r="47" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A47" s="52"/>
       <c r="B47" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>89</v>
       </c>
@@ -4325,7 +4335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="150">
+    <row r="49" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>91</v>
       </c>
@@ -4333,7 +4343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>93</v>
       </c>
@@ -4341,7 +4351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30">
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>95</v>
       </c>
@@ -4349,7 +4359,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60">
+    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>97</v>
       </c>
@@ -4357,7 +4367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="255">
+    <row r="53" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>99</v>
       </c>
@@ -4365,21 +4375,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45">
-      <c r="A54" s="50" t="s">
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="51" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="50"/>
+    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="51"/>
       <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60">
+    <row r="56" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="53" t="s">
         <v>104</v>
       </c>
@@ -4387,13 +4397,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="53"/>
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>107</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>109</v>
       </c>
@@ -4409,7 +4419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>111</v>
       </c>
@@ -4417,7 +4427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>113</v>
       </c>
@@ -4425,7 +4435,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>115</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="45">
+    <row r="63" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>117</v>
       </c>
@@ -4441,7 +4451,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="90">
+    <row r="64" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
@@ -4449,7 +4459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30">
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>120</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="60">
+    <row r="66" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>122</v>
       </c>
@@ -4465,7 +4475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="195">
+    <row r="67" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>124</v>
       </c>
@@ -4473,7 +4483,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>126</v>
       </c>
@@ -4481,7 +4491,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>128</v>
       </c>
@@ -4489,7 +4499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30">
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>130</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>132</v>
       </c>
@@ -4505,7 +4515,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30">
+    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>133</v>
       </c>
@@ -4513,97 +4523,97 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="50" t="s">
+    <row r="73" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="51" t="s">
         <v>135</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="50"/>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="51"/>
       <c r="B74" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="50"/>
+    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="51"/>
       <c r="B75" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="50"/>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="51"/>
       <c r="B76" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="50"/>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="51"/>
       <c r="B77" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="50"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="51"/>
       <c r="B78" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="50"/>
+    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="51"/>
       <c r="B79" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="50"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
       <c r="B80" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45">
-      <c r="A81" s="50" t="s">
+    <row r="81" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="51" t="s">
         <v>144</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="210">
-      <c r="A82" s="50"/>
+    <row r="82" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="51"/>
       <c r="B82" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30">
-      <c r="A83" s="50" t="s">
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="51" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="50"/>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="51"/>
       <c r="B84" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="50"/>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
       <c r="B85" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="50"/>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="51"/>
       <c r="B86" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>152</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30">
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>153</v>
       </c>
@@ -4619,7 +4629,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="90">
+    <row r="89" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>155</v>
       </c>
@@ -4627,7 +4637,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>157</v>
       </c>
@@ -4635,7 +4645,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="60">
+    <row r="91" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>159</v>
       </c>
@@ -4643,7 +4653,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30">
+    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>161</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
+    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>163</v>
       </c>
@@ -4659,7 +4669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30">
+    <row r="94" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>165</v>
       </c>
@@ -4667,7 +4677,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="45">
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>167</v>
       </c>
@@ -4675,7 +4685,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30">
+    <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>93</v>
       </c>
@@ -4683,7 +4693,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>170</v>
       </c>
@@ -4691,21 +4701,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="48" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="50" t="s">
         <v>172</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="240">
-      <c r="A99" s="48"/>
+    <row r="99" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="50"/>
       <c r="B99" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30">
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>175</v>
       </c>
@@ -4713,41 +4723,41 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="51" t="s">
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="49" t="s">
         <v>177</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="51"/>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="49"/>
       <c r="B102" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30">
-      <c r="A103" s="48" t="s">
+    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="50" t="s">
         <v>180</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="300">
-      <c r="A104" s="48"/>
+    <row r="104" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A104" s="50"/>
       <c r="B104" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="48"/>
+    <row r="105" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="50"/>
       <c r="B105" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>184</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>186</v>
       </c>
@@ -4763,13 +4773,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>189</v>
       </c>
@@ -4777,7 +4787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>191</v>
       </c>
@@ -4785,7 +4795,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>193</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="315">
+    <row r="112" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>195</v>
       </c>
@@ -4801,7 +4811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>197</v>
       </c>
@@ -4809,55 +4819,55 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30">
-      <c r="A114" s="49" t="s">
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="48" t="s">
         <v>199</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="49"/>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="48"/>
       <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="49"/>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="48"/>
       <c r="B116" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="45">
-      <c r="A117" s="49" t="s">
+    <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="48" t="s">
         <v>203</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="135">
-      <c r="A118" s="49"/>
+    <row r="118" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="48"/>
       <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="120">
-      <c r="A119" s="51" t="s">
+    <row r="119" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="49" t="s">
         <v>206</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="210">
-      <c r="A120" s="51"/>
+    <row r="120" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="49"/>
       <c r="B120" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="195">
+    <row r="121" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>209</v>
       </c>
@@ -4865,7 +4875,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="20" t="s">
         <v>224</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="120">
+    <row r="123" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>211</v>
       </c>
@@ -4881,21 +4891,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="45">
-      <c r="A124" s="49" t="s">
+    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="48" t="s">
         <v>213</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="90">
-      <c r="A125" s="49"/>
+    <row r="125" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A125" s="48"/>
       <c r="B125" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="180">
+    <row r="126" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>216</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="135">
+    <row r="127" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>218</v>
       </c>
@@ -4911,7 +4921,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
         <v>226</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="120">
+    <row r="129" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="24" t="s">
         <v>230</v>
       </c>
@@ -4927,13 +4937,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="46" t="s">
         <v>231</v>
       </c>
       <c r="B131" s="47"/>
     </row>
-    <row r="132" spans="1:2" ht="45">
+    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
         <v>232</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
         <v>234</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
         <v>130</v>
       </c>
@@ -4957,7 +4967,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30">
+    <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
         <v>252</v>
       </c>
@@ -4965,7 +4975,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="45">
+    <row r="136" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
         <v>237</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30">
+    <row r="137" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
         <v>239</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30">
+    <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
         <v>241</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="30">
+    <row r="139" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
         <v>244</v>
       </c>
@@ -4997,7 +5007,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30">
+    <row r="140" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
         <v>247</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
         <v>249</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
         <v>251</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
         <v>253</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
         <v>159</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
         <v>161</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
         <v>163</v>
       </c>
@@ -5053,7 +5063,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
         <v>165</v>
       </c>
@@ -5061,7 +5071,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
         <v>259</v>
       </c>
@@ -5069,7 +5079,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="195">
+    <row r="149" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
         <v>262</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="195">
+    <row r="150" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
         <v>264</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30">
+    <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
         <v>266</v>
       </c>
@@ -5093,7 +5103,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="195">
+    <row r="152" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
         <v>268</v>
       </c>
@@ -5101,22 +5111,22 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
         <v>273</v>
       </c>
@@ -5124,7 +5134,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
         <v>274</v>
       </c>
@@ -5132,7 +5142,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>157</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
         <v>163</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
         <v>237</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>279</v>
       </c>
@@ -5164,7 +5174,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
         <v>282</v>
       </c>
@@ -5172,7 +5182,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" customHeight="1">
+    <row r="163" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="34" t="s">
         <v>493</v>
       </c>
@@ -5180,65 +5190,60 @@
         <v>494</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="34"/>
       <c r="B164" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B167" s="47"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="B167" s="47"/>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="43" t="s">
+      <c r="B168" t="s">
         <v>573</v>
       </c>
-      <c r="B168" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="43" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="43" t="s">
+      <c r="B169" t="s">
         <v>575</v>
       </c>
-      <c r="B169" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="43" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="43" t="s">
+      <c r="B170" t="s">
         <v>577</v>
       </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="43" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="43" t="s">
+      <c r="B171" t="s">
         <v>579</v>
       </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="43" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="43" t="s">
+      <c r="B172" t="s">
         <v>581</v>
-      </c>
-      <c r="B172" t="s">
-        <v>582</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A103:A105"/>
@@ -5255,6 +5260,11 @@
     <mergeCell ref="A73:A80"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A101:A102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5278,21 +5288,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="122.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="122.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5300,272 +5310,272 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="47"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="38" t="s">
+      <c r="B4" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" t="s">
         <v>545</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
-        <v>547</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="47"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="B11" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>220</v>
       </c>
       <c r="B13" s="47"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="42"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="B18" s="47"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="36" t="s">
+      <c r="B19" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="B19" s="27" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
+      <c r="B20" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B20" s="27" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="37" t="s">
+      <c r="B25" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="B25" s="37" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="37" t="s">
+      <c r="B26" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="B26" s="42" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="37" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="B29" s="37" t="s">
+    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="37" t="s">
+      <c r="B31" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="B31" s="37" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="37" t="s">
-        <v>521</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="B33" s="38" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="38" t="s">
+      <c r="B34" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="B34" s="38" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="38" t="s">
+      <c r="B35" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="B35" s="38" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="38" t="s">
+      <c r="B36" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="B36" s="38" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="90">
-      <c r="A37" s="49" t="s">
+      <c r="B37" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="B37" s="38" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="38" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="49"/>
-      <c r="B38" s="38" t="s">
+    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="38" t="s">
+      <c r="B39" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="47"/>
     </row>
-    <row r="42" spans="1:2" ht="60">
+    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>285</v>
       </c>
@@ -5573,7 +5583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="165">
+    <row r="43" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>286</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>290</v>
       </c>
@@ -5589,33 +5599,33 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="51" t="s">
+    <row r="45" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
         <v>292</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="51"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="49"/>
       <c r="B46" s="28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="51"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
       <c r="B47" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105">
-      <c r="A48" s="51"/>
+    <row r="48" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
       <c r="B48" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>296</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60">
+    <row r="50" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>298</v>
       </c>
@@ -5631,7 +5641,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>300</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="75">
+    <row r="52" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>302</v>
       </c>
@@ -5647,7 +5657,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>305</v>
       </c>
@@ -5655,7 +5665,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>306</v>
       </c>
@@ -5663,7 +5673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>308</v>
       </c>
@@ -5671,7 +5681,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>400</v>
       </c>
@@ -5679,61 +5689,61 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B57" s="42" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="51" t="s">
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="49" t="s">
         <v>310</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="51"/>
+    <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="49"/>
       <c r="B59" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="75">
-      <c r="A60" s="51"/>
+    <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="49"/>
       <c r="B60" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="51" t="s">
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="49" t="s">
         <v>314</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="51"/>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="49"/>
       <c r="B62" s="35" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="51"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="49"/>
       <c r="B63" s="28" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="51"/>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="49"/>
       <c r="B64" s="28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>317</v>
       </c>
@@ -5741,33 +5751,33 @@
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="48" t="s">
         <v>350</v>
       </c>
       <c r="B66" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="49"/>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="48"/>
       <c r="B67" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="49"/>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="48"/>
       <c r="B68" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="49"/>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="48"/>
       <c r="B69" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30">
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>323</v>
       </c>
@@ -5775,7 +5785,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="90">
+    <row r="71" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>491</v>
       </c>
@@ -5783,91 +5793,91 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="49" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
         <v>326</v>
       </c>
       <c r="B72" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90">
-      <c r="A73" s="49"/>
+    <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="48"/>
       <c r="B73" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="165">
-      <c r="A74" s="51" t="s">
+    <row r="74" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="49" t="s">
         <v>329</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="120">
-      <c r="A75" s="51"/>
+    <row r="75" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="49"/>
       <c r="B75" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
         <v>332</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="135">
-      <c r="A77" s="49"/>
+    <row r="77" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="48"/>
       <c r="B77" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="75">
-      <c r="A78" s="49" t="s">
+    <row r="78" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="48" t="s">
         <v>335</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="49"/>
+    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="48"/>
       <c r="B79" s="28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="165">
-      <c r="A80" s="51" t="s">
+    <row r="80" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="49" t="s">
         <v>338</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="51"/>
+    <row r="81" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="49"/>
       <c r="B81" s="28" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="51" t="s">
+    <row r="82" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="49" t="s">
         <v>341</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="51"/>
+    <row r="83" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="49"/>
       <c r="B83" s="28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
         <v>344</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
         <v>346</v>
       </c>
@@ -5883,7 +5893,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
         <v>348</v>
       </c>
@@ -5891,21 +5901,21 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="135">
-      <c r="A87" s="51" t="s">
+    <row r="87" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="49" t="s">
         <v>351</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="90">
-      <c r="A88" s="51"/>
+    <row r="88" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="49"/>
       <c r="B88" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
         <v>354</v>
       </c>
@@ -5913,21 +5923,21 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="195">
-      <c r="A90" s="51" t="s">
+    <row r="90" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="49" t="s">
         <v>356</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="105">
-      <c r="A91" s="51"/>
+    <row r="91" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="49"/>
       <c r="B91" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="29" t="s">
         <v>359</v>
       </c>
@@ -5935,7 +5945,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="90">
+    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="29" t="s">
         <v>361</v>
       </c>
@@ -5943,7 +5953,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="105">
+    <row r="94" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94" s="29" t="s">
         <v>362</v>
       </c>
@@ -5951,7 +5961,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30">
+    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="29" t="s">
         <v>364</v>
       </c>
@@ -5959,21 +5969,21 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45">
-      <c r="A96" s="51" t="s">
+    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="49" t="s">
         <v>366</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30">
-      <c r="A97" s="51"/>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="49"/>
       <c r="B97" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="75">
+    <row r="98" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="29" t="s">
         <v>369</v>
       </c>
@@ -5981,55 +5991,55 @@
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105">
-      <c r="A99" s="51" t="s">
+    <row r="99" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="49" t="s">
         <v>371</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="60">
-      <c r="A100" s="51"/>
+    <row r="100" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="49"/>
       <c r="B100" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="60">
-      <c r="A101" s="51"/>
+    <row r="101" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="49"/>
       <c r="B101" s="29" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="90">
-      <c r="A102" s="51" t="s">
+    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="49" t="s">
         <v>375</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30">
-      <c r="A103" s="51"/>
+    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="49"/>
       <c r="B103" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="105">
-      <c r="A104" s="51" t="s">
-        <v>541</v>
+    <row r="104" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="49" t="s">
+        <v>540</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="105">
-      <c r="A105" s="51"/>
+    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="49"/>
       <c r="B105" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="45">
+    <row r="106" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="29" t="s">
         <v>380</v>
       </c>
@@ -6037,49 +6047,49 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="135">
-      <c r="A107" s="51" t="s">
+    <row r="107" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="49" t="s">
         <v>386</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="51"/>
+    <row r="108" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="49"/>
       <c r="B108" s="29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="135">
-      <c r="A109" s="51" t="s">
+    <row r="109" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="49" t="s">
         <v>387</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="51"/>
+    <row r="110" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="49"/>
       <c r="B110" s="29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="135">
-      <c r="A111" s="51" t="s">
+    <row r="111" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="49" t="s">
         <v>398</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45">
-      <c r="A112" s="51"/>
+    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="49"/>
       <c r="B112" s="29" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30">
+    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="29" t="s">
         <v>390</v>
       </c>
@@ -6087,35 +6097,35 @@
         <v>391</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="75">
-      <c r="A114" s="51" t="s">
+    <row r="114" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A114" s="49" t="s">
         <v>392</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="240">
-      <c r="A115" s="51"/>
+    <row r="115" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="49"/>
       <c r="B115" s="29" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="75">
-      <c r="A116" s="51" t="s">
+    <row r="116" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A116" s="49" t="s">
         <v>395</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="75">
-      <c r="A117" s="51"/>
+    <row r="117" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A117" s="49"/>
       <c r="B117" s="29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="29" t="s">
         <v>399</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="29" t="s">
         <v>403</v>
       </c>
@@ -6131,7 +6141,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="29" t="s">
         <v>405</v>
       </c>
@@ -6139,7 +6149,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="60">
+    <row r="121" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="29" t="s">
         <v>408</v>
       </c>
@@ -6147,7 +6157,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="75">
+    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="29" t="s">
         <v>409</v>
       </c>
@@ -6155,7 +6165,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="75">
+    <row r="123" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="29" t="s">
         <v>411</v>
       </c>
@@ -6163,7 +6173,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="135">
+    <row r="124" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A124" s="29" t="s">
         <v>413</v>
       </c>
@@ -6171,7 +6181,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="165">
+    <row r="125" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A125" s="29" t="s">
         <v>416</v>
       </c>
@@ -6179,21 +6189,21 @@
         <v>415</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="180">
-      <c r="A126" s="51" t="s">
+    <row r="126" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="49" t="s">
         <v>417</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="165">
-      <c r="A127" s="51"/>
+    <row r="127" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="49"/>
       <c r="B127" s="29" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="120">
+    <row r="128" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A128" s="29" t="s">
         <v>420</v>
       </c>
@@ -6201,7 +6211,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30">
+    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="29" t="s">
         <v>422</v>
       </c>
@@ -6209,7 +6219,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30">
+    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="29" t="s">
         <v>424</v>
       </c>
@@ -6217,7 +6227,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="150">
+    <row r="131" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A131" s="29" t="s">
         <v>426</v>
       </c>
@@ -6225,21 +6235,21 @@
         <v>427</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="49" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="48" t="s">
         <v>428</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="49"/>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="48"/>
       <c r="B133" s="29" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="30">
+    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="29" t="s">
         <v>431</v>
       </c>
@@ -6247,7 +6257,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="29" t="s">
         <v>432</v>
       </c>
@@ -6255,7 +6265,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30">
+    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="29" t="s">
         <v>434</v>
       </c>
@@ -6263,7 +6273,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="29" t="s">
         <v>436</v>
       </c>
@@ -6271,7 +6281,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="60">
+    <row r="138" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="29" t="s">
         <v>438</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="29" t="s">
         <v>440</v>
       </c>
@@ -6287,7 +6297,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="165">
+    <row r="140" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A140" s="29" t="s">
         <v>443</v>
       </c>
@@ -6295,7 +6305,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="45">
+    <row r="141" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="29" t="s">
         <v>444</v>
       </c>
@@ -6303,41 +6313,41 @@
         <v>445</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="30">
-      <c r="A142" s="51" t="s">
+    <row r="142" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="49" t="s">
         <v>448</v>
       </c>
       <c r="B142" s="29" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="180">
-      <c r="A143" s="51"/>
+    <row r="143" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="49"/>
       <c r="B143" s="29" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30">
-      <c r="A144" s="51"/>
+    <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="49"/>
       <c r="B144" s="29" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="75">
-      <c r="A145" s="51" t="s">
+    <row r="145" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A145" s="49" t="s">
         <v>450</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="75">
-      <c r="A146" s="51"/>
+    <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A146" s="49"/>
       <c r="B146" s="29" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
         <v>453</v>
       </c>
@@ -6345,7 +6355,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="29" t="s">
         <v>455</v>
       </c>
@@ -6353,7 +6363,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="29" t="s">
         <v>457</v>
       </c>
@@ -6361,21 +6371,21 @@
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="45">
-      <c r="A150" s="51" t="s">
+    <row r="150" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="49" t="s">
         <v>459</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="45">
-      <c r="A151" s="51"/>
+    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="49"/>
       <c r="B151" s="29" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="75">
+    <row r="152" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="30" t="s">
         <v>463</v>
       </c>
@@ -6383,21 +6393,21 @@
         <v>462</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30">
-      <c r="A153" s="51" t="s">
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="49" t="s">
         <v>464</v>
       </c>
       <c r="B153" s="29" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="90">
-      <c r="A154" s="51"/>
+    <row r="154" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="49"/>
       <c r="B154" s="29" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="45">
+    <row r="155" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="29" t="s">
         <v>467</v>
       </c>
@@ -6405,7 +6415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="29" t="s">
         <v>469</v>
       </c>
@@ -6413,7 +6423,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="29" t="s">
         <v>471</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="90">
+    <row r="158" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" s="29" t="s">
         <v>473</v>
       </c>
@@ -6429,7 +6439,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="90">
+    <row r="159" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A159" s="29" t="s">
         <v>475</v>
       </c>
@@ -6437,7 +6447,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="29" t="s">
         <v>477</v>
       </c>
@@ -6445,7 +6455,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="29" t="s">
         <v>479</v>
       </c>
@@ -6453,7 +6463,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30">
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="29" t="s">
         <v>481</v>
       </c>
@@ -6461,7 +6471,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="29" t="s">
         <v>483</v>
       </c>
@@ -6469,7 +6479,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="29" t="s">
         <v>485</v>
       </c>
@@ -6477,176 +6487,198 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="45">
-      <c r="A165" s="51" t="s">
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="49" t="s">
         <v>487</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="51"/>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="49"/>
       <c r="B166" s="29" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B169" s="47"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B170" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="B171" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="B171" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="42" t="s">
+      <c r="B172" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="42" t="s">
         <v>555</v>
-      </c>
-      <c r="B172" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="42" t="s">
-        <v>556</v>
       </c>
       <c r="B173" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B174" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="49" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="B175" t="s">
         <v>558</v>
       </c>
-      <c r="B175" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="48"/>
+      <c r="B176" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="49"/>
-      <c r="B176" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="B177" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="42" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="42" t="s">
         <v>562</v>
-      </c>
-      <c r="B177" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="42" t="s">
-        <v>563</v>
       </c>
       <c r="B178" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B179" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="B179" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="42" t="s">
+      <c r="B180" t="s">
         <v>565</v>
       </c>
-      <c r="B180" t="s">
+    </row>
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="48" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="30">
-      <c r="A181" s="49" t="s">
+      <c r="B181" s="42" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="48"/>
+      <c r="B182" t="s">
         <v>567</v>
       </c>
-      <c r="B181" s="42" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="42" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="49"/>
-      <c r="B182" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="42" t="s">
-        <v>570</v>
       </c>
       <c r="B183" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="B184" t="s">
         <v>585</v>
       </c>
-      <c r="B184" t="s">
+    </row>
+    <row r="185" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="B185" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30">
-      <c r="A185" s="44" t="s">
+    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="B186" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="B185" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="45">
-      <c r="A186" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="B186" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="44" t="s">
+      <c r="B187" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="B188" t="s">
         <v>590</v>
-      </c>
-      <c r="B187" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="30">
-      <c r="A188" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="B188" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:B10"/>
@@ -6663,28 +6695,6 @@
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>

--- a/Definitions/f_Definitions_Build_Tools.xlsx
+++ b/Definitions/f_Definitions_Build_Tools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="578">
   <si>
     <t>Topics</t>
   </si>
@@ -1669,9 +1669,6 @@
     <t>to attache our source code to jar</t>
   </si>
   <si>
-    <t>Gradle Fundamentals [Course]</t>
-  </si>
-  <si>
     <t>Install gradle</t>
   </si>
   <si>
@@ -3002,52 +2999,10 @@
 }</t>
   </si>
   <si>
-    <t>Gradle Practice</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/GradlePractice</t>
-  </si>
-  <si>
-    <t>Gradle DSL</t>
-  </si>
-  <si>
-    <t>https://docs.gradle.org/4.1/dsl/</t>
-  </si>
-  <si>
-    <t>Gradle docs</t>
-  </si>
-  <si>
-    <t>https://gradle.org/docs/</t>
-  </si>
-  <si>
     <t>declare variable across many projects, means across multiple build.gradle files</t>
   </si>
   <si>
     <t>add source directories. defaults to src/main/java, src/test/java. If we want to change we can do as follows</t>
-  </si>
-  <si>
-    <t>Sample Gradle file</t>
-  </si>
-  <si>
-    <t>images/gradle/sample-gradle.txt</t>
-  </si>
-  <si>
-    <t>Gradle Beyond Basics</t>
-  </si>
-  <si>
-    <t>images/gradle/Gradle Beyond the Basics.pdf</t>
-  </si>
-  <si>
-    <t>Pluralsight</t>
-  </si>
-  <si>
-    <t>Workspaces</t>
-  </si>
-  <si>
-    <t>Eclipse workspace</t>
-  </si>
-  <si>
-    <t>E:\workspaces\gradle-ws</t>
   </si>
   <si>
     <t xml:space="preserve"> compile("junit:junit:4.12")</t>
@@ -3145,12 +3100,6 @@
   </si>
   <si>
     <t>mvn dependency:tree</t>
-  </si>
-  <si>
-    <t>Gradle videos</t>
-  </si>
-  <si>
-    <t>1-order-of-tutorials.xlsx</t>
   </si>
   <si>
     <t>build the gradle wrapper of specific version</t>
@@ -3187,6 +3136,9 @@
 2. create build.gradle file
 3. open it notepad++
 4. add below content to - build.gradle</t>
+  </si>
+  <si>
+    <t>Update in Cerebro</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3501,6 +3453,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3508,16 +3463,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3856,7 +3811,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3906,16 +3861,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -3967,8 +3922,8 @@
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3986,10 +3941,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -4080,20 +4035,20 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
@@ -4314,7 +4269,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="32" t="s">
@@ -4322,7 +4277,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="32" t="s">
         <v>88</v>
       </c>
@@ -4390,7 +4345,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4398,7 +4353,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -4702,7 +4657,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="49" t="s">
         <v>172</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -4710,7 +4665,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="4" t="s">
         <v>174</v>
       </c>
@@ -4724,7 +4679,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="52" t="s">
         <v>177</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4732,13 +4687,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="49"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="49" t="s">
         <v>180</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -4746,13 +4701,13 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="288" x14ac:dyDescent="0.3">
-      <c r="A104" s="50"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="50"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="4" t="s">
         <v>183</v>
       </c>
@@ -4820,7 +4775,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="50" t="s">
         <v>199</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -4828,19 +4783,19 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="48"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="48"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="48" t="s">
+      <c r="A117" s="50" t="s">
         <v>203</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -4848,13 +4803,13 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="48"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="52" t="s">
         <v>206</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -4862,7 +4817,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="49"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="4" t="s">
         <v>208</v>
       </c>
@@ -4892,7 +4847,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="50" t="s">
         <v>213</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -4900,7 +4855,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="48"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="13" t="s">
         <v>215</v>
       </c>
@@ -4938,10 +4893,10 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="47"/>
+      <c r="B131" s="48"/>
     </row>
     <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
@@ -5184,66 +5139,71 @@
     </row>
     <row r="163" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="B163" t="s">
         <v>493</v>
-      </c>
-      <c r="B163" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="34"/>
       <c r="B164" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="46" t="s">
-        <v>571</v>
-      </c>
-      <c r="B167" s="47"/>
+      <c r="A167" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="B167" s="48"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="43" t="s">
-        <v>572</v>
+      <c r="A168" s="42" t="s">
+        <v>557</v>
       </c>
       <c r="B168" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="43" t="s">
-        <v>574</v>
+      <c r="A169" s="42" t="s">
+        <v>559</v>
       </c>
       <c r="B169" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="43" t="s">
-        <v>576</v>
+      <c r="A170" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="B170" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="43" t="s">
-        <v>578</v>
+      <c r="A171" s="42" t="s">
+        <v>563</v>
       </c>
       <c r="B171" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="43" t="s">
-        <v>580</v>
+      <c r="A172" s="42" t="s">
+        <v>565</v>
       </c>
       <c r="B172" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A103:A105"/>
@@ -5260,11 +5220,6 @@
     <mergeCell ref="A73:A80"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A101:A102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
@@ -5289,11 +5244,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5311,1400 +5266,1310 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>537</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="B5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A5" s="41"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="48"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="48"/>
+    </row>
+    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>582</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>547</v>
-      </c>
-      <c r="B10" s="47"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="47"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="B18" s="47"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>541</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="B32" s="37" t="s">
+      <c r="B31" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="46"/>
+      <c r="B36" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="47"/>
-    </row>
-    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>285</v>
-      </c>
       <c r="B42" s="28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
+        <v>307</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
+        <v>309</v>
+      </c>
       <c r="B47" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="46"/>
       <c r="B48" s="28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>296</v>
-      </c>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="46"/>
       <c r="B49" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>299</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
-        <v>302</v>
-      </c>
+      <c r="A51" s="46"/>
+      <c r="B51" s="35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="46"/>
       <c r="B52" s="28" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>305</v>
-      </c>
+      <c r="A53" s="46"/>
       <c r="B53" s="28" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>309</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="45"/>
+      <c r="B56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="45"/>
+      <c r="B57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="45"/>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="45"/>
+      <c r="B62" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="46"/>
+      <c r="B64" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="45"/>
+      <c r="B66" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="45"/>
+      <c r="B68" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="46"/>
+      <c r="B70" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="46"/>
+      <c r="B72" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="46"/>
+      <c r="B77" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="46"/>
+      <c r="B80" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="52"/>
+      <c r="B86" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="52"/>
+      <c r="B89" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="52"/>
+      <c r="B90" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="52"/>
+      <c r="B92" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="52"/>
+      <c r="B94" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="52"/>
+      <c r="B97" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="52"/>
+      <c r="B99" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="52"/>
+      <c r="B101" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A103" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="52"/>
+      <c r="B104" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="52"/>
+      <c r="B106" s="29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B107" s="29" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
-        <v>551</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A60" s="49"/>
-      <c r="B60" s="28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="49"/>
-      <c r="B64" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="B66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="48"/>
-      <c r="B68" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="48"/>
-      <c r="B69" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="B70" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A112" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="52"/>
+      <c r="B116" s="29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A120" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="50"/>
+      <c r="B122" s="29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B123" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="B72" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="48"/>
-      <c r="B73" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="49"/>
-      <c r="B75" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A78" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="48"/>
-      <c r="B79" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="49"/>
-      <c r="B81" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A83" s="49"/>
-      <c r="B83" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="49"/>
-      <c r="B88" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="49"/>
-      <c r="B91" s="28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B95" s="29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="49"/>
-      <c r="B97" s="29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A98" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="49"/>
-      <c r="B100" s="29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="49"/>
-      <c r="B101" s="29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="49"/>
-      <c r="B103" s="29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="49"/>
-      <c r="B105" s="29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="49"/>
-      <c r="B108" s="29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="49"/>
-      <c r="B110" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="49"/>
-      <c r="B112" s="29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="49"/>
-      <c r="B115" s="29" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A116" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A117" s="49"/>
-      <c r="B117" s="29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A122" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A123" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="29" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="29" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="49" t="s">
-        <v>417</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="49"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="29" t="s">
+        <v>437</v>
+      </c>
       <c r="B127" s="29" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="29" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A129" s="29" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="29" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A131" s="29" t="s">
-        <v>426</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="52" t="s">
+        <v>447</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="48" t="s">
-        <v>428</v>
-      </c>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="52"/>
       <c r="B132" s="29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="48"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="52"/>
       <c r="B133" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="29" t="s">
-        <v>432</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A134" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A135" s="52"/>
       <c r="B135" s="29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="29" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="29" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="29" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="29" t="s">
-        <v>440</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="52" t="s">
+        <v>458</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="29" t="s">
-        <v>443</v>
-      </c>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="52"/>
       <c r="B140" s="29" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="29" t="s">
-        <v>444</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A141" s="30" t="s">
+        <v>462</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="49" t="s">
-        <v>448</v>
+      <c r="A142" s="52" t="s">
+        <v>463</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="49"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="52"/>
       <c r="B143" s="29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="49"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="29" t="s">
+        <v>466</v>
+      </c>
       <c r="B144" s="29" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A145" s="49" t="s">
-        <v>450</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="29" t="s">
+        <v>468</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A146" s="49"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="29" t="s">
+        <v>470</v>
+      </c>
       <c r="B146" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A148" s="29" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="29" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="49" t="s">
-        <v>459</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="29" t="s">
+        <v>478</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="49"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="29" t="s">
+        <v>480</v>
+      </c>
       <c r="B151" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A152" s="30" t="s">
-        <v>463</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="29" t="s">
+        <v>482</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="49" t="s">
-        <v>464</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="29" t="s">
+        <v>484</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="49"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="52" t="s">
+        <v>486</v>
+      </c>
       <c r="B154" s="29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="29" t="s">
-        <v>467</v>
-      </c>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="52"/>
       <c r="B155" s="29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="B156" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="29" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="B158" s="48"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="B159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="B160" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="B161" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="B162" t="s">
         <v>471</v>
       </c>
-      <c r="B157" s="29" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="B158" s="29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="B159" s="29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B162" s="29" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="B163" s="29" t="s">
-        <v>484</v>
+      <c r="A163" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="B165" s="29" t="s">
-        <v>488</v>
+      <c r="A164" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="B164" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="50"/>
+      <c r="B165" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="49"/>
-      <c r="B166" s="29" t="s">
-        <v>489</v>
+      <c r="A166" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="B166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="B167" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="B168" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="B169" s="47"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="42" t="s">
+      <c r="A169" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="B169" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="B170" s="41" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="50"/>
+      <c r="B171" t="s">
         <v>552</v>
       </c>
-      <c r="B170" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="42" t="s">
-        <v>553</v>
-      </c>
-      <c r="B171" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="41" t="s">
         <v>554</v>
       </c>
       <c r="B172" t="s">
-        <v>528</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="43" t="s">
+        <v>567</v>
+      </c>
+      <c r="B173" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="B174" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A175" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="B175" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="B176" t="s">
         <v>555</v>
       </c>
-      <c r="B173" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="42" t="s">
-        <v>556</v>
-      </c>
-      <c r="B174" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="48" t="s">
-        <v>557</v>
-      </c>
-      <c r="B175" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="48"/>
-      <c r="B176" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="42" t="s">
-        <v>561</v>
+    </row>
+    <row r="177" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="44" t="s">
+        <v>574</v>
       </c>
       <c r="B177" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="B178" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="B179" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="42" t="s">
-        <v>564</v>
-      </c>
-      <c r="B180" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="B181" s="42" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="48"/>
-      <c r="B182" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="B183" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="B184" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="B185" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="B186" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="B187" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="B188" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A37:A38"/>
+  <mergeCells count="22">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
     <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Graddle!A2" display="Up"/>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>